--- a/whowherewhen/whowhenwhere_test_result_kriminalitas.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kriminalitas.xlsx
@@ -551,8 +551,10 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>0</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Iman, Tersangka AS, Polisi, Tersangka, Korban, Korban Punya Hubungan Iman, Tegar Beriman, LH</t>
+        </is>
       </c>
       <c r="B2" t="n">
         <v>0</v>
@@ -676,8 +678,10 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>0</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>LGBT, Amerika Serikat, Qatar, Grant Wahl, AS, Grant, Eric, Infantino, Argentina, FIFA, Presiden Gianni Infantino, Lusail, Piala Dunia, Celine, Belanda, WIB, CPR</t>
+        </is>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -810,8 +814,10 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>0</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Ricky, KUHP, Ferdy Sambo, Eliezer, Bripka Ricky Rizal, Honda Beat, Kuat, KTP, BNI</t>
+        </is>
       </c>
       <c r="B4" t="n">
         <v>0</v>
@@ -859,12 +865,12 @@
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>brebes</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P4" t="n">
@@ -938,8 +944,10 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>0</v>
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Jaksa, Eliezer, Yosua, Richard Eliezer, Bharada E, Bharada Richard Eliezer, Ferdy Sambo, Brigadir J, Brigadir, Brigadir Nopriansyah Yosua Hutabarat, Tadi Saudara RE, Ricky Rizal Tepis Sambo Tertawa Bripka Ricky Rizal, Bripka Ricky Rizal, Sambo, Putri Candrawathi, Kuat, Richard, Ricky, KUHP, Bripka Ricky, Brigadir Yosua</t>
+        </is>
       </c>
       <c r="B5" t="n">
         <v>0</v>
@@ -1069,8 +1077,10 @@
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>0</v>
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>CCTV, Saudara Richard, Chuck Diminta, Pak Ferdy Sambo, Ferdy Sambo, Chuck, Polres, DVR, Bripka Ricky Rizal, Eliezer, Yosua, Brigjen Hendra Kurniawan, Sambo, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Kompol Chuck Putranto</t>
+        </is>
       </c>
       <c r="B6" t="n">
         <v>0</v>
@@ -1204,8 +1214,10 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>0</v>
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Kawasan Pantai Marina, Yunantyo, Iwan Boedi Prasetijo, LPSK, Iwan Boedi</t>
+        </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -1325,8 +1337,10 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>0</v>
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Brigadir J, Yosua, Sambo, Wahyu Iman Santoso</t>
+        </is>
       </c>
       <c r="B8" t="n">
         <v>0</v>
@@ -1420,8 +1434,10 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>0</v>
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>AKBP Arif Rachman Arifin, CCTV, Agus Sariful, Hendra, Paminal Propam Polri Hendra Kurniawan, Brigadir Yosua Hutabarat, Mantan, Hendra Kurniawan, Kompol Baiquni Wibowo, Kadiv Propam Polri Ferdy Sambo, AKP Irfan Widyanto, Yosua Hutabarat, Timsus Agus Sariful Hidayat, Kompol Chuck Putranto, Agus, Timsus Polri</t>
+        </is>
       </c>
       <c r="B9" t="n">
         <v>0</v>
@@ -1543,8 +1559,10 @@
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>0</v>
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>Malabar, Kapolres, Nogosaren, Polres, AKBP Teuku Arsya Khadafi, Arsya, Kecamatana, MF</t>
+        </is>
       </c>
       <c r="B10" t="n">
         <v>0</v>
@@ -1679,8 +1697,10 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>0</v>
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Santoso, Kapolres, Tim Inafis Polda, TKP, Wali, Argo, Arga, AKBP Argowiyono</t>
+        </is>
       </c>
       <c r="B11" t="n">
         <v>0</v>
@@ -1799,8 +1819,10 @@
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>0</v>
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Richard, Bharada E, Bharada Richard Eliezer, Ricky, Bharada, Tadi Saudara RE, Ferdy Sambo, Hakim Wahyu Imam Santoso, Bripka Ricky, Eliezer, LPSK, Sambo Tertawa Usai Pembunuhan Yosua Eliezer, Hakim, Yosua</t>
+        </is>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -1935,8 +1957,10 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>0</v>
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Takut, WCC Nurani Perempuan, Meri, Satgas, Rahmi Meri Yanti, Direktur WCC Nurani Perempuan, Nurani Perempuan, Unand</t>
+        </is>
       </c>
       <c r="B13" t="n">
         <v>0</v>
@@ -2053,8 +2077,10 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>0</v>
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CCTV, Bharada Richard Eliezer, Ferdy Sambo, Brigadir Yosua Hutabarat, Chuck, Arif Rachman, Sambo, Chuck Putranto, Yosua</t>
+        </is>
       </c>
       <c r="B14" t="n">
         <v>0</v>
@@ -2176,8 +2202,10 @@
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>0</v>
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Umum PKB Jazilul Fawaid, Eva, Pegunungan, Bank, Jazilul, Sipil KKB, TNI, Polri, KKB, BNPT, PKB</t>
+        </is>
       </c>
       <c r="B15" t="n">
         <v>0</v>
@@ -2306,8 +2334,10 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>0</v>
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Reni, Ricky Rizal, Pengacara Putri Candrawathi, Layak, Ferdy Sambo, Putri, Bu Putri, Yosua, Richard Eliezer, Putri Candrawathi, Brigadir Yosua, Febri, Febri Diansyah, Kuat, PC, Reni Kusumowardhani</t>
+        </is>
       </c>
       <c r="B16" t="n">
         <v>0</v>
@@ -2355,12 +2385,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -2472,8 +2502,10 @@
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
-        <v>0</v>
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Aipda Marianus Demon Hada, Air, B, Ridwan, Satuan Reskrim Polres, POLDA NTT, AKP Ridwan</t>
+        </is>
       </c>
       <c r="B17" t="n">
         <v>0</v>
@@ -2589,8 +2621,10 @@
       </c>
     </row>
     <row r="18">
-      <c r="A18" t="n">
-        <v>0</v>
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Saudara, FS, KUHP, Putri, Ferdy Sambo, Pak FS, Elizer, Eliezer, Bripka Ricky Rizal, Yosua, Kadiv Propam Polri Ferdy Sambo, Sambo, Putri Candrawathi, Hakim, Bharada Richard Eliezer Pudihang Lumiu, Brigadir Nopriansyah Yosua Hutabarat, Kuat</t>
+        </is>
       </c>
       <c r="B18" t="n">
         <v>0</v>
@@ -2638,12 +2672,12 @@
       </c>
       <c r="N18" t="inlineStr">
         <is>
-          <t>bangka</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O18" t="inlineStr">
         <is>
-          <t>bangka belitung</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P18" t="n">
@@ -2725,8 +2759,10 @@
       </c>
     </row>
     <row r="19">
-      <c r="A19" t="n">
-        <v>0</v>
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Reni, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Ahli Psikologi Forensik Reni Kusumowardhani, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Sambo, Putri Candrawathi, Ricky Rizal Wibowo, Khusus Ferdy Sambo, Brigadir Yosua, Kuat, Ferdy Sambo Didakwa Pembunuhan Berencana Ferdy Sambo</t>
+        </is>
       </c>
       <c r="B19" t="n">
         <v>0</v>
@@ -2868,8 +2904,10 @@
       </c>
     </row>
     <row r="20">
-      <c r="A20" t="n">
-        <v>0</v>
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Kowad Kostrad Sudah, Mayor Paspampres, TNI, Jenderal Andika, Andika, Panglima TNI Jenderal Andika Perkasa</t>
+        </is>
       </c>
       <c r="B20" t="n">
         <v>0</v>
@@ -2993,8 +3031,10 @@
       </c>
     </row>
     <row r="21">
-      <c r="A21" t="n">
-        <v>0</v>
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Deli Serdang, N, Nurhaida, SMK, Sumatera</t>
+        </is>
       </c>
       <c r="B21" t="n">
         <v>0</v>
@@ -3113,8 +3153,10 @@
       </c>
     </row>
     <row r="22">
-      <c r="A22" t="n">
-        <v>0</v>
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Saudara, Bharada Richard Eliezer, KUHP, Provos, Putri, Ferdy Sambo, Bripka Ricky Rizal, Kodir, Sambo, Putri Candrawathi, Hakim, Kuat, Yosua, Provos Polri</t>
+        </is>
       </c>
       <c r="B22" t="n">
         <v>0</v>
@@ -3256,8 +3298,10 @@
       </c>
     </row>
     <row r="23">
-      <c r="A23" t="n">
-        <v>0</v>
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Simak, Keraton Kasunanan Solo, TRKD, Agung, Wirabhumi, Agung Susilo, KPH Eddy Wirabhumi, Dilansir</t>
+        </is>
       </c>
       <c r="B23" t="n">
         <v>0</v>
@@ -3371,8 +3415,10 @@
       </c>
     </row>
     <row r="24">
-      <c r="A24" t="n">
-        <v>0</v>
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>SMA, Hotman, Diaz, W, Pak, Hotman Paris, Instagram, Humas Pengadilan Negeri, Perlindungan Anak, Presiden, MAP, Mahkamah Agung, Sumatera, A, Kopi Joni, JPU</t>
+        </is>
       </c>
       <c r="B24" t="n">
         <v>0</v>
@@ -3511,8 +3557,10 @@
       </c>
     </row>
     <row r="25">
-      <c r="A25" t="n">
-        <v>0</v>
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Karmila Simatupang, Babapan, Iptu Luis Beltran, Gang Pasir, Pelaku, Janda Cantik Dibunuh Tetangga, Warga, Polisi, Tetangga, Brandan, Polsek, Memet, Rahmat, Luis, TKP, Sumatra, Securai, Karmila, R</t>
+        </is>
       </c>
       <c r="B25" t="n">
         <v>0</v>
@@ -3652,8 +3700,10 @@
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="n">
-        <v>0</v>
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Santoso, Tim, Dirkrimum, Wali, Priyo, AKBP Argowiyono, Pelaku, Rumah Dinas Wali, Polisi, Avanza, Sekda, Kapolres, Tim Polda, Pemkot, Dirreskrimum Polda, TKP, Toto Robandiyo, Priyo Suhartono, Argo, Kabid Labfor, CCTV, Kombes Totok Suharyanto, Ponsel, Kepala Bakesbangpol, Toto</t>
+        </is>
       </c>
       <c r="B26" t="n">
         <v>0</v>
@@ -3830,8 +3880,10 @@
       </c>
     </row>
     <row r="27">
-      <c r="A27" t="n">
-        <v>0</v>
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Brigadir N Yosua Hutabarat, Eliezer, Bharada Eliezer, Yosua, Richard Eliezer, ART, Ferdy Sambo, Putri, Hakim, ADC, Bripka Ricky Rizal, Habis, Sambo, Putri Candrawathi, Kuat, Richard, Saudara, Susi, Ricky, Iya, Brigadir Yosua</t>
+        </is>
       </c>
       <c r="B27" t="n">
         <v>0</v>
@@ -3879,12 +3931,12 @@
       </c>
       <c r="N27" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O27" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P27" t="n">
@@ -3964,8 +4016,10 @@
       </c>
     </row>
     <row r="28">
-      <c r="A28" t="n">
-        <v>0</v>
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Santoso, Pelaku, CCTV, Feti, Brankasnya Pak, Satpol PP, Brankas, Kabid Humas Polda, Kombes Pol Dirmanto, Tjutjuk Sunario, Wali</t>
+        </is>
       </c>
       <c r="B28" t="n">
         <v>0</v>
@@ -4130,8 +4184,10 @@
       </c>
     </row>
     <row r="29">
-      <c r="A29" t="n">
-        <v>0</v>
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>AFP, CENTCOM, Amerika Serikat, AS, SDF, Kurdi, Suriah, ISI, Hak Asasi Manusia, Turki, Ankara, Komando, ISIS, Kepala Observatorium Rami Abdel Rahman</t>
+        </is>
       </c>
       <c r="B29" t="n">
         <v>0</v>
@@ -4261,8 +4317,10 @@
       </c>
     </row>
     <row r="30">
-      <c r="A30" t="n">
-        <v>0</v>
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Saudara, Ade, Brigadir N Yosua Hutabarat, Ferdy Sambo, Wahyu Iman Santoso, Yosua, Ade Firmansyah Sugiarto, Putri Candrawathi, Hakim, Farah, RSCM, Kuat</t>
+        </is>
       </c>
       <c r="B30" t="n">
         <v>0</v>
@@ -4389,8 +4447,10 @@
       </c>
     </row>
     <row r="31">
-      <c r="A31" t="n">
-        <v>0</v>
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Pelaku, Polsek, TG, Warga, Kasat Reskrim Polres, Syahruddin, SH, Sasmito, Korban, Iptu Sasmito, Pria, Kapolsek, AKP Syahruddin, Bonto Katute, SB</t>
+        </is>
       </c>
       <c r="B31" t="n">
         <v>0</v>
@@ -4525,8 +4585,10 @@
       </c>
     </row>
     <row r="32">
-      <c r="A32" t="n">
-        <v>0</v>
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Polsek, Warga, PB, Pemuda, AKP Syafnil, Korban, Mapolsek, Kapolsek</t>
+        </is>
       </c>
       <c r="B32" t="n">
         <v>0</v>
@@ -4650,8 +4712,10 @@
       </c>
     </row>
     <row r="33">
-      <c r="A33" t="n">
-        <v>0</v>
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Jl Arjuno, FAN, KPK, Kabag Pemberitaan KPK Ali Fikri, Penuntutan KPK, Harapannya, Dilansir, Ali, Maling, Ali Fikri, Tipikor, Pastikan Perkara Tetap</t>
+        </is>
       </c>
       <c r="B33" t="n">
         <v>0</v>
@@ -4778,8 +4842,10 @@
       </c>
     </row>
     <row r="34">
-      <c r="A34" t="n">
-        <v>0</v>
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>MN, Kapolres, Taufik, Ramdhan, Arya, TKP, EG</t>
+        </is>
       </c>
       <c r="B34" t="n">
         <v>0</v>
@@ -4906,8 +4972,10 @@
       </c>
     </row>
     <row r="35">
-      <c r="A35" t="n">
-        <v>0</v>
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Kanit Reskrim Polsek, Kombes Pasma Royce, Polisi, AR, Krendang, Kami Polsek, Pelaku Ngaku Sakit Pelaku, Reskrim Polsek, Korban, Kompol Putra Pratama, Kapolsek, Jakbar, Putra, Iptu Rizky Ari Budianto</t>
+        </is>
       </c>
       <c r="B35" t="n">
         <v>0</v>
@@ -5036,8 +5104,10 @@
       </c>
     </row>
     <row r="36">
-      <c r="A36" t="n">
-        <v>0</v>
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Wali, Mobil Kapolresta, TKP, AKBP Argowiyono, Polresta, Ipda Ludfi</t>
+        </is>
       </c>
       <c r="B36" t="n">
         <v>0</v>
@@ -5143,8 +5213,10 @@
       </c>
     </row>
     <row r="37">
-      <c r="A37" t="n">
-        <v>0</v>
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Saudara, Mabes Polri, Putri, Hakim Wahyu, Brigadir Yosua Hutabarat, Wahyu Iman Santoso, Kadiv Propam Polri Ferdy Sambo, Putri Candrawathi, Yosua Hutabarat, Hakim, Polri, Yosua, Bharada Elizer</t>
+        </is>
       </c>
       <c r="B37" t="n">
         <v>0</v>
@@ -5296,8 +5368,10 @@
       </c>
     </row>
     <row r="38">
-      <c r="A38" t="n">
-        <v>0</v>
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>AKBP Achmad Gusti Hartono, Terbaru, Kapolres, Kasat Reskrim Polres, Dwijaya, Y, Rawas, Sumatera, AKP M Indra, S, FD, Semangus, Lakitan</t>
+        </is>
       </c>
       <c r="B38" t="n">
         <v>0</v>
@@ -5440,8 +5514,10 @@
       </c>
     </row>
     <row r="39">
-      <c r="A39" t="n">
-        <v>0</v>
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Sedih, Khusus Sambo, Ferdy Sambo, Putri, Mantan, Provost Divisi Propam Polri Benny Ali, Brigadir J, Kadiv Propam, Sambo, Putri Candrawathi, Nofriansyah Yosua Hutabarat, Benny, Kuat, Yosua, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B39" t="n">
         <v>0</v>
@@ -5589,8 +5665,10 @@
       </c>
     </row>
     <row r="40">
-      <c r="A40" t="n">
-        <v>0</v>
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Polisi, Sajarod, Plt Kapolresta, AKBP Mochammad Sajarod Zakun</t>
+        </is>
       </c>
       <c r="B40" t="n">
         <v>0</v>
@@ -5703,8 +5781,10 @@
       </c>
     </row>
     <row r="41">
-      <c r="A41" t="n">
-        <v>0</v>
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Tim Khusus Polri Agus Sariful Hidayat, Timsus, Brigadir Yosua Hutabarat, Hendra Kurniawan, TKP, Yosua, Agus, Kombes Agus Nurpatria</t>
+        </is>
       </c>
       <c r="B41" t="n">
         <v>0</v>
@@ -5839,8 +5919,10 @@
       </c>
     </row>
     <row r="42">
-      <c r="A42" t="n">
-        <v>0</v>
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Pelaku, Kasat Reskrim Polresta Tanjungpinang AKP Ronny Burungudju, Polisi, MiChat, MA, Honda Beat, Tim Opsnal Jatanras Sat Reskrim Polresta Tanjungpinang, Besar</t>
+        </is>
       </c>
       <c r="B42" t="n">
         <v>0</v>
@@ -5953,8 +6035,10 @@
       </c>
     </row>
     <row r="43">
-      <c r="A43" t="n">
-        <v>0</v>
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Gilles Thomas Allcard William, CCTV, Polsek, Kasi Humas Polres, Tersangka, Panit Reskrim Polsek, Yamaha Scorpio, Inggris, Deus Canggu, Tibubeneng, Kapolsek, Iptu I Ketut Sudana, Deus, Wijaya, Ipda Made Guna Wijaya</t>
+        </is>
       </c>
       <c r="B43" t="n">
         <v>0</v>
@@ -5997,7 +6081,7 @@
       </c>
       <c r="M43" t="inlineStr">
         <is>
-          <t>kuta</t>
+          <t>kuta utara</t>
         </is>
       </c>
       <c r="N43" t="inlineStr">
@@ -6075,8 +6159,10 @@
       </c>
     </row>
     <row r="44">
-      <c r="A44" t="n">
-        <v>0</v>
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>CCTV, Kristina, Kompol Nyoman Darsana, Indonesia, Kapolsek, Darsana</t>
+        </is>
       </c>
       <c r="B44" t="n">
         <v>0</v>
@@ -6205,8 +6291,10 @@
       </c>
     </row>
     <row r="45">
-      <c r="A45" t="n">
-        <v>0</v>
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>AKP Agus Purnomo, Pelaku, Kalong, Kasat Reskrim Polres, Tersangka, Korban, Budi Hartono, Pisau, Kademangann, Agus</t>
+        </is>
       </c>
       <c r="B45" t="n">
         <v>0</v>
@@ -6323,8 +6411,10 @@
       </c>
     </row>
     <row r="46">
-      <c r="A46" t="n">
-        <v>0</v>
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Kanit Reskrim Polsek, Tumbur, DPRD, HKBP Legenda, Gereja HKBP Legenda, Polsek, Yudha, Ipda Muhammad Yudha Firmansyah, Korban, Tumbur Hutasoit, Tas, Mobil Toyota Kijang Innova, Usai</t>
+        </is>
       </c>
       <c r="B46" t="n">
         <v>0</v>
@@ -6437,8 +6527,10 @@
       </c>
     </row>
     <row r="47">
-      <c r="A47" t="n">
-        <v>0</v>
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Gunung Sahari, Satreskrim Polres, Komisi E DPRD DKI, Kapolres, DKI, MA, Anggara, Pemprov DKI, Pasar Cipadu, Kombes Komarudin, Anggara Wicitra Sastroamidjojo</t>
+        </is>
       </c>
       <c r="B47" t="n">
         <v>0</v>
@@ -6491,7 +6583,7 @@
       </c>
       <c r="O47" t="inlineStr">
         <is>
-          <t>DKI Jakarta</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P47" t="n">
@@ -6562,8 +6654,10 @@
       </c>
     </row>
     <row r="48">
-      <c r="A48" t="n">
-        <v>0</v>
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Zainal</t>
+        </is>
       </c>
       <c r="B48" t="n">
         <v>0</v>
@@ -6675,8 +6769,10 @@
       </c>
     </row>
     <row r="49">
-      <c r="A49" t="n">
-        <v>0</v>
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Kejati DKI, Patris, DKI, RJ</t>
+        </is>
       </c>
       <c r="B49" t="n">
         <v>0</v>
@@ -6729,7 +6825,7 @@
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>-</t>
         </is>
       </c>
       <c r="P49" t="n">
@@ -6802,8 +6898,10 @@
       </c>
     </row>
     <row r="50">
-      <c r="A50" t="n">
-        <v>0</v>
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Denanyar, Mayjend Sungkono, Polisi, Lumpur, Sekarkurung, AKBP Mochamad Nur Azis, Nur Azis, M Satrio</t>
+        </is>
       </c>
       <c r="B50" t="n">
         <v>0</v>
@@ -6933,8 +7031,10 @@
       </c>
     </row>
     <row r="51">
-      <c r="A51" t="n">
-        <v>0</v>
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Richard, Koh Erben, Sidang, Alfons, Pengacara Eliezer, Ferdy Sambo, Kesaksian, Eliezer, Bharada Richard Eliezer Pudihang Lumia, Bripka Ricky Rizal, LPSK, Romer, Sadam, TKP, Ronny Talapessy, Ronny, Kuat, Arman Hanis</t>
+        </is>
       </c>
       <c r="B51" t="n">
         <v>0</v>
@@ -7092,8 +7192,10 @@
       </c>
     </row>
     <row r="52">
-      <c r="A52" t="n">
-        <v>0</v>
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>PCR, Brigadir N Yosua Hutabarat, Putri, Elizer, Eliezer, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Sambo, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Om Kuat, Kuat</t>
+        </is>
       </c>
       <c r="B52" t="n">
         <v>0</v>
@@ -7141,12 +7243,12 @@
       </c>
       <c r="N52" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O52" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P52" t="n">
@@ -7216,8 +7318,10 @@
       </c>
     </row>
     <row r="53">
-      <c r="A53" t="n">
-        <v>0</v>
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, Putri, Ferdy Sambo, Eliezer, Bripka Ricky Rizal, Sambo, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua</t>
+        </is>
       </c>
       <c r="B53" t="n">
         <v>0</v>
@@ -7265,12 +7369,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -7341,8 +7445,10 @@
       </c>
     </row>
     <row r="54">
-      <c r="A54" t="n">
-        <v>0</v>
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Brigadir N Yosua Hutabarat, Kadiv Propam Polri, Chuck Didakwa, Agus Nurpatria Adi Purnama, Kasus Pembunuhan Yosua Chuck Putranto, Ferdy Sambo, Kompol Baiquni Wibowo, Afrizal, Chuck Putranto, Kasubbagaudit Baggaketika Rowabprof Divisi Propam Polri, Hendra Kurnia, Chuck, Sambo, Afrizal Hadi, Polri, AKBP Arif Rachman Arifin, CCTV, KUHP, Brigadir Yosua, Yosua Hutabarat</t>
+        </is>
       </c>
       <c r="B54" t="n">
         <v>0</v>
@@ -7483,8 +7589,10 @@
       </c>
     </row>
     <row r="55">
-      <c r="A55" t="n">
-        <v>0</v>
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Kasat Reskrim Polres Kutim Iptu I Made Jata Wiranegara, Polsek, Jata, Polisi, Dirayu, Pelaku PA, Korban, Kutai, PA, Pria, Ancalong</t>
+        </is>
       </c>
       <c r="B55" t="n">
         <v>0</v>
@@ -7610,8 +7718,10 @@
       </c>
     </row>
     <row r="56">
-      <c r="A56" t="n">
-        <v>0</v>
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>CCTV, Kapolresta, Pihaknya, Wali, Argo, AKBP Argowiyono</t>
+        </is>
       </c>
       <c r="B56" t="n">
         <v>0</v>
@@ -7719,8 +7829,10 @@
       </c>
     </row>
     <row r="57">
-      <c r="A57" t="n">
-        <v>0</v>
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Jogja, CCTV, Kasat Reskrim Polresta Jogja, Haryadi Suyuti, Polisi, Archye, Rencana, Polresta Jogja, Direskrimum Polda, Nuredy, Penangkapan, DVR CCTV, KPK, Wali, Kombes Nuredy Irwansyah, AKP Archye Nevada, Idham</t>
+        </is>
       </c>
       <c r="B57" t="n">
         <v>0</v>
@@ -7854,8 +7966,10 @@
       </c>
     </row>
     <row r="58">
-      <c r="A58" t="n">
-        <v>0</v>
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Apartemen Green Pramuka, Tersangka, Rudolf Tobing, Buat H, Icha, Rudolf</t>
+        </is>
       </c>
       <c r="B58" t="n">
         <v>0</v>
@@ -7976,8 +8090,10 @@
       </c>
     </row>
     <row r="59">
-      <c r="A59" t="n">
-        <v>0</v>
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Tim Opsnal Jatanras, Pogot, Kasat Reskrim Polrestabes, Soetomo, RSU, Putat, TKP, ALD, Petemon, AKBP Mirzal Maulana, RSUD, Mirzal, Unit Jatanras</t>
+        </is>
       </c>
       <c r="B59" t="n">
         <v>0</v>
@@ -8092,8 +8208,10 @@
       </c>
     </row>
     <row r="60">
-      <c r="A60" t="n">
-        <v>0</v>
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Kapolsek Ilir, CCTV, Polisi, Kompol Rian Suhendi, Cabe Kecil, Maidi, Kepolisian Sektor Ilir, Korban, Mulkan, Sumatera, Ilir</t>
+        </is>
       </c>
       <c r="B60" t="n">
         <v>0</v>
@@ -8211,8 +8329,10 @@
       </c>
     </row>
     <row r="61">
-      <c r="A61" t="n">
-        <v>0</v>
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Kuat Maruf, Sebab, Woy, Hakim Wahyu, Adzan Romer, J, Eliezer, Yosua, Richard Eliezer, Ricky Rizal, Ferdy Sambo, Hakim Ketua Wahyu Iman Santoso, Brigadir J, Brigadir, Khusus Ferdy Sambo, Hakim, Arman Hanis, Sambo, Putri Candrawathi, Enggak, Kuat, Richard, Wahyu, Susi, Ricky, RR, Majelis Hakim, Rumah, Kadiv Propam, Nofriansyah Yosua Hutabarat</t>
+        </is>
       </c>
       <c r="B61" t="n">
         <v>0</v>
@@ -8260,12 +8380,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -8412,8 +8532,10 @@
       </c>
     </row>
     <row r="62">
-      <c r="A62" t="n">
-        <v>0</v>
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Pelaku, DD, Polisi, Sertijab Kapolsek, Sajarod, Plt Kapolresta, AKBP Mochammad Sajarod Zakun</t>
+        </is>
       </c>
       <c r="B62" t="n">
         <v>0</v>
@@ -8538,8 +8660,10 @@
       </c>
     </row>
     <row r="63">
-      <c r="A63" t="n">
-        <v>0</v>
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Ahmad Suhel, Coba, Brigadir Yosua Hutabarat, Agus, Arif, Polres, Biro Paminal Divpropam Polri, Wakaden B Ropaminal Divpropam Polri AKBP Arif Rachman Arifin, Biro Paminal, Reskrim Jaksel, Yosua, Terdakwa, Polri Agus Sariful Hidayat</t>
+        </is>
       </c>
       <c r="B63" t="n">
         <v>0</v>
@@ -8660,8 +8784,10 @@
       </c>
     </row>
     <row r="64">
-      <c r="A64" t="n">
-        <v>0</v>
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Direktur Reskrimum Polda, Polisi, Hengki, Polda, Kombes Hengki Haryadi</t>
+        </is>
       </c>
       <c r="B64" t="n">
         <v>0</v>
@@ -8789,8 +8915,10 @@
       </c>
     </row>
     <row r="65">
-      <c r="A65" t="n">
-        <v>0</v>
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Saudara, Bharada Richard Eliezer, Ricky, Ferdy Sambo, Putri, Wahyu Iman Santoso, Djuyamto, Bripka Ricky Rizal, Putri Candrawathi, Hakim, Sidang Eliezer, Humas PN, Kuat</t>
+        </is>
       </c>
       <c r="B65" t="n">
         <v>0</v>
@@ -8925,8 +9053,10 @@
       </c>
     </row>
     <row r="66">
-      <c r="A66" t="n">
-        <v>0</v>
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Setop, Brigadir N Yosua Hutabarat, Adzan Romer, Eliezer, Jaksa, Bharada Richard Eliezer Pudihang Lumiu, Yosua, Ricky Rizal, Ferdy Sambo, Romer, Hakim, ADC, FS, HS, Sambo, Putri Candrawathi, Mobil Ferdy Sambo, CCTV, Wahyu, Ricky, Heri Priyanto, Wahyu Iman</t>
+        </is>
       </c>
       <c r="B66" t="n">
         <v>0</v>
@@ -9092,8 +9222,10 @@
       </c>
     </row>
     <row r="67">
-      <c r="A67" t="n">
-        <v>0</v>
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Rambutnya, Outlaw, Smith, Unknown Child, Polisi Philadelphia, Departemen Kepolisian Philadelphia, Komisaris Polisi Philadelphia Danielle Outlaw, Philadelphia, Josep Augustus Zarelli, Joseph</t>
+        </is>
       </c>
       <c r="B67" t="n">
         <v>0</v>
@@ -9234,8 +9366,10 @@
       </c>
     </row>
     <row r="68">
-      <c r="A68" t="n">
-        <v>0</v>
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CCTV, Pas, Setyo, Sopirnya, AKP Setyo Widodo, Mobil, Kapolsek</t>
+        </is>
       </c>
       <c r="B68" t="n">
         <v>0</v>
@@ -9352,8 +9486,10 @@
       </c>
     </row>
     <row r="69">
-      <c r="A69" t="n">
-        <v>0</v>
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>S, Ibunya, Edwin</t>
+        </is>
       </c>
       <c r="B69" t="n">
         <v>0</v>
@@ -9463,8 +9599,10 @@
       </c>
     </row>
     <row r="70">
-      <c r="A70" t="n">
-        <v>0</v>
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>AS, Iptu Tri Novi Handono, SDS, Polisi, Puskesmas, Novi, MiChat, EK, Kasubbag Humas Polresta, Open BO, AKP Tiksnarto Novi Rahutomo, Wojoruntut</t>
+        </is>
       </c>
       <c r="B70" t="n">
         <v>0</v>
@@ -9591,8 +9729,10 @@
       </c>
     </row>
     <row r="71">
-      <c r="A71" t="n">
-        <v>0</v>
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Lebakharjo Sumarno, Sumarno, Polisi, Korban, Lebakharjo, Ngadilan, Kepala, Lina, Sukarni</t>
+        </is>
       </c>
       <c r="B71" t="n">
         <v>0</v>
@@ -9716,8 +9856,10 @@
       </c>
     </row>
     <row r="72">
-      <c r="A72" t="n">
-        <v>0</v>
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Reni, Bharada Richard Eliezer, Wahyu, Aji Febrianto, Ferdy Sambo, Ahli Psikologi Forensik Reni Kusumowardhani, Aji, Bripka Ricky Rizal, Yosua, Brigadir Yosua, Putri Candrawathi, Ferdy, Kuat</t>
+        </is>
       </c>
       <c r="B72" t="n">
         <v>0</v>
@@ -9882,8 +10024,10 @@
       </c>
     </row>
     <row r="73">
-      <c r="A73" t="n">
-        <v>0</v>
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>BM, AT, Dewa, NM, Nyoman, MT, Korban, Kapolres Boltim AKBP Dewa Nyoman Agung, Dodap, MS</t>
+        </is>
       </c>
       <c r="B73" t="n">
         <v>0</v>
@@ -10006,8 +10150,10 @@
       </c>
     </row>
     <row r="74">
-      <c r="A74" t="n">
-        <v>0</v>
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>A, Korban, SMP, Dawud, Iptu Moch Dawud, Ipda Hepi Muslih Riza, Hepi</t>
+        </is>
       </c>
       <c r="B74" t="n">
         <v>0</v>
@@ -10134,8 +10280,10 @@
       </c>
     </row>
     <row r="75">
-      <c r="A75" t="n">
-        <v>0</v>
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Wahyu, Putri, Ferdy Sambo, Brigadir Yosua Hutabarat, Wahyu Iman Santosa, Eliezer, Yosua, LPSK, Putri Candrawathi, Hakim, Ronny Talapessy, Kuat, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B75" t="n">
         <v>0</v>
@@ -10248,8 +10396,10 @@
       </c>
     </row>
     <row r="76">
-      <c r="A76" t="n">
-        <v>0</v>
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Hendra, Mantan, Irfan, Pak Jaksa, Yosua, Ferdy Sambo, Kompol Baiquni Wibowo, Paminal Propam Polri Hendra Kurniawan, Yanma, Yanma Polri, Polri, AKBP Arif Rachman Arifin, Brigjen Hendra Kurnia, CCTV, Kombes Agus Nurpatria Adi Purnama, KUHP, Brigadir Yosua, AKP Irfan Widyanto, Demosi, Yosua Hutabarat, Kompol Chuck Putranto</t>
+        </is>
       </c>
       <c r="B76" t="n">
         <v>0</v>
@@ -10402,8 +10552,10 @@
       </c>
     </row>
     <row r="77">
-      <c r="A77" t="n">
-        <v>0</v>
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>WA, Ditsiber Polri, Jaksa, Eliezer, Komunikasi, Yosua, Richard Eliezer, Ricky Rizal, Bharada Richard Eliezer, Ferdy Sambo, WhatsApp Irjen Ferdy Sambo, WhatsApp, Pak, Cad, Adi, Putri Candrawathi, Sambo, Kuat, Richard, Brigadir Yosua Hutabarat, Adi Setya, Irjen Ferdy Sambo, Brigadir Yosua, Bapak Kapolri</t>
+        </is>
       </c>
       <c r="B77" t="n">
         <v>0</v>
@@ -10549,8 +10701,10 @@
       </c>
     </row>
     <row r="78">
-      <c r="A78" t="n">
-        <v>0</v>
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Saudara, Brigadir N Yosua Hutabarat, Putri, Ferdy Sambo, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Putri Candrawathi, Hakim, Bharada Eliezer, Yosua</t>
+        </is>
       </c>
       <c r="B78" t="n">
         <v>0</v>
@@ -10667,8 +10821,10 @@
       </c>
     </row>
     <row r="79">
-      <c r="A79" t="n">
-        <v>0</v>
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>AKBP Arif Rachman Arifin, CCTV, Irfan Widyanto, AKBP Ari Cahya, Acay, Hendra, Brigadir Yosua Hutabarat, Ferdy Sambo, Irfan, AKP Irfan Widyanto, Hakim, Brigadir Yosua, Kombes Agus, Pak Agus, Yosua</t>
+        </is>
       </c>
       <c r="B79" t="n">
         <v>0</v>
@@ -10810,8 +10966,10 @@
       </c>
     </row>
     <row r="80">
-      <c r="A80" t="n">
-        <v>0</v>
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Yoga, Estik Dilla Rahmawati, PIN ATM, HP, ATM, Terdakwa, Alfredo, Ahmad, Dilla, PIN, Rencananya, Ahmad Hadanillah, Total, Yoga Agus Indrianto, Usai</t>
+        </is>
       </c>
       <c r="B80" t="n">
         <v>0</v>
@@ -10949,8 +11107,10 @@
       </c>
     </row>
     <row r="81">
-      <c r="A81" t="n">
-        <v>0</v>
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Saudara, Putri, Bripka Ricky, Wahyu Iman Santosa, Kadiv Propam Polri Ferdy Sambo, Putri Candrawathi, Bharada Eliezer, ADC, Kuat</t>
+        </is>
       </c>
       <c r="B81" t="n">
         <v>0</v>
@@ -11070,8 +11230,10 @@
       </c>
     </row>
     <row r="82">
-      <c r="A82" t="n">
-        <v>0</v>
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Santoso, CCTV, Kapolres, Satpol PP, Inafis, Pilkada, TKP, Wali, Korpri, AKBP Argowiyono</t>
+        </is>
       </c>
       <c r="B82" t="n">
         <v>0</v>
@@ -11234,8 +11396,10 @@
       </c>
     </row>
     <row r="83">
-      <c r="A83" t="n">
-        <v>0</v>
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>D, Sartinah, Polisi, Sajarod, Mapolres, Plt Kapolresta, Rukun, Rumah Sartinah, AKBP Mochammad Sajarod Zakun</t>
+        </is>
       </c>
       <c r="B83" t="n">
         <v>0</v>
@@ -11371,8 +11535,10 @@
       </c>
     </row>
     <row r="84">
-      <c r="A84" t="n">
-        <v>0</v>
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Suwanto, CCTV, Efeknya, Percut Sei Tuan, Kanit Reskrim Polsek Percut Sei Tuan Iptu J Simamora, Polsek Percut Sei Tuan</t>
+        </is>
       </c>
       <c r="B84" t="n">
         <v>0</v>
@@ -11505,8 +11671,10 @@
       </c>
     </row>
     <row r="85">
-      <c r="A85" t="n">
-        <v>0</v>
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>SMA, OH, Satreskrim Polres, Kasatreskrim Polres, Herli, Diaz, Korban A, GA, Agung, Humas Pengadilan Negeri, Perlindungan Anak, Kejaksaan Negeri, MAP, AKP Herli Kurniawan, Sumatera, A, Majelis Hakim Pengadilan Negeri, Hotman Paris</t>
+        </is>
       </c>
       <c r="B85" t="n">
         <v>0</v>
@@ -11656,8 +11824,10 @@
       </c>
     </row>
     <row r="86">
-      <c r="A86" t="n">
-        <v>0</v>
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Pelaku, Zulpan, Kabid Humas Polda, Alfamart, Kombes Endra Zulpan</t>
+        </is>
       </c>
       <c r="B86" t="n">
         <v>0</v>
@@ -11774,8 +11944,10 @@
       </c>
     </row>
     <row r="87">
-      <c r="A87" t="n">
-        <v>0</v>
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Pelaku, Jelambar, NC, A</t>
+        </is>
       </c>
       <c r="B87" t="n">
         <v>0</v>
@@ -11882,8 +12054,10 @@
       </c>
     </row>
     <row r="88">
-      <c r="A88" t="n">
-        <v>0</v>
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Iptu Suratno, Mapolsek Rasanae, Siti Hawa, Rontu, Suratno, Kapolsek Rasanae, KTP, Usai</t>
+        </is>
       </c>
       <c r="B88" t="n">
         <v>0</v>
@@ -11996,8 +12170,10 @@
       </c>
     </row>
     <row r="89">
-      <c r="A89" t="n">
-        <v>0</v>
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Mako Polres, Fredy, Kasat Reskrim Polres Mateng Iptu Fredy, Polisi, HP, Polres Mateng, Pria</t>
+        </is>
       </c>
       <c r="B89" t="n">
         <v>0</v>
@@ -12118,8 +12294,10 @@
       </c>
     </row>
     <row r="90">
-      <c r="A90" t="n">
-        <v>0</v>
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Fickar, Panglima TNI Jenderal Andika, Jenderal Andika, Universitas Trisakti Abdul Fickar Hadjar, Andika, Kostrad</t>
+        </is>
       </c>
       <c r="B90" t="n">
         <v>0</v>
@@ -12167,12 +12345,12 @@
       </c>
       <c r="N90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>surakarta (solo)</t>
         </is>
       </c>
       <c r="O90" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P90" t="n">
@@ -12251,8 +12429,10 @@
       </c>
     </row>
     <row r="91">
-      <c r="A91" t="n">
-        <v>0</v>
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Kasat Reskrim Polrestabes, Pertamanan, Polisi, Bobby, Kompol Teuku Fathir Mustafa, Pemkot, Wali, Bobby Nasution, R</t>
+        </is>
       </c>
       <c r="B91" t="n">
         <v>0</v>
@@ -12362,8 +12542,10 @@
       </c>
     </row>
     <row r="92">
-      <c r="A92" t="n">
-        <v>0</v>
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Hery, Bharada Richard Eliezer, Rini, Efendi Saragih, Ferdy Sambo, Wahyu Iman Santoso, Jaksa, Putri Candrawathi, PN Jaksel</t>
+        </is>
       </c>
       <c r="B92" t="n">
         <v>0</v>
@@ -12497,8 +12679,10 @@
       </c>
     </row>
     <row r="93">
-      <c r="A93" t="n">
-        <v>0</v>
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Pelaku, CCTV, Kombes Pol Zain Dwi Nugroho, Polisi, RS, Zain, IS, NG, Karang</t>
+        </is>
       </c>
       <c r="B93" t="n">
         <v>0</v>
@@ -12618,8 +12802,10 @@
       </c>
     </row>
     <row r="94">
-      <c r="A94" t="n">
-        <v>0</v>
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Bapak, Bharada E, KUHP, Emosi, Ferdy Sambo, Putri, Brigadir Yosua Hutabarat, Eliezer, Bripka Ricky Rizal, Yosua, Brigadir, Sambo, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Brigadir Nopriansyah Yosua Hutabarat, Kuat</t>
+        </is>
       </c>
       <c r="B94" t="n">
         <v>0</v>
@@ -12667,12 +12853,12 @@
       </c>
       <c r="N94" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O94" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P94" t="n">
@@ -12756,8 +12942,10 @@
       </c>
     </row>
     <row r="95">
-      <c r="A95" t="n">
-        <v>0</v>
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Wahyu Imam Santoso, Ricky, Bharada Richard Eliezer, Bang, KUHP, Ferdy Sambo, Putri, Brigadir Yosua Hutabarat, KM, Eliezer, Putri Candrawathi, Kuat, Yosua</t>
+        </is>
       </c>
       <c r="B95" t="n">
         <v>0</v>
@@ -12805,12 +12993,12 @@
       </c>
       <c r="N95" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O95" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P95" t="n">
@@ -12880,8 +13068,10 @@
       </c>
     </row>
     <row r="96">
-      <c r="A96" t="n">
-        <v>0</v>
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Reni, Kompol Agus Siswo Hariadi, Agus Siswo, Polsek, Danau Tondano, Gadingkasri, Google News, Doddy Goesto Permana, ATM, Lesanpuro, Korban, Kapolsek</t>
+        </is>
       </c>
       <c r="B96" t="n">
         <v>0</v>
@@ -13008,8 +13198,10 @@
       </c>
     </row>
     <row r="97">
-      <c r="A97" t="n">
-        <v>0</v>
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Pasalnya, Dedi, Divisi Humas Polri Irjen Dedi Prasetyo, Richard Eliezer, Ricky Rizal, Brigadir Nofriansyah Yosua Hutabarat, Ferdy Sambo, Brigadir J, Brigadir, Sambo, Hery Priyanto, Putri Candrawathi, Polri, Kuat, Mustofa, Jaksa Penuntut Umum, Timsus, Nofriansyah Yosua Hutabarat, Muhammad Mustofa</t>
+        </is>
       </c>
       <c r="B97" t="n">
         <v>0</v>
@@ -13158,8 +13350,10 @@
       </c>
     </row>
     <row r="98">
-      <c r="A98" t="n">
-        <v>0</v>
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Mayor BFH, Dugaan Awal Pemerkosaan Jenderal Andika, Jenderal Andika, Andika, Panglima TNI Jenderal Andika Perkasa</t>
+        </is>
       </c>
       <c r="B98" t="n">
         <v>0</v>
@@ -13283,8 +13477,10 @@
       </c>
     </row>
     <row r="99">
-      <c r="A99" t="n">
-        <v>0</v>
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, Irwan Irawan, Alimin Ribut Sujono, Pihak Kuat, KUHP, Majelis Hakim Wahyu Iman Santoso, Irwan, Putri Candrawathi, Dilansir, Brigadir Nopriansyah Yosua Hutabarat, KY, Kuat</t>
+        </is>
       </c>
       <c r="B99" t="n">
         <v>0</v>
@@ -13400,8 +13596,10 @@
       </c>
     </row>
     <row r="100">
-      <c r="A100" t="n">
-        <v>0</v>
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Pelaku, Tatar, SG, Korban, Demangan</t>
+        </is>
       </c>
       <c r="B100" t="n">
         <v>0</v>
@@ -13510,8 +13708,10 @@
       </c>
     </row>
     <row r="101">
-      <c r="A101" t="n">
-        <v>0</v>
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Divisi Hubungan Internasional Polri, Indonesia, Interpol, Khrisna, Jaringan Interpol, Kerjasama, Krishna, Khrisna Murti, Hilmar, Purple Notices, Stolen Works, Ditjen Kebudayaan Kemendikbud Ristek, Teknologi</t>
+        </is>
       </c>
       <c r="B101" t="n">
         <v>0</v>
@@ -13641,8 +13841,10 @@
       </c>
     </row>
     <row r="102">
-      <c r="A102" t="n">
-        <v>0</v>
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>FP, Polres Jaksel, YA, Balita Grace, Grace, Beri Nafkah SS, SS</t>
+        </is>
       </c>
       <c r="B102" t="n">
         <v>0</v>
@@ -13786,8 +13988,10 @@
       </c>
     </row>
     <row r="103">
-      <c r="A103" t="n">
-        <v>0</v>
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Kesiman, Iptu I Ketut Sukadi, Gede, Wayan Sudanta, BPBD, Sukerti, Pura, Rumah Sakit, Made Sukerti, AKP Eddy, Kaget, KS, Polresta, Aipda I Gusti Sujaya, Sukadi</t>
+        </is>
       </c>
       <c r="B103" t="n">
         <v>0</v>
@@ -13915,8 +14119,10 @@
       </c>
     </row>
     <row r="104">
-      <c r="A104" t="n">
-        <v>0</v>
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Mahrus Ali, Brigadir N Yosua Hutabarat, Ferdy Sambo, Putri, Nah, Saksi Pelaku, Mahrus, LPSK, Korban, Febri, Febri Diansyah, Saudara Ahli</t>
+        </is>
       </c>
       <c r="B104" t="n">
         <v>0</v>
@@ -14074,8 +14280,10 @@
       </c>
     </row>
     <row r="105">
-      <c r="A105" t="n">
-        <v>0</v>
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Santoso, Kapolres, Satpol PP, TKP, Pak Wali, Wali, Argo, AKBP Argowiyono</t>
+        </is>
       </c>
       <c r="B105" t="n">
         <v>0</v>
@@ -14185,8 +14393,10 @@
       </c>
     </row>
     <row r="106">
-      <c r="A106" t="n">
-        <v>0</v>
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Gua Gunung Randa, Takut, Sari, Erik Krisna Yudha, Budayawan, Belanda, Gua Randa, Bundaran Marlin, Goa Randa, Masawah, Kepala, Pantai Madasari, Ukan, Mawasah Ukan</t>
+        </is>
       </c>
       <c r="B106" t="n">
         <v>0</v>
@@ -14316,8 +14526,10 @@
       </c>
     </row>
     <row r="107">
-      <c r="A107" t="n">
-        <v>0</v>
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Richard, Bharada E, Rutan Bareskrim Polri, Pengacara Bharada E, Rutan Bareskrim, KUHP, Brigadir Yosua Hutabarat, Ricky Rizal Wibowo, Ronny Talapessy, Ronny, Kuat, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B107" t="n">
         <v>0</v>
@@ -14436,8 +14648,10 @@
       </c>
     </row>
     <row r="108">
-      <c r="A108" t="n">
-        <v>0</v>
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Kasatreskrim Polres, Satreskrim Polres, Tim Jatanras Satuan Reskrim Polres, Ridwan, FJ, Penangkapan, AKP Ridwan, SA, Aipda Marianus Demon Hada</t>
+        </is>
       </c>
       <c r="B108" t="n">
         <v>0</v>
@@ -14559,8 +14773,10 @@
       </c>
     </row>
     <row r="109">
-      <c r="A109" t="n">
-        <v>0</v>
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Chandra, Pelaku, Panglima TNI Jenderal Andika, Danpuspomad Letjen Chandra W Sukotjo, Mako Paspampres, Mayor Paspampres, Panglima TNI, KTT G20, Paspampres, Mabes TNI, Andika, Polri</t>
+        </is>
       </c>
       <c r="B109" t="n">
         <v>0</v>
@@ -14694,8 +14910,10 @@
       </c>
     </row>
     <row r="110">
-      <c r="A110" t="n">
-        <v>0</v>
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Mejan, Kasatreskrim Polres, Junior, Mary QC, James P, James, AKP Putu Ika Prabawa, Filipina, Canggu, Mary CQ, BJC</t>
+        </is>
       </c>
       <c r="B110" t="n">
         <v>0</v>
@@ -14738,7 +14956,7 @@
       </c>
       <c r="M110" t="inlineStr">
         <is>
-          <t>kuta</t>
+          <t>kuta utara</t>
         </is>
       </c>
       <c r="N110" t="inlineStr">
@@ -14807,8 +15025,10 @@
       </c>
     </row>
     <row r="111">
-      <c r="A111" t="n">
-        <v>0</v>
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>AKBP M Lukman Syarif, Coba Hilangkan Jejak Kapolres, Kapolres, Ismail, Nyaris Bunuh Kakak Kandung Tindakan, Emosi, Lukman, Fatma, Polres, Tado, Diminta, TKP, AKBP M, Murtado, Pembunuhan Pantauan, Lukman Syarif</t>
+        </is>
       </c>
       <c r="B111" t="n">
         <v>0</v>
@@ -15004,8 +15224,10 @@
       </c>
     </row>
     <row r="112">
-      <c r="A112" t="n">
-        <v>0</v>
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Polisi, AKP Ari Rinaldo, Korban, SMP, Ari</t>
+        </is>
       </c>
       <c r="B112" t="n">
         <v>0</v>
@@ -15111,8 +15333,10 @@
       </c>
     </row>
     <row r="113">
-      <c r="A113" t="n">
-        <v>0</v>
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Kasatreskrim Polresta Solo, Keputren, Putri Keraton Solo, Sapto Dumadi Ragil, GRAy Devi Lelyana Dewi, Devi, Djohan Andika, Gusti Devi, Kompol Djohan Andika</t>
+        </is>
       </c>
       <c r="B113" t="n">
         <v>0</v>
@@ -15160,7 +15384,7 @@
       </c>
       <c r="N113" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>surakarta (solo)</t>
         </is>
       </c>
       <c r="O113" t="inlineStr">
@@ -15257,8 +15481,10 @@
       </c>
     </row>
     <row r="114">
-      <c r="A114" t="n">
-        <v>0</v>
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Kombes Zain Dwi Nugroho, Kapolres, Perum, Polisi, Dugaan Elis, Elis, Elis Sugiarti, Korban, Zain, Rempoa Indah, Honda HRV, Pergi</t>
+        </is>
       </c>
       <c r="B114" t="n">
         <v>0</v>
@@ -15390,8 +15616,10 @@
       </c>
     </row>
     <row r="115">
-      <c r="A115" t="n">
-        <v>0</v>
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Mundirin, Pas, Munjirin, Jehan, Motor, Masjid</t>
+        </is>
       </c>
       <c r="B115" t="n">
         <v>0</v>
@@ -15503,8 +15731,10 @@
       </c>
     </row>
     <row r="116">
-      <c r="A116" t="n">
-        <v>0</v>
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Santoso, CCTV, Kapolres, Rumah Dinas Wali, Feti, Polisi, Indonesia, Kabid Humas Polda, Kombes Dirmanto, Saksi, Sat Reskrim Polres, Wali, AKBP Argowiyono</t>
+        </is>
       </c>
       <c r="B116" t="n">
         <v>0</v>
@@ -15648,8 +15878,10 @@
       </c>
     </row>
     <row r="117">
-      <c r="A117" t="n">
-        <v>0</v>
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>CCTV, Polda Sumatera, Deli Serdang, Percut Sei Tuan, Gunawan, Kanit Reskrim Polsek Percut Sei Tuan Iptu J Simamora</t>
+        </is>
       </c>
       <c r="B117" t="n">
         <v>0</v>
@@ -15767,8 +15999,10 @@
       </c>
     </row>
     <row r="118">
-      <c r="A118" t="n">
-        <v>0</v>
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Pelaku, Mojoruntut, Rudi, EK, Kusumo</t>
+        </is>
       </c>
       <c r="B118" t="n">
         <v>0</v>
@@ -15892,8 +16126,10 @@
       </c>
     </row>
     <row r="119">
-      <c r="A119" t="n">
-        <v>0</v>
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, Mabes Polri, Putri, Bripka Ricky Rizal, Polri, Yosua</t>
+        </is>
       </c>
       <c r="B119" t="n">
         <v>0</v>
@@ -15941,12 +16177,12 @@
       </c>
       <c r="N119" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O119" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P119" t="n">
@@ -16022,8 +16258,10 @@
       </c>
     </row>
     <row r="120">
-      <c r="A120" t="n">
-        <v>0</v>
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Polri, Indra, Tragedi Kanjuruhan, Indra Bogel, Aremana, TGIPF, Aksi, Aremania</t>
+        </is>
       </c>
       <c r="B120" t="n">
         <v>0</v>
@@ -16145,8 +16383,10 @@
       </c>
     </row>
     <row r="121">
-      <c r="A121" t="n">
-        <v>0</v>
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Pelaku, Irrine, Klapanunggal, HP, Polisi, M, Korban, TKP, Tegar Beriman</t>
+        </is>
       </c>
       <c r="B121" t="n">
         <v>0</v>
@@ -16272,8 +16512,10 @@
       </c>
     </row>
     <row r="122">
-      <c r="A122" t="n">
-        <v>0</v>
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>CCTV, Kompol Ardhie Demastyo, Kompol Ardhie, Duri, Iya, Kapolsek, Joker, Ardhie</t>
+        </is>
       </c>
       <c r="B122" t="n">
         <v>0</v>
@@ -16394,8 +16636,10 @@
       </c>
     </row>
     <row r="123">
-      <c r="A123" t="n">
-        <v>0</v>
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>CCTV, Saudara, Brigadir N Yosua Hutabarat, Chuck, Baiquni, Propam, AKP Irfan Widyanto, Hakim, Chuck Putranto, Baiquni Wibowo</t>
+        </is>
       </c>
       <c r="B123" t="n">
         <v>0</v>
@@ -16533,8 +16777,10 @@
       </c>
     </row>
     <row r="124">
-      <c r="A124" t="n">
-        <v>0</v>
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>FA, Pengeroyokannya, Polres, Kasman, Kasman Sangaji, Polda</t>
+        </is>
       </c>
       <c r="B124" t="n">
         <v>0</v>
@@ -16654,8 +16900,10 @@
       </c>
     </row>
     <row r="125">
-      <c r="A125" t="n">
-        <v>0</v>
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Kata Totok, Dirreskrimum Polda, Totok, Saksi, Wali, Kombes Totok Suharianto, Ipda Ludfi</t>
+        </is>
       </c>
       <c r="B125" t="n">
         <v>0</v>
@@ -16775,8 +17023,10 @@
       </c>
     </row>
     <row r="126">
-      <c r="A126" t="n">
-        <v>0</v>
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Dani, Keraton Kasunanan Solo, KP Dani Nur Adiningrat, Dewan Adat, Baluwarti, Agung Susilo Muslich, Wakil Pengageng Sasono Wilopo Keraton Kasunanan Solo, Korban, Susilo, STTLP, Polresta Solo, Mapolresta Solo, Kanjeng Dani, Polresta, POLDA</t>
+        </is>
       </c>
       <c r="B126" t="n">
         <v>0</v>
@@ -16824,7 +17074,7 @@
       </c>
       <c r="N126" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>surakarta (solo)</t>
         </is>
       </c>
       <c r="O126" t="inlineStr">
@@ -16909,8 +17159,10 @@
       </c>
     </row>
     <row r="127">
-      <c r="A127" t="n">
-        <v>0</v>
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Zain Dwi Nugroho, Rolex, Rumah Sakit Umum Daerah, Indonesia, Tersangka, Solo, WN Sri Lanka Diancam Hukuman Mati Tersangka SRH, Polres, SRH, Jurang Mangu, Elis, Elis Sugiarti, Zain, Pondok Aren, Sungai Cisadane, AM, Usai, Daan Mogot</t>
+        </is>
       </c>
       <c r="B127" t="n">
         <v>0</v>
@@ -17043,9 +17295,7 @@
       </c>
     </row>
     <row r="128">
-      <c r="A128" t="n">
-        <v>0</v>
-      </c>
+      <c r="A128" t="inlineStr"/>
       <c r="B128" t="n">
         <v>0</v>
       </c>
@@ -17138,8 +17388,10 @@
       </c>
     </row>
     <row r="129">
-      <c r="A129" t="n">
-        <v>0</v>
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Santoso, Pelaku, CCTV, Plt Kepala Satpol PP, Dinas, Kapolres, Dinas Wali, Rumah Dinas Wali, Ronny Yosa Pasalbessy, Satpol PP, Feti Wulandari, TKP, Wali, Argo, Argowiyono, AKBP Argowiyono</t>
+        </is>
       </c>
       <c r="B129" t="n">
         <v>0</v>
@@ -17284,8 +17536,10 @@
       </c>
     </row>
     <row r="130">
-      <c r="A130" t="n">
-        <v>0</v>
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>CCTV, Jajag, Wulan</t>
+        </is>
       </c>
       <c r="B130" t="n">
         <v>0</v>
@@ -17399,8 +17653,10 @@
       </c>
     </row>
     <row r="131">
-      <c r="A131" t="n">
-        <v>0</v>
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Jl Ampera, Eliezer, Richard Eliezer, Ricky Rizal, Ferdy Sambo, Brigadir, Brigadir Nopriansyah Yosua Hutabarat, Paminal, RS, Sambo, TKP, Putri Candrawathi, Kasat, Kuat, Saudara, CCTV, Provos Propam Polri, KUHP, Provos</t>
+        </is>
       </c>
       <c r="B131" t="n">
         <v>0</v>
@@ -17534,8 +17790,10 @@
       </c>
     </row>
     <row r="132">
-      <c r="A132" t="n">
-        <v>0</v>
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Way Serdang, Satreskrim Polres, Jatanras Polda, Kepolisian, ACU, Dirreskrimum Polda, Tulang, Brigjen Djuhandani Rahardjo Puro, Kluwih, DS, Penawar Lama, Djuhandhani</t>
+        </is>
       </c>
       <c r="B132" t="n">
         <v>0</v>
@@ -17660,8 +17918,10 @@
       </c>
     </row>
     <row r="133">
-      <c r="A133" t="n">
-        <v>0</v>
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Richard, Utah ZCT, Bharada Richard Eliezer, Putri, Agung, Asosiasi Poligraf Indonesia Agung Prasetya, Aji Febriyanto, Bripka Ricky Rizal, Aji, Brigadir, Putri Candrawathi, Sambo, Nofriansyah Yosua Hutabarat, Minus, Kuat</t>
+        </is>
       </c>
       <c r="B133" t="n">
         <v>0</v>
@@ -17791,8 +18051,10 @@
       </c>
     </row>
     <row r="134">
-      <c r="A134" t="n">
-        <v>0</v>
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Tragedi, Yayuk, Kombes Pol Ary Fadli, Sungai, Loah Buah, NF, Kapolresta, Gang Gunung Putri, SA, Justan</t>
+        </is>
       </c>
       <c r="B134" t="n">
         <v>0</v>
@@ -17928,8 +18190,10 @@
       </c>
     </row>
     <row r="135">
-      <c r="A135" t="n">
-        <v>0</v>
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Pelaku, Budi, AD, Polri, SY, RM, SH, BD, MI, AK, Biddokes Polda, Aipda Andre Wibisono, Rindang Banua, Rumah Sakit Bhayangkara Palangkaraya, DPO, TE, Menangai</t>
+        </is>
       </c>
       <c r="B135" t="n">
         <v>0</v>
@@ -18057,8 +18321,10 @@
       </c>
     </row>
     <row r="136">
-      <c r="A136" t="n">
-        <v>0</v>
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Richard, Kuwat Maruf, Irwan Irawan, Pembunuhan Berencana Yosua Eliezer, Pengacara Bharada E, Eliezer, Bripka Ricky Rizal, Yosua, Putri Candrawathi, Bripka Ricky Rizal Didakwa, Bharada Richard Eliezer Pudihang Lumiu, Ronny Talapessy, Brigadir Nopriansyah Yosua Hutabarat, Ronny, Kuat</t>
+        </is>
       </c>
       <c r="B136" t="n">
         <v>0</v>
@@ -18174,8 +18440,10 @@
       </c>
     </row>
     <row r="137">
-      <c r="A137" t="n">
-        <v>0</v>
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Pelaku, Kapolres, Polisi, Ibunya, Edwin, Mapolsek, AKBP Edwin, S</t>
+        </is>
       </c>
       <c r="B137" t="n">
         <v>0</v>
@@ -18294,8 +18562,10 @@
       </c>
     </row>
     <row r="138">
-      <c r="A138" t="n">
-        <v>0</v>
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Polisi, Kasat Reskrim Polres, Iptu Aldino Prima Wirdan, Aldino, Eko Bayu Asmoro</t>
+        </is>
       </c>
       <c r="B138" t="n">
         <v>0</v>
@@ -18406,8 +18676,10 @@
       </c>
     </row>
     <row r="139">
-      <c r="A139" t="n">
-        <v>0</v>
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Saudara, KUHP, Kombes Susanto Haris, Brigadir N Yosua Hutabarat, Ferdy Sambo, Brigadir Yosua Hutabarat, Wahyu Iman Santoso, Yosua, Ricky Rizal Wibowo, Sambo, Putri Candrawathi, Kuat, Susanto</t>
+        </is>
       </c>
       <c r="B139" t="n">
         <v>0</v>
@@ -18539,8 +18811,10 @@
       </c>
     </row>
     <row r="140">
-      <c r="A140" t="n">
-        <v>0</v>
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Ferdy Sambo, Syarifah, Pengadilan Negeri, Sambo, PN, Saya Syarifah Ima Syahab</t>
+        </is>
       </c>
       <c r="B140" t="n">
         <v>0</v>
@@ -18659,8 +18933,10 @@
       </c>
     </row>
     <row r="141">
-      <c r="A141" t="n">
-        <v>0</v>
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Wanto, Cindy, Manukan, Majelis Hakim, I Gusti Ngurah Putra Atmaja, Vera</t>
+        </is>
       </c>
       <c r="B141" t="n">
         <v>0</v>
@@ -18786,8 +19062,10 @@
       </c>
     </row>
     <row r="142">
-      <c r="A142" t="n">
-        <v>0</v>
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Koh Erben, Martin Lukas, Brigadir N Yosua Hutabarat, PC, Martin, Eliezer, Panggil Erben, Erben, Sambo, BAP, Yosua, Pihak Ferdy Sambo, Arman Hanis, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B142" t="n">
         <v>0</v>
@@ -18907,8 +19185,10 @@
       </c>
     </row>
     <row r="143">
-      <c r="A143" t="n">
-        <v>0</v>
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Ketua Majelis Hakim Wahyu Iman Santoso, Brigadir N Yosua Hutabarat, Pak Kabag, Santo, Pak Ferdy, Ferdy Sambo, Chuck Putranto, Bagian Penegakan Hukum Provos Polri, Paminal, Bang, FS, Kata Susanto, Sambo, Putri Candrawathi, PN Jaksel, Susanto, Saudara, Divpropam Polri, Bang Santo</t>
+        </is>
       </c>
       <c r="B143" t="n">
         <v>0</v>
@@ -19064,8 +19344,10 @@
       </c>
     </row>
     <row r="144">
-      <c r="A144" t="n">
-        <v>0</v>
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Dek Susi, HUT Bhayangkara, Richard, Kuat, Terus Dek Yosua, Putri, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Dek Yosua, Putri Candrawathi, Hakim, Dek Daden, Yosua</t>
+        </is>
       </c>
       <c r="B144" t="n">
         <v>0</v>
@@ -19113,12 +19395,12 @@
       </c>
       <c r="N144" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O144" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P144" t="n">
@@ -19184,8 +19466,10 @@
       </c>
     </row>
     <row r="145">
-      <c r="A145" t="n">
-        <v>0</v>
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Richard, Brigadir Nofriansyah Yosua Hutabarat, Kuat Maruf, Khusus Sambo, Inafis Eko Wahyu, Ferdy Sambo, Inafis, Adi Setya, Ricky Riza, Brigadir J, Yosua, Kadiv Propam, Sambo, Putri Candrawathi, Ronny Talapessy, Kuat, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B145" t="n">
         <v>0</v>
@@ -19359,8 +19643,10 @@
       </c>
     </row>
     <row r="146">
-      <c r="A146" t="n">
-        <v>0</v>
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>AKP Lufthi Darmawan Aditya, Oelpuah, Kabid Propam Polda NTT, Eddy Hasibuan, Kasat Reskrim Polres, Elkana Konis, Polri, Pelanggaran HAM, Kabid Propam Polda NTT Kombes Pol Dominicus Yampormase, WhatsApp, AKP Lufthi, Forensik RS Bhayangkara</t>
+        </is>
       </c>
       <c r="B146" t="n">
         <v>0</v>
@@ -19503,8 +19789,10 @@
       </c>
     </row>
     <row r="147">
-      <c r="A147" t="n">
-        <v>0</v>
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>AS, Kasat Reskrim Polresta, EK, RS, AKP Tiksnarto Andaru Rahutomo, TKP, Dilansir, Andaru, Vina</t>
+        </is>
       </c>
       <c r="B147" t="n">
         <v>0</v>
@@ -19617,8 +19905,10 @@
       </c>
     </row>
     <row r="148">
-      <c r="A148" t="n">
-        <v>0</v>
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Jaksel, Saudara, Bharada E, FS, Putri, Pak FS, Eliezer, Brigadir J, Brigadir, Putri Candrawathi, Sambo, Hakim</t>
+        </is>
       </c>
       <c r="B148" t="n">
         <v>0</v>
@@ -19666,12 +19956,12 @@
       </c>
       <c r="N148" t="inlineStr">
         <is>
-          <t>bangka</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O148" t="inlineStr">
         <is>
-          <t>bangka belitung</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P148" t="n">
@@ -19746,8 +20036,10 @@
       </c>
     </row>
     <row r="149">
-      <c r="A149" t="n">
-        <v>0</v>
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Brigadir Nofriansyah Yosua Hutabarat, Pengamanan Polri, Jl Ampera, Ferdy Sambo, Pasar, Pembinaan Profesi Divisi Propam Polri, Chuck Putranto, Bagian Penegakan Hukum Provos Polri</t>
+        </is>
       </c>
       <c r="B149" t="n">
         <v>0</v>
@@ -19855,8 +20147,10 @@
       </c>
     </row>
     <row r="150">
-      <c r="A150" t="n">
-        <v>0</v>
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Bharada E, Bharada Richard Eliezer, Susi, Ferdy Sambo, Putri, Brigadir Yosua Hutabarat, Eliezer, Yosua, Yos, Putri Candrawathi, Wahyu Imam Santoso, Kuat</t>
+        </is>
       </c>
       <c r="B150" t="n">
         <v>0</v>
@@ -19992,8 +20286,10 @@
       </c>
     </row>
     <row r="151">
-      <c r="A151" t="n">
-        <v>0</v>
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Arif, Kombes Budhi Herdi Susianto, Kadiv Propam Ferdy Sambo, Yosua, AKBP Ridwan R Soplanit, Bharada Richard Eliezer, Ridwan, Kompol Baiquni Wibowo, Hakim, Bang, TV, AKBP Arif Rahman Arifin, Chuck, Baiquni, RS Polri, Kuat, CCTV, Brigadir Yosua Hutabarat, Brigadir Yosua, Budhi</t>
+        </is>
       </c>
       <c r="B151" t="n">
         <v>0</v>
@@ -20129,8 +20425,10 @@
       </c>
     </row>
     <row r="152">
-      <c r="A152" t="n">
-        <v>0</v>
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Pagesangan, ALK, IRV, Dit Reskrimum Polda NTB, Kombes Teddy Rustiawan, Teddy</t>
+        </is>
       </c>
       <c r="B152" t="n">
         <v>0</v>
@@ -20254,8 +20552,10 @@
       </c>
     </row>
     <row r="153">
-      <c r="A153" t="n">
-        <v>0</v>
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>RTK, Polisi, IJZ, TKP, Australia, POLDA, Sukadi</t>
+        </is>
       </c>
       <c r="B153" t="n">
         <v>0</v>
@@ -20364,8 +20664,10 @@
       </c>
     </row>
     <row r="154">
-      <c r="A154" t="n">
-        <v>0</v>
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Sunter, Pelaku, Zulpan, Kabid Humas Polda, Penyidik, Kombes Endra Zulpan</t>
+        </is>
       </c>
       <c r="B154" t="n">
         <v>0</v>
@@ -20488,8 +20790,10 @@
       </c>
     </row>
     <row r="155">
-      <c r="A155" t="n">
-        <v>0</v>
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Kuasa Hukum Hasnaeni, Bryan Gautama, Wanita, Hasyim, Farhat Abbas, DKPP, KPU RI Hasyim, Farhat, Redaksi, Hasnaeni</t>
+        </is>
       </c>
       <c r="B155" t="n">
         <v>0</v>
@@ -20616,8 +20920,10 @@
       </c>
     </row>
     <row r="156">
-      <c r="A156" t="n">
-        <v>0</v>
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>WhatsAppnya, Farhat Abbas, Saya Hasnaeni, KPU RI Hasyim, KPU Hasyim Asyari, KPU RI, Hasyim Asyari, Hasnaeni</t>
+        </is>
       </c>
       <c r="B156" t="n">
         <v>0</v>
@@ -20744,8 +21050,10 @@
       </c>
     </row>
     <row r="157">
-      <c r="A157" t="n">
-        <v>0</v>
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Brigadir Yoshua Hutabarat, Putri Candrawathi</t>
+        </is>
       </c>
       <c r="B157" t="n">
         <v>0</v>
@@ -20839,8 +21147,10 @@
       </c>
     </row>
     <row r="158">
-      <c r="A158" t="n">
-        <v>0</v>
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Bharada Richard Eliezer, Susi, Ricky, KUHP, Ferdy Sambo, Brigadir J, Bripka Ricky Rizal, Yosua, Steyr, Sambo, Putri Candrawathi, Hakim, Keanehan, Kuat</t>
+        </is>
       </c>
       <c r="B158" t="n">
         <v>0</v>
@@ -20888,12 +21198,12 @@
       </c>
       <c r="N158" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O158" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P158" t="n">
@@ -20965,8 +21275,10 @@
       </c>
     </row>
     <row r="159">
-      <c r="A159" t="n">
-        <v>0</v>
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Polsek Bantar, Pelaku EL, Kabid Humas Polda, Tim, Polda, Dian Ardiansyah, Pelaku, Hengki Haryadi, Polisi, Olah TKP, Resmob, Dian, Tambun, Zulpan, Direktur Reserse Kriminal Umum Polda, TKP, A, Kombes Hengki Haryadi, RS Bhayangkara, EL, Kombes Pol Hengki Haryadi, Hengki, Kombes Endra Zulpan, MEL</t>
+        </is>
       </c>
       <c r="B159" t="n">
         <v>0</v>
@@ -21193,8 +21505,10 @@
       </c>
     </row>
     <row r="160">
-      <c r="A160" t="n">
-        <v>0</v>
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Satreskrim Polres, Fadli Nurfadillah, Polisi, Neng Eci, Fadli, Kertas, Vonis</t>
+        </is>
       </c>
       <c r="B160" t="n">
         <v>0</v>
@@ -21322,8 +21636,10 @@
       </c>
     </row>
     <row r="161">
-      <c r="A161" t="n">
-        <v>0</v>
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Kasat Reskrim Polres Pelabuhan Belawan AKP Rudi Sahputra, Polres Pelabuhan Belawan, Polisi, Rudi, Pertamina</t>
+        </is>
       </c>
       <c r="B161" t="n">
         <v>0</v>
@@ -21435,8 +21751,10 @@
       </c>
     </row>
     <row r="162">
-      <c r="A162" t="n">
-        <v>0</v>
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, KUHP, Brigadir N Yosua Hutabarat, Elwi, Ferdy Sambo, Rasamala Aritonang, Brigadir Yosua Hutabarat, JC, Ricky Rizal Wibowo, Sambo, Brigadir Yosua, Elwi Danil, Putri Candrawathi, Khusus Ferdy Sambo, Unand, Kuat, Yosua</t>
+        </is>
       </c>
       <c r="B162" t="n">
         <v>0</v>
@@ -21563,8 +21881,10 @@
       </c>
     </row>
     <row r="163">
-      <c r="A163" t="n">
-        <v>0</v>
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Pelaku, I, Purwokerto, Terminal Bulupitu Purwokerto, Kompol Agus Supriadi Siswanto, Roni, Nusakambangan, Miswono, Kasat Reskrim Polresta, Korban, Kepala, Tangkisan, Agus</t>
+        </is>
       </c>
       <c r="B163" t="n">
         <v>0</v>
@@ -21710,8 +22030,10 @@
       </c>
     </row>
     <row r="164">
-      <c r="A164" t="n">
-        <v>0</v>
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>AF, MN, Kapolres, Ramadhan, Juata Laut, Taufik, Korban, AKBP Taufik, Arya, Dilansir, EG</t>
+        </is>
       </c>
       <c r="B164" t="n">
         <v>0</v>
@@ -21831,8 +22153,10 @@
       </c>
     </row>
     <row r="165">
-      <c r="A165" t="n">
-        <v>0</v>
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>KUHP, Ferdy Sambo, Brigadir Yosua Hutabarat, Eliezer, Bripka Ricky Rizal, Romer, Sadam, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Sambo Eliezer, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua</t>
+        </is>
       </c>
       <c r="B165" t="n">
         <v>0</v>
@@ -21948,8 +22272,10 @@
       </c>
     </row>
     <row r="166">
-      <c r="A166" t="n">
-        <v>0</v>
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>SMA, Kasat Reskrim Polres, AKP Herly Setiawan, Gunung, AN, Gugah, Korban, P, Sumatera, Microwave, Ade Firmansyah, Herly</t>
+        </is>
       </c>
       <c r="B166" t="n">
         <v>0</v>
@@ -22074,8 +22400,10 @@
       </c>
     </row>
     <row r="167">
-      <c r="A167" t="n">
-        <v>0</v>
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Santoso, Rumah Dinas Wali, Priyo Suhartono, Feti, Feti Wulandari, Toto Robandiyo, Kombes Pol Totok Suharyanto, Kepala Bakesbangpol, Wali, Priyo, Sekda, Argo, AKBP Argowiyono</t>
+        </is>
       </c>
       <c r="B167" t="n">
         <v>0</v>
@@ -22213,8 +22541,10 @@
       </c>
     </row>
     <row r="168">
-      <c r="A168" t="n">
-        <v>0</v>
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, Ferdy Sambo, Putri, Bripka Ricky Rizal, Adi, Brigadir Yosua, Putri Candrawathi, Sambo, Kuat, Yosua</t>
+        </is>
       </c>
       <c r="B168" t="n">
         <v>0</v>
@@ -22330,8 +22660,10 @@
       </c>
     </row>
     <row r="169">
-      <c r="A169" t="n">
-        <v>0</v>
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>SU, Polsek, Anwar</t>
+        </is>
       </c>
       <c r="B169" t="n">
         <v>0</v>
@@ -22450,8 +22782,10 @@
       </c>
     </row>
     <row r="170">
-      <c r="A170" t="n">
-        <v>0</v>
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Kompol Chuck Putranto, Sidang, AKBP Arif Rahman Arifin, Hakim Wahyu Imam Santoso, Kompol Baiquni Wibowo, Brigadir, Putri Candrawathi, Brigadir Yosua, Brigjen Hendra Kurniawan, Kuat, ITE, Kombes Agus Nurpatria</t>
+        </is>
       </c>
       <c r="B170" t="n">
         <v>0</v>
@@ -22562,8 +22896,10 @@
       </c>
     </row>
     <row r="171">
-      <c r="A171" t="n">
-        <v>0</v>
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Pelaku, AKP Aris Setianto, Ipda Rizqi, HP, Kasat Reskrim Polres, Amerta Buana, Polres, IKD, Pria, Reskrim Polres, Gunaksa</t>
+        </is>
       </c>
       <c r="B171" t="n">
         <v>0</v>
@@ -22677,8 +23013,10 @@
       </c>
     </row>
     <row r="172">
-      <c r="A172" t="n">
-        <v>0</v>
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Panglima TNI Jenderal Andika Perkasa, Andika</t>
+        </is>
       </c>
       <c r="B172" t="n">
         <v>0</v>
@@ -22773,8 +23111,10 @@
       </c>
     </row>
     <row r="173">
-      <c r="A173" t="n">
-        <v>0</v>
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>Jenderal Sudirman, IKA Unhas, Muh Zuhur Dg Ranca, PW DMI, Mursalin, Takmir Masjid Baitul, Masjid Baitul, Najamuddin Sewang, Chakim Amrullah, MURI, Otak Pembunuhan Pegawai Dishub Meninggal Dunia Mantan Kasatpol PP, Panitia IKA Unhas, Dishub, Chakim, Iqbal, Pengurus Wilayah IKA Unhas, Pembatas, Kronologi, Lomba, Panitia, Pengurus Wilayah Dewan Masjid Indonesia, Rahmansyah, Ikut, Iqbal Asnan</t>
+        </is>
       </c>
       <c r="B173" t="n">
         <v>0</v>
@@ -22970,8 +23310,10 @@
       </c>
     </row>
     <row r="174">
-      <c r="A174" t="n">
-        <v>0</v>
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Andika, Polri, Bapak Panglima, Paspampres, TNI, Kisdiyanto, Dilansir, Penerangan TNI Mayjen Kisdiyanto, Kepala, Kostrad, Jenderal Andika Perkasa</t>
+        </is>
       </c>
       <c r="B174" t="n">
         <v>0</v>
@@ -23089,8 +23431,10 @@
       </c>
     </row>
     <row r="175">
-      <c r="A175" t="n">
-        <v>0</v>
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Koh Erben, Alfons, Ferdy Sambo, Eliezer, Romer, Sambo, Pak Erben, Yosua</t>
+        </is>
       </c>
       <c r="B175" t="n">
         <v>0</v>
@@ -23138,12 +23482,12 @@
       </c>
       <c r="N175" t="inlineStr">
         <is>
-          <t>bangka</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O175" t="inlineStr">
         <is>
-          <t>bangka belitung</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P175" t="n">
@@ -23222,8 +23566,10 @@
       </c>
     </row>
     <row r="176">
-      <c r="A176" t="n">
-        <v>0</v>
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Sudiro, Dhio, Tadi, Gang Durian, Setyo, Pantauan, Plt Kasat Reskrim Polresta, ART, AKP Setyo Hermawan, Satria, Satria Budhi, Prajenan, Kejaksaan Negeri, Kejaksaan, Rekonstruksi, Polresta</t>
+        </is>
       </c>
       <c r="B176" t="n">
         <v>0</v>
@@ -23358,8 +23704,10 @@
       </c>
     </row>
     <row r="177">
-      <c r="A177" t="n">
-        <v>0</v>
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Pelaku, Tol Priok, CCTV, Kompol Sutikno, Sutikno, Kasat PJR Ditlantas Polda, Video</t>
+        </is>
       </c>
       <c r="B177" t="n">
         <v>0</v>
@@ -23468,8 +23816,10 @@
       </c>
     </row>
     <row r="178">
-      <c r="A178" t="n">
-        <v>0</v>
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Belawan, Dinas Pengerjaan Umum, Instagramnya, Hendra Saputra Sitorus, AKP Rudy Syahputra, LPSE, Hendra, Bobby, Golap, Rudy Syahputra, Kanit Reskrim Polres Pelabuhan Belawan, APBD, Blok B, Wali, Sicanang, Bobby Nasution</t>
+        </is>
       </c>
       <c r="B178" t="n">
         <v>0</v>
@@ -23587,8 +23937,10 @@
       </c>
     </row>
     <row r="179">
-      <c r="A179" t="n">
-        <v>0</v>
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Kapolsek Lakarsantri Kompol Hakim, Randu, Elok, Beruntung, Palupi, Korban, Lakarsantri, Yogi</t>
+        </is>
       </c>
       <c r="B179" t="n">
         <v>0</v>
@@ -23717,8 +24069,10 @@
       </c>
     </row>
     <row r="180">
-      <c r="A180" t="n">
-        <v>0</v>
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Pelaku, CCTV, Tim Promosi Unair, HP, ATM, Polsek Mulyosari, Panca, Twitter, Pria, Panca Budi Agnanta, Imam Solikin Dwi Laksono</t>
+        </is>
       </c>
       <c r="B180" t="n">
         <v>0</v>
@@ -23848,8 +24202,10 @@
       </c>
     </row>
     <row r="181">
-      <c r="A181" t="n">
-        <v>0</v>
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Terdakwa Arif Rachman Arifin, Junaedi, FS, Aan, Pak Hendra, Ferdy Sambo, Kadiv Propam Polri, Brigadir Yosua Hutabarat, Hendra Kurniawan, Junaedi Saibih, Nah, Brigadir J, Arif, Arif Rachman, Brigadir, Aan Eko Widiarto, Putri Candrawathi, Hal</t>
+        </is>
       </c>
       <c r="B181" t="n">
         <v>0</v>
@@ -23991,8 +24347,10 @@
       </c>
     </row>
     <row r="182">
-      <c r="A182" t="n">
-        <v>0</v>
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Adzan Romer, Eliezer, Bripka Ricky Rizal, Combat Wilson, Romer, Sambo, Brigadir Yosua, Chad, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua</t>
+        </is>
       </c>
       <c r="B182" t="n">
         <v>0</v>
@@ -24121,8 +24479,10 @@
       </c>
     </row>
     <row r="183">
-      <c r="A183" t="n">
-        <v>0</v>
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Tanjungrejo, Gadingkasri, AKP Agnis Juwita Manurung, Tragedi Kanjuruhan, Kasat Lantas Polres, Bandulan, PJR Polda, Aremania, Tol, Mbebekan</t>
+        </is>
       </c>
       <c r="B183" t="n">
         <v>0</v>
@@ -24241,8 +24601,10 @@
       </c>
     </row>
     <row r="184">
-      <c r="A184" t="n">
-        <v>0</v>
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Simak, Haryadi Suyuti, KPK Ferdian Adi Nugroho, Zaenur, Wali, Zaenur Rohman</t>
+        </is>
       </c>
       <c r="B184" t="n">
         <v>0</v>
@@ -24352,8 +24714,10 @@
       </c>
     </row>
     <row r="185">
-      <c r="A185" t="n">
-        <v>0</v>
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>AKP Kasiwon, Gunungkidul, T, Panit Reskrim Polsek, DI, Mahmed, Mapolsek, Kalurahan Candirejo, P, Iptu Mahmed Ali Bahonar, Kapolsek, Kapanewon</t>
+        </is>
       </c>
       <c r="B185" t="n">
         <v>0</v>
@@ -24465,8 +24829,10 @@
       </c>
     </row>
     <row r="186">
-      <c r="A186" t="n">
-        <v>0</v>
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Allah SWT, Rukun Wasiat</t>
+        </is>
       </c>
       <c r="B186" t="n">
         <v>0</v>
@@ -24615,8 +24981,10 @@
       </c>
     </row>
     <row r="187">
-      <c r="A187" t="n">
-        <v>0</v>
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, KUHP, Brigadir N Yosua Hutabarat, Putri, Ferdy Sambo, Eliezer, Bripka Ricky Rizal, Sambo, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua, PN Jaksel</t>
+        </is>
       </c>
       <c r="B187" t="n">
         <v>0</v>
@@ -24664,12 +25032,12 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -24741,8 +25109,10 @@
       </c>
     </row>
     <row r="188">
-      <c r="A188" t="n">
-        <v>0</v>
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Ricky, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Ricky Rizal Wibowo, Sambo, Brigadir Yosua, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua, Mantan Kadiv Propam Polri Ferdy Sambo</t>
+        </is>
       </c>
       <c r="B188" t="n">
         <v>0</v>
@@ -24869,8 +25239,10 @@
       </c>
     </row>
     <row r="189">
-      <c r="A189" t="n">
-        <v>0</v>
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Pelaku, Kapolres, Petugas, Kombes Kusumo Wahyu Bintoro, Pemerkosaan, Dilansir, Kusumo</t>
+        </is>
       </c>
       <c r="B189" t="n">
         <v>0</v>
@@ -24981,8 +25353,10 @@
       </c>
     </row>
     <row r="190">
-      <c r="A190" t="n">
-        <v>0</v>
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Junjung, Kasat Reskrim Polres, Polisi, Krajan, Agung, AK, AKP Agung Kurnia Putra</t>
+        </is>
       </c>
       <c r="B190" t="n">
         <v>0</v>
@@ -25108,8 +25482,10 @@
       </c>
     </row>
     <row r="191">
-      <c r="A191" t="n">
-        <v>0</v>
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>CCTV, Gustina, Apotek, AKP Sumardi, TKP, Kapolsek, Sumardi, Gustina Maya</t>
+        </is>
       </c>
       <c r="B191" t="n">
         <v>0</v>
@@ -25224,8 +25600,10 @@
       </c>
     </row>
     <row r="192">
-      <c r="A192" t="n">
-        <v>0</v>
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Direktur Reskrimum Polda, Budyanto Gunawan, Kisnu Widagso, Kombes Hengki Haryadi, Kisnu</t>
+        </is>
       </c>
       <c r="B192" t="n">
         <v>0</v>
@@ -25384,8 +25762,10 @@
       </c>
     </row>
     <row r="193">
-      <c r="A193" t="n">
-        <v>0</v>
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Panglima TNI Jenderal Andika Perkasa, Mayor Paspampres, TNI, Andika, Kostrad</t>
+        </is>
       </c>
       <c r="B193" t="n">
         <v>0</v>
@@ -25495,8 +25875,10 @@
       </c>
     </row>
     <row r="194">
-      <c r="A194" t="n">
-        <v>0</v>
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Richard, Koh Erben, Alfons, Ferdy Sambo, Brigadir Yosua Hutabarat, Eliezer, Brigadir J, Pak Erben, Romer, Sambo, Pihak Richard Eliezer, Brigadir Yosua, Putri Candrawathi, Sadam, Ronny Talapessy, Ronny, Yosua, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B194" t="n">
         <v>0</v>
@@ -25544,12 +25926,12 @@
       </c>
       <c r="N194" t="inlineStr">
         <is>
-          <t>bangka</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O194" t="inlineStr">
         <is>
-          <t>bangka belitung</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P194" t="n">
@@ -25654,8 +26036,10 @@
       </c>
     </row>
     <row r="195">
-      <c r="A195" t="n">
-        <v>0</v>
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Kasi Humas Polres, Rosita, Korban, Tim, Iptu Rianus Zebua, Zebua, Poltak Sinaga</t>
+        </is>
       </c>
       <c r="B195" t="n">
         <v>0</v>
@@ -25703,12 +26087,12 @@
       </c>
       <c r="N195" t="inlineStr">
         <is>
-          <t>batu</t>
+          <t>batu bara</t>
         </is>
       </c>
       <c r="O195" t="inlineStr">
         <is>
-          <t>jawa timur</t>
+          <t>sumatera utara</t>
         </is>
       </c>
       <c r="P195" t="n">
@@ -25771,8 +26155,10 @@
       </c>
     </row>
     <row r="196">
-      <c r="A196" t="n">
-        <v>0</v>
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>AKBP M Irwan Susanto, Kapolres, RM, Korban, Irwan, Pak</t>
+        </is>
       </c>
       <c r="B196" t="n">
         <v>0</v>
@@ -25897,8 +26283,10 @@
       </c>
     </row>
     <row r="197">
-      <c r="A197" t="n">
-        <v>0</v>
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>HM, Master, Kasat Reskrim Polres Humbahas Iptu Master, Polisi, RS Jiwa, Dilansir, NS</t>
+        </is>
       </c>
       <c r="B197" t="n">
         <v>0</v>
@@ -26011,8 +26399,10 @@
       </c>
     </row>
     <row r="198">
-      <c r="A198" t="n">
-        <v>0</v>
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Pengelola Apartemen Kalibata City, Polisi, Kalibata, SS, Kombes Ade Ary Syam, Kapolres, RS, TKP, Pria, General Manager Apartemen Kalibata, CCTV, Ade Ary, Martiza Melati, Apartemen Kalibata City, YA, Y, Kapolsek, Martiza, Rumah Sakit Tria</t>
+        </is>
       </c>
       <c r="B198" t="n">
         <v>0</v>
@@ -26133,8 +26523,10 @@
       </c>
     </row>
     <row r="199">
-      <c r="A199" t="n">
-        <v>0</v>
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Sapto Dumadi Ragil Raharjo, Keraton Solo GRAy Devi Lelyana, Keputren, Polisi, Kasat Reskrim Polresta Solo Kompol Djohan Andika, Djohan, Sri Atun, TKP, Olah TKP, Gusti Devi, Keraton Solo</t>
+        </is>
       </c>
       <c r="B199" t="n">
         <v>0</v>
@@ -26182,12 +26574,12 @@
       </c>
       <c r="N199" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>surakarta (solo)</t>
         </is>
       </c>
       <c r="O199" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P199" t="n">
@@ -26254,8 +26646,10 @@
       </c>
     </row>
     <row r="200">
-      <c r="A200" t="n">
-        <v>0</v>
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Bharada E, Kuat Maruf, B, Ferdy Sambo, Muhammad Arif Setiawan, C, Jaksa, Bripka Ricky Rizal, Bripka RR, Arif, Pengadilan Negeri, Putri Candrawathi, Brigadir Yosua, A, Saksi, Kuat</t>
+        </is>
       </c>
       <c r="B200" t="n">
         <v>0</v>
@@ -26407,8 +26801,10 @@
       </c>
     </row>
     <row r="201">
-      <c r="A201" t="n">
-        <v>0</v>
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Tanah Air, Bhabinkamtibmas, Julian, Komisioner Kompolnas Poengky Indarti, Indonesia, Kepolisian, Kamaruddin, Gerah, Polres, Poengky, Kompolnas, Uya Kuya, Kamaruddin Simanjuntak, YouTube Uya Kuya TV, Polri</t>
+        </is>
       </c>
       <c r="B201" t="n">
         <v>0</v>
@@ -26548,8 +26944,10 @@
       </c>
     </row>
     <row r="202">
-      <c r="A202" t="n">
-        <v>0</v>
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Ricky, Ferdy Sambo, Divpropam Polri, Divisi Propam Polri, Sambo, Putri Candrawathi, Dilansir</t>
+        </is>
       </c>
       <c r="B202" t="n">
         <v>0</v>
@@ -26675,8 +27073,10 @@
       </c>
     </row>
     <row r="203">
-      <c r="A203" t="n">
-        <v>0</v>
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Anton, MRS, TKP, Polres</t>
+        </is>
       </c>
       <c r="B203" t="n">
         <v>0</v>
@@ -26797,8 +27197,10 @@
       </c>
     </row>
     <row r="204">
-      <c r="A204" t="n">
-        <v>0</v>
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Keraton Kasunanan Solo, TRKD, Solo, Agung, Wirabhumi, Rumah Sakit Kasih, Agung Susilo, Jolotundo, KPH Eddy Wirabhumi, Mapolresta Solo, Korban Visum, RS Agung</t>
+        </is>
       </c>
       <c r="B204" t="n">
         <v>0</v>
@@ -26841,17 +27243,17 @@
       </c>
       <c r="M204" t="inlineStr">
         <is>
-          <t>ibu</t>
+          <t>-</t>
         </is>
       </c>
       <c r="N204" t="inlineStr">
         <is>
-          <t>halmahera barat</t>
+          <t>surakarta (solo)</t>
         </is>
       </c>
       <c r="O204" t="inlineStr">
         <is>
-          <t>maluku utara</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P204" t="n">
@@ -26929,8 +27331,10 @@
       </c>
     </row>
     <row r="205">
-      <c r="A205" t="n">
-        <v>0</v>
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Pelaku, Exit Tol, Pudakpayung, Donny, Sweetha, Dony, Seweetha, Tol, MF, Sweetha Kusuma Gatra</t>
+        </is>
       </c>
       <c r="B205" t="n">
         <v>0</v>
@@ -27059,8 +27463,10 @@
       </c>
     </row>
     <row r="206">
-      <c r="A206" t="n">
-        <v>0</v>
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>AD, Bagian Humas Polres, Yongky Nata, AKP H, ITE, H, Yongky, Polres, Aipda AD, Wanita MH, Polda, MH, Iptu MHD, Yolies Yongky Nata</t>
+        </is>
       </c>
       <c r="B206" t="n">
         <v>0</v>
@@ -27182,8 +27588,10 @@
       </c>
     </row>
     <row r="207">
-      <c r="A207" t="n">
-        <v>0</v>
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Saudara, Ferdy Sambo Minta Maaf, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Brigadir Yosua Hutabarat, Yosua, Ricky Rizal Wibowo, Sambo, Putri Candrawathi, Bang Santo, Kuat, Kombes Suasanto Haris, Susanto</t>
+        </is>
       </c>
       <c r="B207" t="n">
         <v>0</v>
@@ -27315,8 +27723,10 @@
       </c>
     </row>
     <row r="208">
-      <c r="A208" t="n">
-        <v>0</v>
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Brigadir Nofriansyah Yosua Hutabarat, Irwan Irawan, Pembunuhan Berencana Yosua Eliezer, Bersaksi Bharada Richard Eliezer Pudihang Lumiu, Ferdy Sambo, Brigadir Yosua Hutabarat, KM, Bripka Ricky Rizal, Yosua, Eliezer, Sambo, Putri Candrawathi, Bripka Ricky Rizal Didakwa, Ronny Talapessy, Ronny, Kuat</t>
+        </is>
       </c>
       <c r="B208" t="n">
         <v>0</v>
@@ -27441,8 +27851,10 @@
       </c>
     </row>
     <row r="209">
-      <c r="A209" t="n">
-        <v>0</v>
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>AKP S Ahmad, ABG, Tana Toraja, UU ITE, Pasar, Kasat Reskrim Polres Tana Toraja, Kapolres Tana Toraja AKBP Juara Silalahi, Ahmad, Motifnya</t>
+        </is>
       </c>
       <c r="B209" t="n">
         <v>0</v>
@@ -27565,8 +27977,10 @@
       </c>
     </row>
     <row r="210">
-      <c r="A210" t="n">
-        <v>0</v>
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Pelaku, Rejeki, Mojoruntut, MiChat, EK, Kusumo</t>
+        </is>
       </c>
       <c r="B210" t="n">
         <v>0</v>
@@ -27679,8 +28093,10 @@
       </c>
     </row>
     <row r="211">
-      <c r="A211" t="n">
-        <v>0</v>
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Buntu Malangka, Kasat Reskrim Polres, Sukmawiria, Polres, Iptu Hamring</t>
+        </is>
       </c>
       <c r="B211" t="n">
         <v>0</v>
@@ -27801,8 +28217,10 @@
       </c>
     </row>
     <row r="212">
-      <c r="A212" t="n">
-        <v>0</v>
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>RSUD SMC, Kasat Reskrim Polres, AKP Ari Rinaldo, Ari, SMP, PA</t>
+        </is>
       </c>
       <c r="B212" t="n">
         <v>0</v>
@@ -27915,8 +28333,10 @@
       </c>
     </row>
     <row r="213">
-      <c r="A213" t="n">
-        <v>0</v>
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Pelaku, Andry, Kanit Reskrim Polsek Madonga Ipda Andry Irwanto, Suami NN, Ipda Andry, Morosi, Baru, Korban, Pria, SS</t>
+        </is>
       </c>
       <c r="B213" t="n">
         <v>0</v>
@@ -28043,8 +28463,10 @@
       </c>
     </row>
     <row r="214">
-      <c r="A214" t="n">
-        <v>0</v>
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>HP, Kasat Reskrim Polres, KA, Onekore, Perlindungan Anak, UU Jo, Iptu Yance, NTT, Iptu Yance Kadiaman, Udayana</t>
+        </is>
       </c>
       <c r="B214" t="n">
         <v>0</v>
@@ -28169,8 +28591,10 @@
       </c>
     </row>
     <row r="215">
-      <c r="A215" t="n">
-        <v>0</v>
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Polsek, Saksi H, Kasi Humas Polres, Tuahta, Saksi S, HP, Joko, Reno, Sumatera, P, Tim, S, AKP Joko Sumpeno</t>
+        </is>
       </c>
       <c r="B215" t="n">
         <v>0</v>
@@ -28213,17 +28637,17 @@
       </c>
       <c r="M215" t="inlineStr">
         <is>
-          <t>batang</t>
+          <t>padang tualang</t>
         </is>
       </c>
       <c r="N215" t="inlineStr">
         <is>
-          <t>batang</t>
+          <t>langkat</t>
         </is>
       </c>
       <c r="O215" t="inlineStr">
         <is>
-          <t>jawa tengah</t>
+          <t>sumatera utara</t>
         </is>
       </c>
       <c r="P215" t="n">
@@ -28301,8 +28725,10 @@
       </c>
     </row>
     <row r="216">
-      <c r="A216" t="n">
-        <v>0</v>
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Pelaku, Iptu Kadek Agus Sutris Juniantara, Kapolres, Kepolisian, I Ketut Budiawan, Gang Flamboyan Nomor IA, AKBP I Made Bayu Sutha Sartana, TKP, Penida, Bayu Sutha, Lingkungan Sengguan Kangin</t>
+        </is>
       </c>
       <c r="B216" t="n">
         <v>0</v>
@@ -28449,8 +28875,10 @@
       </c>
     </row>
     <row r="217">
-      <c r="A217" t="n">
-        <v>0</v>
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Irfan Widyanto, Saudara, Hendra, Paminal Propam Polri Hendra Kurniawan, Jaksa, Irfan, Afrizal, Hakim</t>
+        </is>
       </c>
       <c r="B217" t="n">
         <v>0</v>
@@ -28595,8 +29023,10 @@
       </c>
     </row>
     <row r="218">
-      <c r="A218" t="n">
-        <v>0</v>
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Ferdy Sambo, TV, Majelis Hakim, Eks Kabag Gakkum Provos Divpropam Polri Kombes Susanto Haris, Brigadir J, Kadiv Propam Polri Ferdy Sambo, Brigadir, Putri Candrawathi, Awalnya, Polda, Sambo, Khusus Ferdy Sambo, Kadiv Propam, Kuat, Susanto, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B218" t="n">
         <v>0</v>
@@ -28730,8 +29160,10 @@
       </c>
     </row>
     <row r="219">
-      <c r="A219" t="n">
-        <v>0</v>
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Bharada Richard Eliezer, Ricky, Ferdy Sambo, Putri, Bripka Ricky, Eliezer, Bripka Ricky Rizal, Adi, Putri Candrawathi, Terindikasi, Bharada Eliezer, Adi Febrianto, Kuat</t>
+        </is>
       </c>
       <c r="B219" t="n">
         <v>0</v>
@@ -28855,8 +29287,10 @@
       </c>
     </row>
     <row r="220">
-      <c r="A220" t="n">
-        <v>0</v>
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Tim Kalong Satreskrim Polres, Pelaku, Suryanto, Polisi, Toko Emas Murni, Kasat Reskrim Polres, AKP Dika Hardiyan Wiratama, Kepatihan, Dika</t>
+        </is>
       </c>
       <c r="B220" t="n">
         <v>0</v>
@@ -28967,8 +29401,10 @@
       </c>
     </row>
     <row r="221">
-      <c r="A221" t="n">
-        <v>0</v>
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Kompol Ardhie Demastyo, Polsek, Duri, West One City, Kapolsek, RS Polri, Ardhie</t>
+        </is>
       </c>
       <c r="B221" t="n">
         <v>0</v>
@@ -29087,8 +29523,10 @@
       </c>
     </row>
     <row r="222">
-      <c r="A222" t="n">
-        <v>0</v>
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Santoso, K, Gunungkidul Ojok Dibandengke, Hanif, Joko, Farel, Mulawarman, Wali, Pratu K, Kopda, Pelaku, Gunungkidul, Rumah Sakit Kanujoso Djatiwibowo, Presiden Joko Widodo, Feti Wulandari, Kapanewon, Erina Gudono, DI, Kaesang Pangarep, Farel Prayoga, Kopda A, TNI, KUHPM</t>
+        </is>
       </c>
       <c r="B222" t="n">
         <v>0</v>
@@ -29269,8 +29707,10 @@
       </c>
     </row>
     <row r="223">
-      <c r="A223" t="n">
-        <v>0</v>
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Saudara, Provos, Ferdy Sambo, Brigadir Yosua Hutabarat, Propam Polri, Propam, Sambo, Brigadir Yosua, Hakim, Coba Saudara, Kuat, Yosua, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B223" t="n">
         <v>0</v>
@@ -29407,8 +29847,10 @@
       </c>
     </row>
     <row r="224">
-      <c r="A224" t="n">
-        <v>0</v>
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Pelaku, Perampokan, Polisi, Toko Emas Murni, Kasat Reskrim Polres, AKP Dika Hardiyan Wiratama, Kepatihan, Dika</t>
+        </is>
       </c>
       <c r="B224" t="n">
         <v>0</v>
@@ -29532,8 +29974,10 @@
       </c>
     </row>
     <row r="225">
-      <c r="A225" t="n">
-        <v>0</v>
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Edward Tannur, Rusdi Masse, Alien Mus, Rusdi, Bulog, Suhardi Duka, Irfan, Andi Akmal Pasluddin, Muh Dhevy Bijak</t>
+        </is>
       </c>
       <c r="B225" t="n">
         <v>0</v>
@@ -29654,8 +30098,10 @@
       </c>
     </row>
     <row r="226">
-      <c r="A226" t="n">
-        <v>0</v>
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Sudirman, Suka, Parhan, Ditangkapnya AK, Perlindungan Anak, AK, Kaget, Tangannya, Pengen</t>
+        </is>
       </c>
       <c r="B226" t="n">
         <v>0</v>
@@ -29784,8 +30230,10 @@
       </c>
     </row>
     <row r="227">
-      <c r="A227" t="n">
-        <v>0</v>
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Pelaku, Parkir Terminal, Kasat Reskrim Polres, STNK, AKP Supriyono, Beat, Resmob Polres, Supriyono</t>
+        </is>
       </c>
       <c r="B227" t="n">
         <v>0</v>
@@ -29899,8 +30347,10 @@
       </c>
     </row>
     <row r="228">
-      <c r="A228" t="n">
-        <v>0</v>
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>AKBP Arif, CCTV, Saudara, Eks Kadiv Propam Polri Ferdy Sambo, Wakaden B Biro Paminal Propam Polri AKBP Arif Rahman Arifin, Brigadir Yosua Hutabarat, Baiquni, Sambo, Tadi Saudara, Baiquni Wibowo</t>
+        </is>
       </c>
       <c r="B228" t="n">
         <v>0</v>
@@ -30034,8 +30484,10 @@
       </c>
     </row>
     <row r="229">
-      <c r="A229" t="n">
-        <v>0</v>
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Soembodo, BS, Nur Laila, Perlindungan Anak, SK</t>
+        </is>
       </c>
       <c r="B229" t="n">
         <v>0</v>
@@ -30159,8 +30611,10 @@
       </c>
     </row>
     <row r="230">
-      <c r="A230" t="n">
-        <v>0</v>
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>AKBP Imron Ermawan, Kapolres, Tersangka, Imron, Mayat Nani, Leuwigajah, Nani, Rifki, Rifky</t>
+        </is>
       </c>
       <c r="B230" t="n">
         <v>0</v>
@@ -30290,8 +30744,10 @@
       </c>
     </row>
     <row r="231">
-      <c r="A231" t="n">
-        <v>0</v>
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>POM TNI, Wahyu, Mako Paspampres, Panglima TNI Jenderal Andika Perkasa, Wahyu Hidayat Sudjatmiko, Paspampres, Mabes TNI, Andika, Polri, Kostrad</t>
+        </is>
       </c>
       <c r="B231" t="n">
         <v>0</v>
@@ -30408,8 +30864,10 @@
       </c>
     </row>
     <row r="232">
-      <c r="A232" t="n">
-        <v>0</v>
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Putri Keraton Solo GRAy Devi Lelyana Dewi, Keputren, Djohan Andika, Gusti Devi, Keputren Keraton Kasunanan Solo, Kasatreskrim Polresta Solo Kompol Djohan Andika</t>
+        </is>
       </c>
       <c r="B232" t="n">
         <v>0</v>
@@ -30457,12 +30915,12 @@
       </c>
       <c r="N232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>surakarta (solo)</t>
         </is>
       </c>
       <c r="O232" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P232" t="n">
@@ -30532,8 +30990,10 @@
       </c>
     </row>
     <row r="233">
-      <c r="A233" t="n">
-        <v>0</v>
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>AR, Korban, Pelaku</t>
+        </is>
       </c>
       <c r="B233" t="n">
         <v>0</v>
@@ -30641,8 +31101,10 @@
       </c>
     </row>
     <row r="234">
-      <c r="A234" t="n">
-        <v>0</v>
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Chad, Clearwater, Amerika Serikat, Northwood Presbyterian Church</t>
+        </is>
       </c>
       <c r="B234" t="n">
         <v>0</v>
@@ -30758,8 +31220,10 @@
       </c>
     </row>
     <row r="235">
-      <c r="A235" t="n">
-        <v>0</v>
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>CCTV, Argo, Bareskrim Mabes Polri, Polres</t>
+        </is>
       </c>
       <c r="B235" t="n">
         <v>0</v>
@@ -30874,8 +31338,10 @@
       </c>
     </row>
     <row r="236">
-      <c r="A236" t="n">
-        <v>0</v>
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Tado, Ismail, Casim, Eretan Kulon</t>
+        </is>
       </c>
       <c r="B236" t="n">
         <v>0</v>
@@ -30990,8 +31456,10 @@
       </c>
     </row>
     <row r="237">
-      <c r="A237" t="n">
-        <v>0</v>
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Jl HR Rasuna Said, Kemenkop UKM, Teten Masduki, Teten, Kemenkop, SOP</t>
+        </is>
       </c>
       <c r="B237" t="n">
         <v>0</v>
@@ -31118,8 +31586,10 @@
       </c>
     </row>
     <row r="238">
-      <c r="A238" t="n">
-        <v>0</v>
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>DD, Kombes Iqbal Alqudusy, Polisi, Kabid Humas Polda, Iqbal, Abas Azhar, Mapolresta</t>
+        </is>
       </c>
       <c r="B238" t="n">
         <v>0</v>
@@ -31231,8 +31701,10 @@
       </c>
     </row>
     <row r="239">
-      <c r="A239" t="n">
-        <v>0</v>
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Paya Perupuk, Polsek, Polisi, Kasat Reskrim Polres, Z, Petugas, Luis, Pura, Saiyah, Iptu Luis Beltran</t>
+        </is>
       </c>
       <c r="B239" t="n">
         <v>0</v>
@@ -31358,8 +31830,10 @@
       </c>
     </row>
     <row r="240">
-      <c r="A240" t="n">
-        <v>0</v>
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Ahli Psikologi, Ricky Rizal, Kuat Maruf, Sidang, KUHP, Ferdy Sambo, Richard Eliezer Pudihang Lumiu, Brigadir J, Ricky Rizal Wibowo, Brigadir, Putri Candrawathi, Brigadir Yosua, Kuat, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B240" t="n">
         <v>0</v>
@@ -31466,8 +31940,10 @@
       </c>
     </row>
     <row r="241">
-      <c r="A241" t="n">
-        <v>0</v>
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Ampar, Tiban Koperasi, Pelaku, Kompol Salahudin, Sei Beduk, Piayu, Motif, RS, Fachri, Kapolsek, Korban RS, Agya, Usai</t>
+        </is>
       </c>
       <c r="B241" t="n">
         <v>0</v>
@@ -31584,8 +32060,10 @@
       </c>
     </row>
     <row r="242">
-      <c r="A242" t="n">
-        <v>0</v>
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, Saudara, Ricky, KUHP, Brigadir Yosua Hutabarat, Eliezer, Yosua, Sambo, Brigadir Yosua, Hakim, Saudara Yosua, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Richard Eliezer</t>
+        </is>
       </c>
       <c r="B242" t="n">
         <v>0</v>
@@ -31709,8 +32187,10 @@
       </c>
     </row>
     <row r="243">
-      <c r="A243" t="n">
-        <v>0</v>
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>AKBP Arif Rachman Arifin, Kaden A Biro Paminal Agus Nurpatria, CCTV, Brigadir N Yosua Hutabarat, Ferdy Sambo, Arif, Jaksa, Sambo, Brigadir Yosua, Putri Candrawathi, Kadiv Propam Ferdy Sambo, Yosua</t>
+        </is>
       </c>
       <c r="B243" t="n">
         <v>0</v>
@@ -31834,8 +32314,10 @@
       </c>
     </row>
     <row r="244">
-      <c r="A244" t="n">
-        <v>0</v>
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>K, T, AD, Bolak, Imam, Kapolres Tapanuli, RSUD Gunungtua, IH, SP, Pemberian Hasibuan</t>
+        </is>
       </c>
       <c r="B244" t="n">
         <v>0</v>
@@ -31962,8 +32444,10 @@
       </c>
     </row>
     <row r="245">
-      <c r="A245" t="n">
-        <v>0</v>
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>Tol Becakayu, Tersangka, Rudolf Tobing, Inspeksi Kalimalang, Inafis, Ade Yunia Rizabani, Xenia, Becakayu, Icha, Rekonstruksi, Ditreskrimum Polda, Rudolf</t>
+        </is>
       </c>
       <c r="B245" t="n">
         <v>0</v>
@@ -32098,8 +32582,10 @@
       </c>
     </row>
     <row r="246">
-      <c r="A246" t="n">
-        <v>0</v>
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Kasus Pembunuhan Yosua Kompol Chuck Putranto, Eliezer, Yosua, Bharada Richard Eliezer, Kapolri, Kompol Chuck Didakwa, Kompol Baiquni Wibowo, Baiquni Wibowo, Kasubbagaudit Baggaketika Rowabprof Divisi Propam Polri, Chuck, Sambo, AKBP Arif Rachman Arifin, Brigjen Hendra Kurnia, Saudara, CCTV, Mako Brimob, Eks Kadiv Propam Polri Ferdy Sambo, Richard, Kombes Agus Nurpatria Adi Purnama, Brigadir Yosua Hutabarat, Yosua Hutabarat</t>
+        </is>
       </c>
       <c r="B246" t="n">
         <v>0</v>
@@ -32249,8 +32735,10 @@
       </c>
     </row>
     <row r="247">
-      <c r="A247" t="n">
-        <v>0</v>
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Saudara, Bapak, FS, Ferdy Sambo, Putri, Eliezer, Arman, Sambo, Putri Candrawathi, Hakim, Saudara Penasihat Hukum, Arman Hanis</t>
+        </is>
       </c>
       <c r="B247" t="n">
         <v>0</v>
@@ -32381,8 +32869,10 @@
       </c>
     </row>
     <row r="248">
-      <c r="A248" t="n">
-        <v>0</v>
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Ricky Rizal, BKO Divpropam Polri, Saudara, Ricky, FS, Komisioner Kompolnas Poengky Indarti, Ferdy Sambo, Brigadir Yosua Hutabarat, Bripka Ricky Rizal, Kadiv Propam, Kompolnas, Putri Candrawathi, Sambo, Hakim, Divisi Propam, Polri</t>
+        </is>
       </c>
       <c r="B248" t="n">
         <v>0</v>
@@ -32430,12 +32920,12 @@
       </c>
       <c r="N248" t="inlineStr">
         <is>
-          <t>jakarta selatan</t>
+          <t>magelang</t>
         </is>
       </c>
       <c r="O248" t="inlineStr">
         <is>
-          <t>dki jakarta</t>
+          <t>jawa tengah</t>
         </is>
       </c>
       <c r="P248" t="n">
@@ -32531,8 +33021,10 @@
       </c>
     </row>
     <row r="249">
-      <c r="A249" t="n">
-        <v>0</v>
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Gudang, Polisi, Kompol Evarmon Lubis, Evarmon, Kasi Humas Polres Tangsel Ipda Galih, Kapolsek, R</t>
+        </is>
       </c>
       <c r="B249" t="n">
         <v>0</v>
@@ -32575,12 +33067,12 @@
       </c>
       <c r="M249" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>serpong</t>
         </is>
       </c>
       <c r="N249" t="inlineStr">
         <is>
-          <t>tangerang</t>
+          <t>tangerang selatan</t>
         </is>
       </c>
       <c r="O249" t="inlineStr">

--- a/whowherewhen/whowhenwhere_test_result_kriminalitas.xlsx
+++ b/whowherewhen/whowhenwhere_test_result_kriminalitas.xlsx
@@ -553,7 +553,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Iman, Tersangka AS, Polisi, Tersangka, Korban, Korban Punya Hubungan Iman, Tegar Beriman, LH</t>
+          <t>Iman, Polisi, Tegar Beriman, Korban, Korban Punya Hubungan Iman, Tersangka, LH, Tersangka AS</t>
         </is>
       </c>
       <c r="B2" t="n">
@@ -680,7 +680,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>LGBT, Amerika Serikat, Qatar, Grant Wahl, AS, Grant, Eric, Infantino, Argentina, FIFA, Presiden Gianni Infantino, Lusail, Piala Dunia, Celine, Belanda, WIB, CPR</t>
+          <t>CPR, Grant, Lusail, Piala Dunia, LGBT, Presiden Gianni Infantino, WIB, FIFA, Celine, Eric, Amerika Serikat, Qatar, Infantino, Argentina, Belanda, Grant Wahl, AS</t>
         </is>
       </c>
       <c r="B3" t="n">
@@ -816,7 +816,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Ricky, KUHP, Ferdy Sambo, Eliezer, Bripka Ricky Rizal, Honda Beat, Kuat, KTP, BNI</t>
+          <t>Ricky, Ferdy Sambo, KUHP, KTP, Bripka Ricky Rizal, BNI, Kuat, Eliezer, Honda Beat</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -946,7 +946,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Jaksa, Eliezer, Yosua, Richard Eliezer, Bharada E, Bharada Richard Eliezer, Ferdy Sambo, Brigadir J, Brigadir, Brigadir Nopriansyah Yosua Hutabarat, Tadi Saudara RE, Ricky Rizal Tepis Sambo Tertawa Bripka Ricky Rizal, Bripka Ricky Rizal, Sambo, Putri Candrawathi, Kuat, Richard, Ricky, KUHP, Bripka Ricky, Brigadir Yosua</t>
+          <t>Brigadir Yosua, Jaksa, Yosua, Tadi Saudara RE, Brigadir Nopriansyah Yosua Hutabarat, Brigadir, Ricky, Brigadir J, Bharada Richard Eliezer, Kuat, Eliezer, Ferdy Sambo, Richard Eliezer, KUHP, Richard, Bripka Ricky Rizal, Ricky Rizal Tepis Sambo Tertawa Bripka Ricky Rizal, Sambo, Bharada E, Putri Candrawathi, Bripka Ricky</t>
         </is>
       </c>
       <c r="B5" t="n">
@@ -1079,7 +1079,7 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>CCTV, Saudara Richard, Chuck Diminta, Pak Ferdy Sambo, Ferdy Sambo, Chuck, Polres, DVR, Bripka Ricky Rizal, Eliezer, Yosua, Brigjen Hendra Kurniawan, Sambo, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Kompol Chuck Putranto</t>
+          <t>Ferdy Sambo, Pak Ferdy Sambo, CCTV, Saudara Richard, DVR, Yosua, Putri Candrawathi, Chuck, Bripka Ricky Rizal, Kompol Chuck Putranto, Polres, Kuat, Eliezer, Brigadir Nopriansyah Yosua Hutabarat, Sambo, Brigjen Hendra Kurniawan, Chuck Diminta</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -1216,7 +1216,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Kawasan Pantai Marina, Yunantyo, Iwan Boedi Prasetijo, LPSK, Iwan Boedi</t>
+          <t>Kawasan Pantai Marina, Iwan Boedi Prasetijo, LPSK, Iwan Boedi, Yunantyo</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -1339,7 +1339,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Brigadir J, Yosua, Sambo, Wahyu Iman Santoso</t>
+          <t>Sambo, Brigadir J, Wahyu Iman Santoso, Yosua</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -1361,7 +1361,7 @@
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>06/12/2022</t>
         </is>
       </c>
       <c r="H8" t="n">
@@ -1436,7 +1436,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>AKBP Arif Rachman Arifin, CCTV, Agus Sariful, Hendra, Paminal Propam Polri Hendra Kurniawan, Brigadir Yosua Hutabarat, Mantan, Hendra Kurniawan, Kompol Baiquni Wibowo, Kadiv Propam Polri Ferdy Sambo, AKP Irfan Widyanto, Yosua Hutabarat, Timsus Agus Sariful Hidayat, Kompol Chuck Putranto, Agus, Timsus Polri</t>
+          <t>Paminal Propam Polri Hendra Kurniawan, Agus Sariful, AKBP Arif Rachman Arifin, Mantan, Kadiv Propam Polri Ferdy Sambo, CCTV, Yosua Hutabarat, AKP Irfan Widyanto, Kompol Chuck Putranto, Timsus Polri, Hendra Kurniawan, Timsus Agus Sariful Hidayat, Agus, Hendra, Kompol Baiquni Wibowo, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B9" t="n">
@@ -1561,7 +1561,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Malabar, Kapolres, Nogosaren, Polres, AKBP Teuku Arsya Khadafi, Arsya, Kecamatana, MF</t>
+          <t>Arsya, AKBP Teuku Arsya Khadafi, MF, Malabar, Kapolres, Kecamatana, Polres, Nogosaren</t>
         </is>
       </c>
       <c r="B10" t="n">
@@ -1699,7 +1699,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Santoso, Kapolres, Tim Inafis Polda, TKP, Wali, Argo, Arga, AKBP Argowiyono</t>
+          <t>AKBP Argowiyono, Tim Inafis Polda, Arga, Santoso, Argo, Kapolres, TKP, Wali</t>
         </is>
       </c>
       <c r="B11" t="n">
@@ -1821,7 +1821,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Richard, Bharada E, Bharada Richard Eliezer, Ricky, Bharada, Tadi Saudara RE, Ferdy Sambo, Hakim Wahyu Imam Santoso, Bripka Ricky, Eliezer, LPSK, Sambo Tertawa Usai Pembunuhan Yosua Eliezer, Hakim, Yosua</t>
+          <t>Hakim Wahyu Imam Santoso, Ricky, Ferdy Sambo, Tadi Saudara RE, Richard, Hakim, Bharada E, LPSK, Bharada, Yosua, Sambo Tertawa Usai Pembunuhan Yosua Eliezer, Bharada Richard Eliezer, Bripka Ricky, Eliezer</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -1959,7 +1959,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Takut, WCC Nurani Perempuan, Meri, Satgas, Rahmi Meri Yanti, Direktur WCC Nurani Perempuan, Nurani Perempuan, Unand</t>
+          <t>Takut, Unand, Satgas, WCC Nurani Perempuan, Direktur WCC Nurani Perempuan, Rahmi Meri Yanti, Meri, Nurani Perempuan</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2079,7 +2079,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>CCTV, Bharada Richard Eliezer, Ferdy Sambo, Brigadir Yosua Hutabarat, Chuck, Arif Rachman, Sambo, Chuck Putranto, Yosua</t>
+          <t>Ferdy Sambo, CCTV, Yosua, Chuck, Arif Rachman, Bharada Richard Eliezer, Chuck Putranto, Sambo, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B14" t="n">
@@ -2204,7 +2204,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Umum PKB Jazilul Fawaid, Eva, Pegunungan, Bank, Jazilul, Sipil KKB, TNI, Polri, KKB, BNPT, PKB</t>
+          <t>Bank, PKB, Pegunungan, Sipil KKB, KKB, BNPT, TNI, Jazilul, Eva, Polri, Umum PKB Jazilul Fawaid</t>
         </is>
       </c>
       <c r="B15" t="n">
@@ -2336,7 +2336,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Reni, Ricky Rizal, Pengacara Putri Candrawathi, Layak, Ferdy Sambo, Putri, Bu Putri, Yosua, Richard Eliezer, Putri Candrawathi, Brigadir Yosua, Febri, Febri Diansyah, Kuat, PC, Reni Kusumowardhani</t>
+          <t>Bu Putri, Ferdy Sambo, Pengacara Putri Candrawathi, Brigadir Yosua, Reni Kusumowardhani, Richard Eliezer, Reni, Putri, Febri Diansyah, Yosua, Putri Candrawathi, PC, Kuat, Ricky Rizal, Febri, Layak</t>
         </is>
       </c>
       <c r="B16" t="n">
@@ -2385,12 +2385,12 @@
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>magelang</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>jawa tengah</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P16" t="n">
@@ -2504,7 +2504,7 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Aipda Marianus Demon Hada, Air, B, Ridwan, Satuan Reskrim Polres, POLDA NTT, AKP Ridwan</t>
+          <t>Ridwan, B, AKP Ridwan, Aipda Marianus Demon Hada, POLDA NTT, Air, Satuan Reskrim Polres</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -2623,7 +2623,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Saudara, FS, KUHP, Putri, Ferdy Sambo, Pak FS, Elizer, Eliezer, Bripka Ricky Rizal, Yosua, Kadiv Propam Polri Ferdy Sambo, Sambo, Putri Candrawathi, Hakim, Bharada Richard Eliezer Pudihang Lumiu, Brigadir Nopriansyah Yosua Hutabarat, Kuat</t>
+          <t>Saudara, Elizer, Ferdy Sambo, FS, Kadiv Propam Polri Ferdy Sambo, KUHP, Putri, Pak FS, Hakim, Putri Candrawathi, Yosua, Bharada Richard Eliezer Pudihang Lumiu, Bripka Ricky Rizal, Kuat, Eliezer, Brigadir Nopriansyah Yosua Hutabarat, Sambo</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -2761,7 +2761,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Reni, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Ahli Psikologi Forensik Reni Kusumowardhani, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Sambo, Putri Candrawathi, Ricky Rizal Wibowo, Khusus Ferdy Sambo, Brigadir Yosua, Kuat, Ferdy Sambo Didakwa Pembunuhan Berencana Ferdy Sambo</t>
+          <t>Khusus Ferdy Sambo, Ahli Psikologi Forensik Reni Kusumowardhani, Ferdy Sambo, Brigadir Yosua, Kadiv Propam Polri Ferdy Sambo, Reni, KUHP, Ferdy Sambo Didakwa Pembunuhan Berencana Ferdy Sambo, Putri Candrawathi, Brigadir N Yosua Hutabarat, Ricky Rizal Wibowo, Bripka Ricky Rizal, Kuat, Sambo</t>
         </is>
       </c>
       <c r="B19" t="n">
@@ -2906,7 +2906,7 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Kowad Kostrad Sudah, Mayor Paspampres, TNI, Jenderal Andika, Andika, Panglima TNI Jenderal Andika Perkasa</t>
+          <t>Andika, TNI, Jenderal Andika, Panglima TNI Jenderal Andika Perkasa, Mayor Paspampres, Kowad Kostrad Sudah</t>
         </is>
       </c>
       <c r="B20" t="n">
@@ -3033,7 +3033,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Deli Serdang, N, Nurhaida, SMK, Sumatera</t>
+          <t>SMK, Deli Serdang, Sumatera, Nurhaida, N</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -3155,7 +3155,7 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Saudara, Bharada Richard Eliezer, KUHP, Provos, Putri, Ferdy Sambo, Bripka Ricky Rizal, Kodir, Sambo, Putri Candrawathi, Hakim, Kuat, Yosua, Provos Polri</t>
+          <t>Saudara, Provos Polri, Ferdy Sambo, KUHP, Putri, Hakim, Yosua, Putri Candrawathi, Bripka Ricky Rizal, Bharada Richard Eliezer, Provos, Kuat, Ricky Rizal, Sambo, Kodir</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -3300,7 +3300,7 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Simak, Keraton Kasunanan Solo, TRKD, Agung, Wirabhumi, Agung Susilo, KPH Eddy Wirabhumi, Dilansir</t>
+          <t>Dilansir, Agung Susilo, KPH Eddy Wirabhumi, Simak, TRKD, Agung, Keraton Kasunanan Solo, Wirabhumi</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -3417,7 +3417,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>SMA, Hotman, Diaz, W, Pak, Hotman Paris, Instagram, Humas Pengadilan Negeri, Perlindungan Anak, Presiden, MAP, Mahkamah Agung, Sumatera, A, Kopi Joni, JPU</t>
+          <t>Perlindungan Anak, Kopi Joni, Pak, SMA, W, Sumatera, Presiden, Hotman, A, Mahkamah Agung, Instagram, MAP, Diaz, Humas Pengadilan Negeri, Hotman Paris, JPU</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -3559,7 +3559,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Karmila Simatupang, Babapan, Iptu Luis Beltran, Gang Pasir, Pelaku, Janda Cantik Dibunuh Tetangga, Warga, Polisi, Tetangga, Brandan, Polsek, Memet, Rahmat, Luis, TKP, Sumatra, Securai, Karmila, R</t>
+          <t>Janda Cantik Dibunuh Tetangga, Sumatra, Rahmat, Karmila, Tetangga, Karmila Simatupang, TKP, Warga, Polsek, Pelaku, Luis, Securai, Babapan, Iptu Luis Beltran, Polisi, R, Brandan, Memet, Gang Pasir</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -3702,7 +3702,7 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Santoso, Tim, Dirkrimum, Wali, Priyo, AKBP Argowiyono, Pelaku, Rumah Dinas Wali, Polisi, Avanza, Sekda, Kapolres, Tim Polda, Pemkot, Dirreskrimum Polda, TKP, Toto Robandiyo, Priyo Suhartono, Argo, Kabid Labfor, CCTV, Kombes Totok Suharyanto, Ponsel, Kepala Bakesbangpol, Toto</t>
+          <t>Ponsel, Avanza, Kapolres, Toto Robandiyo, Rumah Dinas Wali, Kepala Bakesbangpol, Priyo, Tim, Argo, TKP, AKBP Argowiyono, Sekda, CCTV, Santoso, Pelaku, Toto, Dirkrimum, Polisi, Dirreskrimum Polda, Pemkot, Priyo Suhartono, Kabid Labfor, Kombes Totok Suharyanto, Tim Polda, Wali</t>
         </is>
       </c>
       <c r="B26" t="n">
@@ -3882,7 +3882,7 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Brigadir N Yosua Hutabarat, Eliezer, Bharada Eliezer, Yosua, Richard Eliezer, ART, Ferdy Sambo, Putri, Hakim, ADC, Bripka Ricky Rizal, Habis, Sambo, Putri Candrawathi, Kuat, Richard, Saudara, Susi, Ricky, Iya, Brigadir Yosua</t>
+          <t>Brigadir Yosua, Susi, Hakim, Yosua, Ricky, Bharada Eliezer, Brigadir N Yosua Hutabarat, Kuat, Eliezer, Saudara, Ferdy Sambo, Habis, Richard Eliezer, Richard, ART, Bripka Ricky Rizal, Sambo, Putri, Putri Candrawathi, Iya, ADC</t>
         </is>
       </c>
       <c r="B27" t="n">
@@ -4018,7 +4018,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Santoso, Pelaku, CCTV, Feti, Brankasnya Pak, Satpol PP, Brankas, Kabid Humas Polda, Kombes Pol Dirmanto, Tjutjuk Sunario, Wali</t>
+          <t>Tjutjuk Sunario, CCTV, Kabid Humas Polda, Kombes Pol Dirmanto, Santoso, Pelaku, Satpol PP, Feti, Brankas, Brankasnya Pak, Wali</t>
         </is>
       </c>
       <c r="B28" t="n">
@@ -4186,7 +4186,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>AFP, CENTCOM, Amerika Serikat, AS, SDF, Kurdi, Suriah, ISI, Hak Asasi Manusia, Turki, Ankara, Komando, ISIS, Kepala Observatorium Rami Abdel Rahman</t>
+          <t>Turki, Kurdi, Komando, Hak Asasi Manusia, Ankara, CENTCOM, ISI, Kepala Observatorium Rami Abdel Rahman, ISIS, AFP, Suriah, Amerika Serikat, SDF, AS</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -4319,7 +4319,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Saudara, Ade, Brigadir N Yosua Hutabarat, Ferdy Sambo, Wahyu Iman Santoso, Yosua, Ade Firmansyah Sugiarto, Putri Candrawathi, Hakim, Farah, RSCM, Kuat</t>
+          <t>Saudara, Ferdy Sambo, Ade Firmansyah Sugiarto, Ade, Hakim, Yosua, Putri Candrawathi, Brigadir N Yosua Hutabarat, Kuat, Farah, Ricky Rizal, Wahyu Iman Santoso, RSCM</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -4449,7 +4449,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Pelaku, Polsek, TG, Warga, Kasat Reskrim Polres, Syahruddin, SH, Sasmito, Korban, Iptu Sasmito, Pria, Kapolsek, AKP Syahruddin, Bonto Katute, SB</t>
+          <t>SH, Kapolsek, Pria, Warga, Polsek, Korban, Sasmito, AKP Syahruddin, TG, Pelaku, Bonto Katute, Syahruddin, SB, Iptu Sasmito, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B31" t="n">
@@ -4587,7 +4587,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Polsek, Warga, PB, Pemuda, AKP Syafnil, Korban, Mapolsek, Kapolsek</t>
+          <t>Pemuda, Kapolsek, PB, Warga, Polsek, Korban, AKP Syafnil, Mapolsek</t>
         </is>
       </c>
       <c r="B32" t="n">
@@ -4714,7 +4714,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Jl Arjuno, FAN, KPK, Kabag Pemberitaan KPK Ali Fikri, Penuntutan KPK, Harapannya, Dilansir, Ali, Maling, Ali Fikri, Tipikor, Pastikan Perkara Tetap</t>
+          <t>Harapannya, Ali, Penuntutan KPK, Tipikor, Dilansir, Maling, Ali Fikri, Jl Arjuno, KPK, FAN, Kabag Pemberitaan KPK Ali Fikri, Pastikan Perkara Tetap</t>
         </is>
       </c>
       <c r="B33" t="n">
@@ -4844,7 +4844,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>MN, Kapolres, Taufik, Ramdhan, Arya, TKP, EG</t>
+          <t>MN, Taufik, Kapolres, EG, Arya, Ramdhan, TKP</t>
         </is>
       </c>
       <c r="B34" t="n">
@@ -4974,7 +4974,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Kanit Reskrim Polsek, Kombes Pasma Royce, Polisi, AR, Krendang, Kami Polsek, Pelaku Ngaku Sakit Pelaku, Reskrim Polsek, Korban, Kompol Putra Pratama, Kapolsek, Jakbar, Putra, Iptu Rizky Ari Budianto</t>
+          <t>Putra, Kanit Reskrim Polsek, Kapolsek, Kami Polsek, Polisi, AR, Korban, Kompol Putra Pratama, Krendang, Pelaku Ngaku Sakit Pelaku, Kombes Pasma Royce, Jakbar, Iptu Rizky Ari Budianto, Reskrim Polsek</t>
         </is>
       </c>
       <c r="B35" t="n">
@@ -5106,7 +5106,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Wali, Mobil Kapolresta, TKP, AKBP Argowiyono, Polresta, Ipda Ludfi</t>
+          <t>AKBP Argowiyono, Ipda Ludfi, Polresta, Wali, Mobil Kapolresta, TKP</t>
         </is>
       </c>
       <c r="B36" t="n">
@@ -5215,7 +5215,7 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Saudara, Mabes Polri, Putri, Hakim Wahyu, Brigadir Yosua Hutabarat, Wahyu Iman Santoso, Kadiv Propam Polri Ferdy Sambo, Putri Candrawathi, Yosua Hutabarat, Hakim, Polri, Yosua, Bharada Elizer</t>
+          <t>Saudara, Kadiv Propam Polri Ferdy Sambo, Putri, Hakim, Yosua, Putri Candrawathi, Yosua Hutabarat, Hakim Wahyu, Bharada Elizer, Mabes Polri, Polri, Wahyu Iman Santoso, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B37" t="n">
@@ -5370,7 +5370,7 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>AKBP Achmad Gusti Hartono, Terbaru, Kapolres, Kasat Reskrim Polres, Dwijaya, Y, Rawas, Sumatera, AKP M Indra, S, FD, Semangus, Lakitan</t>
+          <t>Dwijaya, AKBP Achmad Gusti Hartono, Semangus, Sumatera, S, Lakitan, Rawas, Y, Kapolres, AKP M Indra, Terbaru, FD, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B38" t="n">
@@ -5516,7 +5516,7 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Sedih, Khusus Sambo, Ferdy Sambo, Putri, Mantan, Provost Divisi Propam Polri Benny Ali, Brigadir J, Kadiv Propam, Sambo, Putri Candrawathi, Nofriansyah Yosua Hutabarat, Benny, Kuat, Yosua, Richard Eliezer</t>
+          <t>Ferdy Sambo, Brigadir J, Mantan, Richard Eliezer, Kadiv Propam, Putri, Yosua, Putri Candrawathi, Khusus Sambo, Sedih, Kuat, Ricky Rizal, Sambo, Provost Divisi Propam Polri Benny Ali, Benny, Nofriansyah Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B39" t="n">
@@ -5667,7 +5667,7 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Polisi, Sajarod, Plt Kapolresta, AKBP Mochammad Sajarod Zakun</t>
+          <t>Plt Kapolresta, AKBP Mochammad Sajarod Zakun, Sajarod, Polisi</t>
         </is>
       </c>
       <c r="B40" t="n">
@@ -5783,7 +5783,7 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tim Khusus Polri Agus Sariful Hidayat, Timsus, Brigadir Yosua Hutabarat, Hendra Kurniawan, TKP, Yosua, Agus, Kombes Agus Nurpatria</t>
+          <t>Kombes Agus Nurpatria, Yosua, Timsus, Hendra Kurniawan, TKP, Tim Khusus Polri Agus Sariful Hidayat, Agus, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B41" t="n">
@@ -5921,7 +5921,7 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pelaku, Kasat Reskrim Polresta Tanjungpinang AKP Ronny Burungudju, Polisi, MiChat, MA, Honda Beat, Tim Opsnal Jatanras Sat Reskrim Polresta Tanjungpinang, Besar</t>
+          <t>Besar, Polisi, Tim Opsnal Jatanras Sat Reskrim Polresta Tanjungpinang, MiChat, Kasat Reskrim Polresta Tanjungpinang AKP Ronny Burungudju, Pelaku, MA, Honda Beat</t>
         </is>
       </c>
       <c r="B42" t="n">
@@ -6037,7 +6037,7 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Gilles Thomas Allcard William, CCTV, Polsek, Kasi Humas Polres, Tersangka, Panit Reskrim Polsek, Yamaha Scorpio, Inggris, Deus Canggu, Tibubeneng, Kapolsek, Iptu I Ketut Sudana, Deus, Wijaya, Ipda Made Guna Wijaya</t>
+          <t>Kapolsek, Deus, Yamaha Scorpio, Ipda Made Guna Wijaya, CCTV, Wijaya, Polsek, Deus Canggu, Iptu I Ketut Sudana, Tersangka, Tibubeneng, Kasi Humas Polres, Inggris, Panit Reskrim Polsek, Gilles Thomas Allcard William</t>
         </is>
       </c>
       <c r="B43" t="n">
@@ -6161,7 +6161,7 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>CCTV, Kristina, Kompol Nyoman Darsana, Indonesia, Kapolsek, Darsana</t>
+          <t>Kapolsek, Kompol Nyoman Darsana, CCTV, Indonesia, Kristina, Darsana</t>
         </is>
       </c>
       <c r="B44" t="n">
@@ -6293,7 +6293,7 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>AKP Agus Purnomo, Pelaku, Kalong, Kasat Reskrim Polres, Tersangka, Korban, Budi Hartono, Pisau, Kademangann, Agus</t>
+          <t>Kademangann, AKP Agus Purnomo, Kalong, Korban, Pisau, Tersangka, Pelaku, Agus, Budi Hartono, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B45" t="n">
@@ -6413,7 +6413,7 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Kanit Reskrim Polsek, Tumbur, DPRD, HKBP Legenda, Gereja HKBP Legenda, Polsek, Yudha, Ipda Muhammad Yudha Firmansyah, Korban, Tumbur Hutasoit, Tas, Mobil Toyota Kijang Innova, Usai</t>
+          <t>Kanit Reskrim Polsek, Yudha, Tumbur Hutasoit, Mobil Toyota Kijang Innova, Ipda Muhammad Yudha Firmansyah, Gereja HKBP Legenda, Polsek, Korban, Tas, DPRD, HKBP Legenda, Tumbur, Usai</t>
         </is>
       </c>
       <c r="B46" t="n">
@@ -6529,7 +6529,7 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Gunung Sahari, Satreskrim Polres, Komisi E DPRD DKI, Kapolres, DKI, MA, Anggara, Pemprov DKI, Pasar Cipadu, Kombes Komarudin, Anggara Wicitra Sastroamidjojo</t>
+          <t>Satreskrim Polres, Pasar Cipadu, Kombes Komarudin, Komisi E DPRD DKI, DKI, Gunung Sahari, Anggara, Kapolres, MA, Pemprov DKI, Anggara Wicitra Sastroamidjojo</t>
         </is>
       </c>
       <c r="B47" t="n">
@@ -6900,7 +6900,7 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Denanyar, Mayjend Sungkono, Polisi, Lumpur, Sekarkurung, AKBP Mochamad Nur Azis, Nur Azis, M Satrio</t>
+          <t>Lumpur, Polisi, Mayjend Sungkono, Denanyar, AKBP Mochamad Nur Azis, Nur Azis, M Satrio, Sekarkurung</t>
         </is>
       </c>
       <c r="B50" t="n">
@@ -7033,7 +7033,7 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Richard, Koh Erben, Sidang, Alfons, Pengacara Eliezer, Ferdy Sambo, Kesaksian, Eliezer, Bharada Richard Eliezer Pudihang Lumia, Bripka Ricky Rizal, LPSK, Romer, Sadam, TKP, Ronny Talapessy, Ronny, Kuat, Arman Hanis</t>
+          <t>Sadam, Kesaksian, Bharada Richard Eliezer Pudihang Lumia, Ferdy Sambo, Koh Erben, Alfons, Arman Hanis, Pengacara Eliezer, Richard, LPSK, Romer, Bripka Ricky Rizal, Sidang, Kuat, Eliezer, Ronny Talapessy, Ronny, TKP</t>
         </is>
       </c>
       <c r="B51" t="n">
@@ -7194,7 +7194,7 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>PCR, Brigadir N Yosua Hutabarat, Putri, Elizer, Eliezer, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Sambo, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Om Kuat, Kuat</t>
+          <t>Elizer, Kadiv Propam Polri Ferdy Sambo, Putri, Putri Candrawathi, Brigadir N Yosua Hutabarat, Bharada Richard Eliezer Pudihang Lumiu, PCR, Bripka Ricky Rizal, Om Kuat, Kuat, Eliezer, Sambo</t>
         </is>
       </c>
       <c r="B52" t="n">
@@ -7320,7 +7320,7 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, Putri, Ferdy Sambo, Eliezer, Bripka Ricky Rizal, Sambo, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua</t>
+          <t>Ferdy Sambo, Putri, Yosua, Putri Candrawathi, Bripka Ricky Rizal, Bharada Richard Eliezer, Kuat, Eliezer, Brigadir Nopriansyah Yosua Hutabarat, Sambo</t>
         </is>
       </c>
       <c r="B53" t="n">
@@ -7369,12 +7369,12 @@
       </c>
       <c r="N53" t="inlineStr">
         <is>
-          <t>magelang</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O53" t="inlineStr">
         <is>
-          <t>jawa tengah</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P53" t="n">
@@ -7447,7 +7447,7 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Brigadir N Yosua Hutabarat, Kadiv Propam Polri, Chuck Didakwa, Agus Nurpatria Adi Purnama, Kasus Pembunuhan Yosua Chuck Putranto, Ferdy Sambo, Kompol Baiquni Wibowo, Afrizal, Chuck Putranto, Kasubbagaudit Baggaketika Rowabprof Divisi Propam Polri, Hendra Kurnia, Chuck, Sambo, Afrizal Hadi, Polri, AKBP Arif Rachman Arifin, CCTV, KUHP, Brigadir Yosua, Yosua Hutabarat</t>
+          <t>Hendra Kurnia, Brigadir Yosua, Brigadir N Yosua Hutabarat, Yosua Hutabarat, Kasus Pembunuhan Yosua Chuck Putranto, Chuck Putranto, Chuck Didakwa, Kompol Baiquni Wibowo, Agus Nurpatria Adi Purnama, Ferdy Sambo, AKBP Arif Rachman Arifin, CCTV, KUHP, Kasubbagaudit Baggaketika Rowabprof Divisi Propam Polri, Kadiv Propam Polri, Sambo, Polri, Afrizal, Afrizal Hadi, Chuck</t>
         </is>
       </c>
       <c r="B54" t="n">
@@ -7591,7 +7591,7 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Kasat Reskrim Polres Kutim Iptu I Made Jata Wiranegara, Polsek, Jata, Polisi, Dirayu, Pelaku PA, Korban, Kutai, PA, Pria, Ancalong</t>
+          <t>Kutai, PA, Polisi, Jata, Pria, Polsek, Korban, Dirayu, Ancalong, Kasat Reskrim Polres Kutim Iptu I Made Jata Wiranegara, Pelaku PA</t>
         </is>
       </c>
       <c r="B55" t="n">
@@ -7720,7 +7720,7 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>CCTV, Kapolresta, Pihaknya, Wali, Argo, AKBP Argowiyono</t>
+          <t>AKBP Argowiyono, CCTV, Argo, Pihaknya, Kapolresta, Wali</t>
         </is>
       </c>
       <c r="B56" t="n">
@@ -7831,7 +7831,7 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Jogja, CCTV, Kasat Reskrim Polresta Jogja, Haryadi Suyuti, Polisi, Archye, Rencana, Polresta Jogja, Direskrimum Polda, Nuredy, Penangkapan, DVR CCTV, KPK, Wali, Kombes Nuredy Irwansyah, AKP Archye Nevada, Idham</t>
+          <t>Jogja, Kombes Nuredy Irwansyah, Polisi, Penangkapan, CCTV, KPK, DVR CCTV, Polresta Jogja, Direskrimum Polda, Idham, Rencana, Nuredy, Archye, Kasat Reskrim Polresta Jogja, AKP Archye Nevada, Haryadi Suyuti, Wali</t>
         </is>
       </c>
       <c r="B57" t="n">
@@ -7968,7 +7968,7 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Apartemen Green Pramuka, Tersangka, Rudolf Tobing, Buat H, Icha, Rudolf</t>
+          <t>Rudolf Tobing, Rudolf, Apartemen Green Pramuka, Icha, Buat H, Tersangka</t>
         </is>
       </c>
       <c r="B58" t="n">
@@ -8092,7 +8092,7 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Tim Opsnal Jatanras, Pogot, Kasat Reskrim Polrestabes, Soetomo, RSU, Putat, TKP, ALD, Petemon, AKBP Mirzal Maulana, RSUD, Mirzal, Unit Jatanras</t>
+          <t>Putat, RSU, Petemon, AKBP Mirzal Maulana, Soetomo, TKP, Mirzal, Tim Opsnal Jatanras, Pogot, Kasat Reskrim Polrestabes, RSUD, ALD, Unit Jatanras</t>
         </is>
       </c>
       <c r="B59" t="n">
@@ -8210,7 +8210,7 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Kapolsek Ilir, CCTV, Polisi, Kompol Rian Suhendi, Cabe Kecil, Maidi, Kepolisian Sektor Ilir, Korban, Mulkan, Sumatera, Ilir</t>
+          <t>Kepolisian Sektor Ilir, Kompol Rian Suhendi, Mulkan, Maidi, Kapolsek Ilir, Polisi, Ilir, CCTV, Sumatera, Korban, Cabe Kecil</t>
         </is>
       </c>
       <c r="B60" t="n">
@@ -8331,7 +8331,7 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Kuat Maruf, Sebab, Woy, Hakim Wahyu, Adzan Romer, J, Eliezer, Yosua, Richard Eliezer, Ricky Rizal, Ferdy Sambo, Hakim Ketua Wahyu Iman Santoso, Brigadir J, Brigadir, Khusus Ferdy Sambo, Hakim, Arman Hanis, Sambo, Putri Candrawathi, Enggak, Kuat, Richard, Wahyu, Susi, Ricky, RR, Majelis Hakim, Rumah, Kadiv Propam, Nofriansyah Yosua Hutabarat</t>
+          <t>Sebab, Susi, Hakim, Yosua, Hakim Wahyu, Enggak, Wahyu, Woy, Rumah, Nofriansyah Yosua Hutabarat, Brigadir, Ricky, Khusus Ferdy Sambo, Brigadir J, J, Kuat, Eliezer, RR, Kadiv Propam, Ferdy Sambo, Richard Eliezer, Richard, Hakim Ketua Wahyu Iman Santoso, Kuat Maruf, Sambo, Adzan Romer, Arman Hanis, Majelis Hakim, Putri Candrawathi, Ricky Rizal</t>
         </is>
       </c>
       <c r="B61" t="n">
@@ -8380,12 +8380,12 @@
       </c>
       <c r="N61" t="inlineStr">
         <is>
-          <t>magelang</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O61" t="inlineStr">
         <is>
-          <t>jawa tengah</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P61" t="n">
@@ -8534,7 +8534,7 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Pelaku, DD, Polisi, Sertijab Kapolsek, Sajarod, Plt Kapolresta, AKBP Mochammad Sajarod Zakun</t>
+          <t>Plt Kapolresta, Sajarod, Polisi, DD, Sertijab Kapolsek, Pelaku, AKBP Mochammad Sajarod Zakun</t>
         </is>
       </c>
       <c r="B62" t="n">
@@ -8662,7 +8662,7 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Ahmad Suhel, Coba, Brigadir Yosua Hutabarat, Agus, Arif, Polres, Biro Paminal Divpropam Polri, Wakaden B Ropaminal Divpropam Polri AKBP Arif Rachman Arifin, Biro Paminal, Reskrim Jaksel, Yosua, Terdakwa, Polri Agus Sariful Hidayat</t>
+          <t>Arif, Terdakwa, Wakaden B Ropaminal Divpropam Polri AKBP Arif Rachman Arifin, Yosua, Reskrim Jaksel, Biro Paminal, Biro Paminal Divpropam Polri, Ahmad Suhel, Coba, Polres, Agus, Polri Agus Sariful Hidayat, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B63" t="n">
@@ -8786,7 +8786,7 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Direktur Reskrimum Polda, Polisi, Hengki, Polda, Kombes Hengki Haryadi</t>
+          <t>Polisi, Direktur Reskrimum Polda, Kombes Hengki Haryadi, Polda, Hengki</t>
         </is>
       </c>
       <c r="B64" t="n">
@@ -8917,7 +8917,7 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Saudara, Bharada Richard Eliezer, Ricky, Ferdy Sambo, Putri, Wahyu Iman Santoso, Djuyamto, Bripka Ricky Rizal, Putri Candrawathi, Hakim, Sidang Eliezer, Humas PN, Kuat</t>
+          <t>Saudara, Ricky, Ferdy Sambo, Djuyamto, Putri, Hakim, Putri Candrawathi, Sidang Eliezer, Bripka Ricky Rizal, Bharada Richard Eliezer, Kuat, Humas PN, Wahyu Iman Santoso</t>
         </is>
       </c>
       <c r="B65" t="n">
@@ -9055,7 +9055,7 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Setop, Brigadir N Yosua Hutabarat, Adzan Romer, Eliezer, Jaksa, Bharada Richard Eliezer Pudihang Lumiu, Yosua, Ricky Rizal, Ferdy Sambo, Romer, Hakim, ADC, FS, HS, Sambo, Putri Candrawathi, Mobil Ferdy Sambo, CCTV, Wahyu, Ricky, Heri Priyanto, Wahyu Iman</t>
+          <t>Jaksa, Hakim, Yosua, Wahyu, Ricky, Brigadir N Yosua Hutabarat, Eliezer, Ferdy Sambo, HS, CCTV, Sambo, Wahyu Iman, Adzan Romer, Heri Priyanto, FS, Ricky Rizal, Putri Candrawathi, Setop, Romer, Bharada Richard Eliezer Pudihang Lumiu, Mobil Ferdy Sambo, ADC</t>
         </is>
       </c>
       <c r="B66" t="n">
@@ -9224,7 +9224,7 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Rambutnya, Outlaw, Smith, Unknown Child, Polisi Philadelphia, Departemen Kepolisian Philadelphia, Komisaris Polisi Philadelphia Danielle Outlaw, Philadelphia, Josep Augustus Zarelli, Joseph</t>
+          <t>Polisi Philadelphia, Josep Augustus Zarelli, Unknown Child, Komisaris Polisi Philadelphia Danielle Outlaw, Philadelphia, Outlaw, Joseph, Rambutnya, Departemen Kepolisian Philadelphia, Smith</t>
         </is>
       </c>
       <c r="B67" t="n">
@@ -9368,7 +9368,7 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>CCTV, Pas, Setyo, Sopirnya, AKP Setyo Widodo, Mobil, Kapolsek</t>
+          <t>AKP Setyo Widodo, Kapolsek, Sopirnya, CCTV, Pas, Setyo, Mobil</t>
         </is>
       </c>
       <c r="B68" t="n">
@@ -9488,7 +9488,7 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>S, Ibunya, Edwin</t>
+          <t>Edwin, S, Ibunya</t>
         </is>
       </c>
       <c r="B69" t="n">
@@ -9601,7 +9601,7 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>AS, Iptu Tri Novi Handono, SDS, Polisi, Puskesmas, Novi, MiChat, EK, Kasubbag Humas Polresta, Open BO, AKP Tiksnarto Novi Rahutomo, Wojoruntut</t>
+          <t>AKP Tiksnarto Novi Rahutomo, SDS, Polisi, Puskesmas, Wojoruntut, Iptu Tri Novi Handono, MiChat, Novi, EK, Open BO, AS, Kasubbag Humas Polresta</t>
         </is>
       </c>
       <c r="B70" t="n">
@@ -9731,7 +9731,7 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Lebakharjo Sumarno, Sumarno, Polisi, Korban, Lebakharjo, Ngadilan, Kepala, Lina, Sukarni</t>
+          <t>Lebakharjo Sumarno, Polisi, Kepala, Sumarno, Korban, Lebakharjo, Sukarni, Lina, Ngadilan</t>
         </is>
       </c>
       <c r="B71" t="n">
@@ -9858,7 +9858,7 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Reni, Bharada Richard Eliezer, Wahyu, Aji Febrianto, Ferdy Sambo, Ahli Psikologi Forensik Reni Kusumowardhani, Aji, Bripka Ricky Rizal, Yosua, Brigadir Yosua, Putri Candrawathi, Ferdy, Kuat</t>
+          <t>Aji Febrianto, Ferdy Sambo, Ahli Psikologi Forensik Reni Kusumowardhani, Brigadir Yosua, Reni, Yosua, Putri Candrawathi, Bripka Ricky Rizal, Bharada Richard Eliezer, Kuat, Ferdy, Wahyu, Aji</t>
         </is>
       </c>
       <c r="B72" t="n">
@@ -10026,7 +10026,7 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>BM, AT, Dewa, NM, Nyoman, MT, Korban, Kapolres Boltim AKBP Dewa Nyoman Agung, Dodap, MS</t>
+          <t>MS, BM, Nyoman, Korban, Kapolres Boltim AKBP Dewa Nyoman Agung, Dewa, NM, AT, Dodap, MT</t>
         </is>
       </c>
       <c r="B73" t="n">
@@ -10152,7 +10152,7 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>A, Korban, SMP, Dawud, Iptu Moch Dawud, Ipda Hepi Muslih Riza, Hepi</t>
+          <t>Iptu Moch Dawud, Dawud, Ipda Hepi Muslih Riza, Korban, A, Hepi, SMP</t>
         </is>
       </c>
       <c r="B74" t="n">
@@ -10282,7 +10282,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Wahyu, Putri, Ferdy Sambo, Brigadir Yosua Hutabarat, Wahyu Iman Santosa, Eliezer, Yosua, LPSK, Putri Candrawathi, Hakim, Ronny Talapessy, Kuat, Richard Eliezer</t>
+          <t>Ferdy Sambo, Richard Eliezer, Putri, LPSK, Hakim, Putri Candrawathi, Ricky Rizal, Yosua, Wahyu Iman Santosa, Kuat, Eliezer, Wahyu, Ronny Talapessy, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B75" t="n">
@@ -10398,7 +10398,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Hendra, Mantan, Irfan, Pak Jaksa, Yosua, Ferdy Sambo, Kompol Baiquni Wibowo, Paminal Propam Polri Hendra Kurniawan, Yanma, Yanma Polri, Polri, AKBP Arif Rachman Arifin, Brigjen Hendra Kurnia, CCTV, Kombes Agus Nurpatria Adi Purnama, KUHP, Brigadir Yosua, AKP Irfan Widyanto, Demosi, Yosua Hutabarat, Kompol Chuck Putranto</t>
+          <t>Brigadir Yosua, Yanma Polri, Yosua, Paminal Propam Polri Hendra Kurniawan, AKP Irfan Widyanto, Yosua Hutabarat, Demosi, Yanma, Hendra, Kompol Baiquni Wibowo, Brigjen Hendra Kurnia, Ferdy Sambo, Irfan, AKBP Arif Rachman Arifin, Mantan, CCTV, KUHP, Kombes Agus Nurpatria Adi Purnama, Polri, Pak Jaksa, Kompol Chuck Putranto</t>
         </is>
       </c>
       <c r="B76" t="n">
@@ -10554,7 +10554,7 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>WA, Ditsiber Polri, Jaksa, Eliezer, Komunikasi, Yosua, Richard Eliezer, Ricky Rizal, Bharada Richard Eliezer, Ferdy Sambo, WhatsApp Irjen Ferdy Sambo, WhatsApp, Pak, Cad, Adi, Putri Candrawathi, Sambo, Kuat, Richard, Brigadir Yosua Hutabarat, Adi Setya, Irjen Ferdy Sambo, Brigadir Yosua, Bapak Kapolri</t>
+          <t>Brigadir Yosua, Jaksa, Adi Setya, Yosua, Pak, Ditsiber Polri, WhatsApp Irjen Ferdy Sambo, Bharada Richard Eliezer, Kuat, Eliezer, Ferdy Sambo, Adi, Richard Eliezer, Richard, WhatsApp, Komunikasi, Sambo, Brigadir Yosua Hutabarat, Putri Candrawathi, WA, Bapak Kapolri, Ricky Rizal, Cad, Irjen Ferdy Sambo</t>
         </is>
       </c>
       <c r="B77" t="n">
@@ -10703,7 +10703,7 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Saudara, Brigadir N Yosua Hutabarat, Putri, Ferdy Sambo, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Putri Candrawathi, Hakim, Bharada Eliezer, Yosua</t>
+          <t>Saudara, Ferdy Sambo, Kadiv Propam Polri Ferdy Sambo, Bharada Eliezer, Putri, Hakim, Yosua, Brigadir N Yosua Hutabarat, Putri Candrawathi, Bripka Ricky Rizal</t>
         </is>
       </c>
       <c r="B78" t="n">
@@ -10823,7 +10823,7 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>AKBP Arif Rachman Arifin, CCTV, Irfan Widyanto, AKBP Ari Cahya, Acay, Hendra, Brigadir Yosua Hutabarat, Ferdy Sambo, Irfan, AKP Irfan Widyanto, Hakim, Brigadir Yosua, Kombes Agus, Pak Agus, Yosua</t>
+          <t>Irfan, Irfan Widyanto, AKBP Arif Rachman Arifin, Ferdy Sambo, Brigadir Yosua, CCTV, Hakim, AKBP Ari Cahya, AKP Irfan Widyanto, Yosua, Acay, Pak Agus, Kombes Agus, Hendra, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B79" t="n">
@@ -10968,7 +10968,7 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Yoga, Estik Dilla Rahmawati, PIN ATM, HP, ATM, Terdakwa, Alfredo, Ahmad, Dilla, PIN, Rencananya, Ahmad Hadanillah, Total, Yoga Agus Indrianto, Usai</t>
+          <t>PIN, Ahmad Hadanillah, Terdakwa, Yoga, Dilla, HP, Ahmad, Alfredo, PIN ATM, Rencananya, ATM, Total, Estik Dilla Rahmawati, Yoga Agus Indrianto, Usai</t>
         </is>
       </c>
       <c r="B80" t="n">
@@ -11109,7 +11109,7 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Saudara, Putri, Bripka Ricky, Wahyu Iman Santosa, Kadiv Propam Polri Ferdy Sambo, Putri Candrawathi, Bharada Eliezer, ADC, Kuat</t>
+          <t>Saudara, Kadiv Propam Polri Ferdy Sambo, Bharada Eliezer, Putri, Putri Candrawathi, Bripka Ricky, Kuat, Wahyu Iman Santosa, ADC</t>
         </is>
       </c>
       <c r="B81" t="n">
@@ -11232,7 +11232,7 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Santoso, CCTV, Kapolres, Satpol PP, Inafis, Pilkada, TKP, Wali, Korpri, AKBP Argowiyono</t>
+          <t>AKBP Argowiyono, CCTV, Inafis, Santoso, Satpol PP, TKP, Kapolres, Pilkada, Korpri, Wali</t>
         </is>
       </c>
       <c r="B82" t="n">
@@ -11398,7 +11398,7 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>D, Sartinah, Polisi, Sajarod, Mapolres, Plt Kapolresta, Rukun, Rumah Sartinah, AKBP Mochammad Sajarod Zakun</t>
+          <t>Plt Kapolresta, Rumah Sartinah, Sajarod, Polisi, Mapolres, Sartinah, AKBP Mochammad Sajarod Zakun, D, Rukun</t>
         </is>
       </c>
       <c r="B83" t="n">
@@ -11537,7 +11537,7 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Suwanto, CCTV, Efeknya, Percut Sei Tuan, Kanit Reskrim Polsek Percut Sei Tuan Iptu J Simamora, Polsek Percut Sei Tuan</t>
+          <t>Polsek Percut Sei Tuan, CCTV, Efeknya, Kanit Reskrim Polsek Percut Sei Tuan Iptu J Simamora, Percut Sei Tuan, Suwanto</t>
         </is>
       </c>
       <c r="B84" t="n">
@@ -11673,7 +11673,7 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>SMA, OH, Satreskrim Polres, Kasatreskrim Polres, Herli, Diaz, Korban A, GA, Agung, Humas Pengadilan Negeri, Perlindungan Anak, Kejaksaan Negeri, MAP, AKP Herli Kurniawan, Sumatera, A, Majelis Hakim Pengadilan Negeri, Hotman Paris</t>
+          <t>Kejaksaan Negeri, OH, Satreskrim Polres, Perlindungan Anak, SMA, Korban A, Sumatera, AKP Herli Kurniawan, A, Herli, MAP, Agung, Majelis Hakim Pengadilan Negeri, Humas Pengadilan Negeri, Diaz, Hotman Paris, GA, Kasatreskrim Polres</t>
         </is>
       </c>
       <c r="B85" t="n">
@@ -11826,7 +11826,7 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Pelaku, Zulpan, Kabid Humas Polda, Alfamart, Kombes Endra Zulpan</t>
+          <t>Kombes Endra Zulpan, Zulpan, Kabid Humas Polda, Alfamart, Pelaku</t>
         </is>
       </c>
       <c r="B86" t="n">
@@ -11946,7 +11946,7 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Pelaku, Jelambar, NC, A</t>
+          <t>Jelambar, A, NC, Pelaku</t>
         </is>
       </c>
       <c r="B87" t="n">
@@ -12056,7 +12056,7 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Iptu Suratno, Mapolsek Rasanae, Siti Hawa, Rontu, Suratno, Kapolsek Rasanae, KTP, Usai</t>
+          <t>Rontu, KTP, Mapolsek Rasanae, Iptu Suratno, Kapolsek Rasanae, Siti Hawa, Suratno, Usai</t>
         </is>
       </c>
       <c r="B88" t="n">
@@ -12172,7 +12172,7 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Mako Polres, Fredy, Kasat Reskrim Polres Mateng Iptu Fredy, Polisi, HP, Polres Mateng, Pria</t>
+          <t>Mako Polres, Polisi, Polres Mateng, Pria, Kasat Reskrim Polres Mateng Iptu Fredy, HP, Fredy</t>
         </is>
       </c>
       <c r="B89" t="n">
@@ -12296,7 +12296,7 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Fickar, Panglima TNI Jenderal Andika, Jenderal Andika, Universitas Trisakti Abdul Fickar Hadjar, Andika, Kostrad</t>
+          <t>Andika, Fickar, Kostrad, Universitas Trisakti Abdul Fickar Hadjar, Jenderal Andika, Panglima TNI Jenderal Andika</t>
         </is>
       </c>
       <c r="B90" t="n">
@@ -12431,7 +12431,7 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Kasat Reskrim Polrestabes, Pertamanan, Polisi, Bobby, Kompol Teuku Fathir Mustafa, Pemkot, Wali, Bobby Nasution, R</t>
+          <t>Pertamanan, Bobby Nasution, Polisi, Bobby, Kompol Teuku Fathir Mustafa, Pemkot, R, Kasat Reskrim Polrestabes, Wali</t>
         </is>
       </c>
       <c r="B91" t="n">
@@ -12544,7 +12544,7 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Hery, Bharada Richard Eliezer, Rini, Efendi Saragih, Ferdy Sambo, Wahyu Iman Santoso, Jaksa, Putri Candrawathi, PN Jaksel</t>
+          <t>Ferdy Sambo, Jaksa, Hery, Putri Candrawathi, Bharada Richard Eliezer, Efendi Saragih, Ricky Rizal, Rini, Wahyu Iman Santoso, PN Jaksel</t>
         </is>
       </c>
       <c r="B92" t="n">
@@ -12681,7 +12681,7 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Pelaku, CCTV, Kombes Pol Zain Dwi Nugroho, Polisi, RS, Zain, IS, NG, Karang</t>
+          <t>RS, Karang, IS, NG, Polisi, CCTV, Kombes Pol Zain Dwi Nugroho, Pelaku, Zain</t>
         </is>
       </c>
       <c r="B93" t="n">
@@ -12804,7 +12804,7 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Bapak, Bharada E, KUHP, Emosi, Ferdy Sambo, Putri, Brigadir Yosua Hutabarat, Eliezer, Bripka Ricky Rizal, Yosua, Brigadir, Sambo, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Brigadir Nopriansyah Yosua Hutabarat, Kuat</t>
+          <t>Brigadir, Brigadir Nopriansyah Yosua Hutabarat, Ferdy Sambo, Emosi, KUHP, Putri, Bharada E, Yosua, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Bripka Ricky Rizal, Kuat, Eliezer, Ricky Rizal, Sambo, Bapak, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B94" t="n">
@@ -12944,7 +12944,7 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Wahyu Imam Santoso, Ricky, Bharada Richard Eliezer, Bang, KUHP, Ferdy Sambo, Putri, Brigadir Yosua Hutabarat, KM, Eliezer, Putri Candrawathi, Kuat, Yosua</t>
+          <t>Ricky, Ferdy Sambo, Bang, KUHP, Putri, Yosua, Putri Candrawathi, KM, Bharada Richard Eliezer, Kuat, Eliezer, Wahyu Imam Santoso, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B95" t="n">
@@ -13070,7 +13070,7 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Reni, Kompol Agus Siswo Hariadi, Agus Siswo, Polsek, Danau Tondano, Gadingkasri, Google News, Doddy Goesto Permana, ATM, Lesanpuro, Korban, Kapolsek</t>
+          <t>Kapolsek, Doddy Goesto Permana, Gadingkasri, Reni, Agus Siswo, Korban, Polsek, Google News, Danau Tondano, ATM, Lesanpuro, Kompol Agus Siswo Hariadi</t>
         </is>
       </c>
       <c r="B96" t="n">
@@ -13200,7 +13200,7 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Pasalnya, Dedi, Divisi Humas Polri Irjen Dedi Prasetyo, Richard Eliezer, Ricky Rizal, Brigadir Nofriansyah Yosua Hutabarat, Ferdy Sambo, Brigadir J, Brigadir, Sambo, Hery Priyanto, Putri Candrawathi, Polri, Kuat, Mustofa, Jaksa Penuntut Umum, Timsus, Nofriansyah Yosua Hutabarat, Muhammad Mustofa</t>
+          <t>Pasalnya, Hery Priyanto, Dedi, Nofriansyah Yosua Hutabarat, Brigadir, Brigadir J, Divisi Humas Polri Irjen Dedi Prasetyo, Kuat, Mustofa, Ferdy Sambo, Richard Eliezer, Jaksa Penuntut Umum, Sambo, Polri, Brigadir Nofriansyah Yosua Hutabarat, Putri Candrawathi, Timsus, Muhammad Mustofa, Ricky Rizal</t>
         </is>
       </c>
       <c r="B97" t="n">
@@ -13352,7 +13352,7 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Mayor BFH, Dugaan Awal Pemerkosaan Jenderal Andika, Jenderal Andika, Andika, Panglima TNI Jenderal Andika Perkasa</t>
+          <t>Andika, Mayor BFH, Jenderal Andika, Panglima TNI Jenderal Andika Perkasa, Dugaan Awal Pemerkosaan Jenderal Andika</t>
         </is>
       </c>
       <c r="B98" t="n">
@@ -13479,7 +13479,7 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, Irwan Irawan, Alimin Ribut Sujono, Pihak Kuat, KUHP, Majelis Hakim Wahyu Iman Santoso, Irwan, Putri Candrawathi, Dilansir, Brigadir Nopriansyah Yosua Hutabarat, KY, Kuat</t>
+          <t>Dilansir, Majelis Hakim Wahyu Iman Santoso, Pihak Kuat, Alimin Ribut Sujono, KUHP, Putri Candrawathi, KY, Bharada Richard Eliezer, Kuat, Brigadir Nopriansyah Yosua Hutabarat, Irwan Irawan, Irwan</t>
         </is>
       </c>
       <c r="B99" t="n">
@@ -13598,7 +13598,7 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Pelaku, Tatar, SG, Korban, Demangan</t>
+          <t>SG, Korban, Pelaku, Demangan, Tatar</t>
         </is>
       </c>
       <c r="B100" t="n">
@@ -13710,7 +13710,7 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Divisi Hubungan Internasional Polri, Indonesia, Interpol, Khrisna, Jaringan Interpol, Kerjasama, Krishna, Khrisna Murti, Hilmar, Purple Notices, Stolen Works, Ditjen Kebudayaan Kemendikbud Ristek, Teknologi</t>
+          <t>Divisi Hubungan Internasional Polri, Teknologi, Stolen Works, Indonesia, Khrisna Murti, Khrisna, Krishna, Kerjasama, Jaringan Interpol, Interpol, Purple Notices, Hilmar, Ditjen Kebudayaan Kemendikbud Ristek</t>
         </is>
       </c>
       <c r="B101" t="n">
@@ -13764,7 +13764,7 @@
       </c>
       <c r="O101" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P101" t="n">
@@ -13843,7 +13843,7 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>FP, Polres Jaksel, YA, Balita Grace, Grace, Beri Nafkah SS, SS</t>
+          <t>Grace, YA, SS, Balita Grace, FP, Beri Nafkah SS, Polres Jaksel</t>
         </is>
       </c>
       <c r="B102" t="n">
@@ -13990,7 +13990,7 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>Kesiman, Iptu I Ketut Sukadi, Gede, Wayan Sudanta, BPBD, Sukerti, Pura, Rumah Sakit, Made Sukerti, AKP Eddy, Kaget, KS, Polresta, Aipda I Gusti Sujaya, Sukadi</t>
+          <t>Made Sukerti, Pura, Gede, Kaget, AKP Eddy, Polresta, Wayan Sudanta, Sukerti, Sukadi, Kesiman, KS, BPBD, Aipda I Gusti Sujaya, Rumah Sakit, Iptu I Ketut Sukadi</t>
         </is>
       </c>
       <c r="B103" t="n">
@@ -14121,7 +14121,7 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Mahrus Ali, Brigadir N Yosua Hutabarat, Ferdy Sambo, Putri, Nah, Saksi Pelaku, Mahrus, LPSK, Korban, Febri, Febri Diansyah, Saudara Ahli</t>
+          <t>Ferdy Sambo, Nah, Saudara Ahli, Putri, Febri Diansyah, Korban, Brigadir N Yosua Hutabarat, LPSK, Mahrus Ali, Saksi Pelaku, Febri, Mahrus</t>
         </is>
       </c>
       <c r="B104" t="n">
@@ -14282,7 +14282,7 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Santoso, Kapolres, Satpol PP, TKP, Pak Wali, Wali, Argo, AKBP Argowiyono</t>
+          <t>AKBP Argowiyono, Pak Wali, Santoso, Argo, Satpol PP, Kapolres, TKP, Wali</t>
         </is>
       </c>
       <c r="B105" t="n">
@@ -14395,7 +14395,7 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Gua Gunung Randa, Takut, Sari, Erik Krisna Yudha, Budayawan, Belanda, Gua Randa, Bundaran Marlin, Goa Randa, Masawah, Kepala, Pantai Madasari, Ukan, Mawasah Ukan</t>
+          <t>Masawah, Takut, Budayawan, Gua Gunung Randa, Bundaran Marlin, Kepala, Mawasah Ukan, Erik Krisna Yudha, Pantai Madasari, Sari, Gua Randa, Goa Randa, Ukan, Belanda</t>
         </is>
       </c>
       <c r="B106" t="n">
@@ -14528,7 +14528,7 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Richard, Bharada E, Rutan Bareskrim Polri, Pengacara Bharada E, Rutan Bareskrim, KUHP, Brigadir Yosua Hutabarat, Ricky Rizal Wibowo, Ronny Talapessy, Ronny, Kuat, Richard Eliezer</t>
+          <t>Rutan Bareskrim, Richard Eliezer, KUHP, Pengacara Bharada E, Bharada E, Richard, Ricky Rizal Wibowo, Rutan Bareskrim Polri, Kuat, Ronny Talapessy, Ronny, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B107" t="n">
@@ -14650,7 +14650,7 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Kasatreskrim Polres, Satreskrim Polres, Tim Jatanras Satuan Reskrim Polres, Ridwan, FJ, Penangkapan, AKP Ridwan, SA, Aipda Marianus Demon Hada</t>
+          <t>FJ, Satreskrim Polres, Penangkapan, Ridwan, AKP Ridwan, SA, Aipda Marianus Demon Hada, Tim Jatanras Satuan Reskrim Polres, Kasatreskrim Polres</t>
         </is>
       </c>
       <c r="B108" t="n">
@@ -14775,7 +14775,7 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Chandra, Pelaku, Panglima TNI Jenderal Andika, Danpuspomad Letjen Chandra W Sukotjo, Mako Paspampres, Mayor Paspampres, Panglima TNI, KTT G20, Paspampres, Mabes TNI, Andika, Polri</t>
+          <t>Danpuspomad Letjen Chandra W Sukotjo, Andika, Mayor Paspampres, Panglima TNI Jenderal Andika, Panglima TNI, Chandra, KTT G20, Pelaku, Mako Paspampres, Paspampres, Mabes TNI, Polri</t>
         </is>
       </c>
       <c r="B109" t="n">
@@ -14912,7 +14912,7 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Mejan, Kasatreskrim Polres, Junior, Mary QC, James P, James, AKP Putu Ika Prabawa, Filipina, Canggu, Mary CQ, BJC</t>
+          <t>Junior, BJC, James, Mary QC, Mary CQ, James P, Filipina, Canggu, Mejan, AKP Putu Ika Prabawa, Kasatreskrim Polres</t>
         </is>
       </c>
       <c r="B110" t="n">
@@ -15027,7 +15027,7 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>AKBP M Lukman Syarif, Coba Hilangkan Jejak Kapolres, Kapolres, Ismail, Nyaris Bunuh Kakak Kandung Tindakan, Emosi, Lukman, Fatma, Polres, Tado, Diminta, TKP, AKBP M, Murtado, Pembunuhan Pantauan, Lukman Syarif</t>
+          <t>Murtado, Coba Hilangkan Jejak Kapolres, Nyaris Bunuh Kakak Kandung Tindakan, AKBP M, Lukman Syarif, Emosi, AKBP M Lukman Syarif, Lukman, Tado, Pembunuhan Pantauan, Kapolres, Polres, Diminta, Ismail, Fatma, TKP</t>
         </is>
       </c>
       <c r="B111" t="n">
@@ -15226,7 +15226,7 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Polisi, AKP Ari Rinaldo, Korban, SMP, Ari</t>
+          <t>Polisi, Korban, Ari, SMP, AKP Ari Rinaldo</t>
         </is>
       </c>
       <c r="B112" t="n">
@@ -15335,7 +15335,7 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Kasatreskrim Polresta Solo, Keputren, Putri Keraton Solo, Sapto Dumadi Ragil, GRAy Devi Lelyana Dewi, Devi, Djohan Andika, Gusti Devi, Kompol Djohan Andika</t>
+          <t>Djohan Andika, GRAy Devi Lelyana Dewi, Kompol Djohan Andika, Sapto Dumadi Ragil, Devi, Kasatreskrim Polresta Solo, Gusti Devi, Keputren, Putri Keraton Solo</t>
         </is>
       </c>
       <c r="B113" t="n">
@@ -15483,7 +15483,7 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Kombes Zain Dwi Nugroho, Kapolres, Perum, Polisi, Dugaan Elis, Elis, Elis Sugiarti, Korban, Zain, Rempoa Indah, Honda HRV, Pergi</t>
+          <t>Zain, Polisi, Elis Sugiarti, Korban, Rempoa Indah, Elis, Honda HRV, Perum, Dugaan Elis, Kapolres, Kombes Zain Dwi Nugroho, Pergi</t>
         </is>
       </c>
       <c r="B114" t="n">
@@ -15618,7 +15618,7 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Mundirin, Pas, Munjirin, Jehan, Motor, Masjid</t>
+          <t>Masjid, Mundirin, Pas, Motor, Jehan, Munjirin</t>
         </is>
       </c>
       <c r="B115" t="n">
@@ -15733,7 +15733,7 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Santoso, CCTV, Kapolres, Rumah Dinas Wali, Feti, Polisi, Indonesia, Kabid Humas Polda, Kombes Dirmanto, Saksi, Sat Reskrim Polres, Wali, AKBP Argowiyono</t>
+          <t>AKBP Argowiyono, Polisi, Saksi, CCTV, Indonesia, Kabid Humas Polda, Sat Reskrim Polres, Santoso, Kapolres, Feti, Kombes Dirmanto, Rumah Dinas Wali, Wali</t>
         </is>
       </c>
       <c r="B116" t="n">
@@ -15880,7 +15880,7 @@
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>CCTV, Polda Sumatera, Deli Serdang, Percut Sei Tuan, Gunawan, Kanit Reskrim Polsek Percut Sei Tuan Iptu J Simamora</t>
+          <t>Deli Serdang, CCTV, Polda Sumatera, Gunawan, Kanit Reskrim Polsek Percut Sei Tuan Iptu J Simamora, Percut Sei Tuan</t>
         </is>
       </c>
       <c r="B117" t="n">
@@ -16001,7 +16001,7 @@
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>Pelaku, Mojoruntut, Rudi, EK, Kusumo</t>
+          <t>Kusumo, Mojoruntut, Rudi, Pelaku, EK</t>
         </is>
       </c>
       <c r="B118" t="n">
@@ -16128,7 +16128,7 @@
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, Mabes Polri, Putri, Bripka Ricky Rizal, Polri, Yosua</t>
+          <t>Putri, Yosua, Bripka Ricky Rizal, Bharada Richard Eliezer, Mabes Polri, Polri</t>
         </is>
       </c>
       <c r="B119" t="n">
@@ -16260,7 +16260,7 @@
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>Polri, Indra, Tragedi Kanjuruhan, Indra Bogel, Aremana, TGIPF, Aksi, Aremania</t>
+          <t>TGIPF, Indra, Aksi, Aremana, Aremania, Polri, Indra Bogel, Tragedi Kanjuruhan</t>
         </is>
       </c>
       <c r="B120" t="n">
@@ -16385,7 +16385,7 @@
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>Pelaku, Irrine, Klapanunggal, HP, Polisi, M, Korban, TKP, Tegar Beriman</t>
+          <t>Polisi, Tegar Beriman, HP, Korban, Klapanunggal, Irrine, Pelaku, M, TKP</t>
         </is>
       </c>
       <c r="B121" t="n">
@@ -16514,7 +16514,7 @@
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>CCTV, Kompol Ardhie Demastyo, Kompol Ardhie, Duri, Iya, Kapolsek, Joker, Ardhie</t>
+          <t>Kapolsek, CCTV, Kompol Ardhie, Joker, Iya, Kompol Ardhie Demastyo, Duri, Ardhie</t>
         </is>
       </c>
       <c r="B122" t="n">
@@ -16638,7 +16638,7 @@
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>CCTV, Saudara, Brigadir N Yosua Hutabarat, Chuck, Baiquni, Propam, AKP Irfan Widyanto, Hakim, Chuck Putranto, Baiquni Wibowo</t>
+          <t>Saudara, Baiquni, CCTV, Baiquni Wibowo, Hakim, AKP Irfan Widyanto, Brigadir N Yosua Hutabarat, Chuck, Propam, Chuck Putranto</t>
         </is>
       </c>
       <c r="B123" t="n">
@@ -16779,7 +16779,7 @@
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>FA, Pengeroyokannya, Polres, Kasman, Kasman Sangaji, Polda</t>
+          <t>Kasman, Kasman Sangaji, Pengeroyokannya, Polda, Polres, FA</t>
         </is>
       </c>
       <c r="B124" t="n">
@@ -16902,7 +16902,7 @@
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>Kata Totok, Dirreskrimum Polda, Totok, Saksi, Wali, Kombes Totok Suharianto, Ipda Ludfi</t>
+          <t>Saksi, Totok, Dirreskrimum Polda, Kata Totok, Ipda Ludfi, Kombes Totok Suharianto, Wali</t>
         </is>
       </c>
       <c r="B125" t="n">
@@ -17025,7 +17025,7 @@
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>Dani, Keraton Kasunanan Solo, KP Dani Nur Adiningrat, Dewan Adat, Baluwarti, Agung Susilo Muslich, Wakil Pengageng Sasono Wilopo Keraton Kasunanan Solo, Korban, Susilo, STTLP, Polresta Solo, Mapolresta Solo, Kanjeng Dani, Polresta, POLDA</t>
+          <t>STTLP, Dewan Adat, Baluwarti, Korban, POLDA, Polresta Solo, Agung Susilo Muslich, Polresta, KP Dani Nur Adiningrat, Keraton Kasunanan Solo, Wakil Pengageng Sasono Wilopo Keraton Kasunanan Solo, Mapolresta Solo, Dani, Kanjeng Dani, Susilo</t>
         </is>
       </c>
       <c r="B126" t="n">
@@ -17161,7 +17161,7 @@
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>Zain Dwi Nugroho, Rolex, Rumah Sakit Umum Daerah, Indonesia, Tersangka, Solo, WN Sri Lanka Diancam Hukuman Mati Tersangka SRH, Polres, SRH, Jurang Mangu, Elis, Elis Sugiarti, Zain, Pondok Aren, Sungai Cisadane, AM, Usai, Daan Mogot</t>
+          <t>Rumah Sakit Umum Daerah, Indonesia, WN Sri Lanka Diancam Hukuman Mati Tersangka SRH, SRH, Elis Sugiarti, Sungai Cisadane, Usai, Elis, Zain Dwi Nugroho, Tersangka, Jurang Mangu, Daan Mogot, Solo, Zain, Polres, AM, Rolex, Pondok Aren</t>
         </is>
       </c>
       <c r="B127" t="n">
@@ -17315,7 +17315,7 @@
       </c>
       <c r="G128" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>10/12/2022</t>
         </is>
       </c>
       <c r="H128" t="n">
@@ -17390,7 +17390,7 @@
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>Santoso, Pelaku, CCTV, Plt Kepala Satpol PP, Dinas, Kapolres, Dinas Wali, Rumah Dinas Wali, Ronny Yosa Pasalbessy, Satpol PP, Feti Wulandari, TKP, Wali, Argo, Argowiyono, AKBP Argowiyono</t>
+          <t>AKBP Argowiyono, Dinas, Dinas Wali, Ronny Yosa Pasalbessy, CCTV, Feti Wulandari, Santoso, Pelaku, Argowiyono, Kapolres, Satpol PP, Argo, TKP, Plt Kepala Satpol PP, Rumah Dinas Wali, Wali</t>
         </is>
       </c>
       <c r="B129" t="n">
@@ -17655,7 +17655,7 @@
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>Jl Ampera, Eliezer, Richard Eliezer, Ricky Rizal, Ferdy Sambo, Brigadir, Brigadir Nopriansyah Yosua Hutabarat, Paminal, RS, Sambo, TKP, Putri Candrawathi, Kasat, Kuat, Saudara, CCTV, Provos Propam Polri, KUHP, Provos</t>
+          <t>RS, Paminal, Brigadir Nopriansyah Yosua Hutabarat, Jl Ampera, Brigadir, Provos, Kuat, Eliezer, TKP, Saudara, Ferdy Sambo, Richard Eliezer, CCTV, KUHP, Provos Propam Polri, Sambo, Putri Candrawathi, Kasat, Ricky Rizal</t>
         </is>
       </c>
       <c r="B131" t="n">
@@ -17792,7 +17792,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Way Serdang, Satreskrim Polres, Jatanras Polda, Kepolisian, ACU, Dirreskrimum Polda, Tulang, Brigjen Djuhandani Rahardjo Puro, Kluwih, DS, Penawar Lama, Djuhandhani</t>
+          <t>Kluwih, Satreskrim Polres, Way Serdang, Dirreskrimum Polda, Jatanras Polda, Penawar Lama, Brigjen Djuhandani Rahardjo Puro, Kepolisian, DS, Tulang, ACU, Djuhandhani</t>
         </is>
       </c>
       <c r="B132" t="n">
@@ -17920,7 +17920,7 @@
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>Richard, Utah ZCT, Bharada Richard Eliezer, Putri, Agung, Asosiasi Poligraf Indonesia Agung Prasetya, Aji Febriyanto, Bripka Ricky Rizal, Aji, Brigadir, Putri Candrawathi, Sambo, Nofriansyah Yosua Hutabarat, Minus, Kuat</t>
+          <t>Brigadir, Minus, Utah ZCT, Putri, Richard, Putri Candrawathi, Bripka Ricky Rizal, Aji Febriyanto, Agung, Asosiasi Poligraf Indonesia Agung Prasetya, Bharada Richard Eliezer, Kuat, Sambo, Aji, Nofriansyah Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B133" t="n">
@@ -18053,7 +18053,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>Tragedi, Yayuk, Kombes Pol Ary Fadli, Sungai, Loah Buah, NF, Kapolresta, Gang Gunung Putri, SA, Justan</t>
+          <t>Yayuk, Gang Gunung Putri, NF, SA, Loah Buah, Justan, Tragedi, Kombes Pol Ary Fadli, Sungai, Kapolresta</t>
         </is>
       </c>
       <c r="B134" t="n">
@@ -18192,7 +18192,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>Pelaku, Budi, AD, Polri, SY, RM, SH, BD, MI, AK, Biddokes Polda, Aipda Andre Wibisono, Rindang Banua, Rumah Sakit Bhayangkara Palangkaraya, DPO, TE, Menangai</t>
+          <t>Aipda Andre Wibisono, SH, DPO, Rumah Sakit Bhayangkara Palangkaraya, BD, RM, Menangai, TE, MI, Rindang Banua, Pelaku, Budi, Biddokes Polda, AD, Polri, AK, SY</t>
         </is>
       </c>
       <c r="B135" t="n">
@@ -18323,7 +18323,7 @@
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Richard, Kuwat Maruf, Irwan Irawan, Pembunuhan Berencana Yosua Eliezer, Pengacara Bharada E, Eliezer, Bripka Ricky Rizal, Yosua, Putri Candrawathi, Bripka Ricky Rizal Didakwa, Bharada Richard Eliezer Pudihang Lumiu, Ronny Talapessy, Brigadir Nopriansyah Yosua Hutabarat, Ronny, Kuat</t>
+          <t>Brigadir Nopriansyah Yosua Hutabarat, Pembunuhan Berencana Yosua Eliezer, Kuwat Maruf, Pengacara Bharada E, Richard, Yosua, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Bripka Ricky Rizal, Bripka Ricky Rizal Didakwa, Kuat, Eliezer, Ricky Rizal, Ronny Talapessy, Irwan Irawan, Ronny</t>
         </is>
       </c>
       <c r="B136" t="n">
@@ -18442,7 +18442,7 @@
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>Pelaku, Kapolres, Polisi, Ibunya, Edwin, Mapolsek, AKBP Edwin, S</t>
+          <t>Polisi, Edwin, S, AKBP Edwin, Pelaku, Kapolres, Mapolsek, Ibunya</t>
         </is>
       </c>
       <c r="B137" t="n">
@@ -18564,7 +18564,7 @@
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>Polisi, Kasat Reskrim Polres, Iptu Aldino Prima Wirdan, Aldino, Eko Bayu Asmoro</t>
+          <t>Polisi, Aldino, Iptu Aldino Prima Wirdan, Eko Bayu Asmoro, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B138" t="n">
@@ -18678,7 +18678,7 @@
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>Saudara, KUHP, Kombes Susanto Haris, Brigadir N Yosua Hutabarat, Ferdy Sambo, Brigadir Yosua Hutabarat, Wahyu Iman Santoso, Yosua, Ricky Rizal Wibowo, Sambo, Putri Candrawathi, Kuat, Susanto</t>
+          <t>Saudara, Ferdy Sambo, KUHP, Susanto, Kombes Susanto Haris, Brigadir N Yosua Hutabarat, Putri Candrawathi, Ricky Rizal Wibowo, Yosua, Kuat, Sambo, Wahyu Iman Santoso, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B139" t="n">
@@ -18813,7 +18813,7 @@
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>Ferdy Sambo, Syarifah, Pengadilan Negeri, Sambo, PN, Saya Syarifah Ima Syahab</t>
+          <t>Ferdy Sambo, Syarifah, PN, Saya Syarifah Ima Syahab, Sambo, Pengadilan Negeri</t>
         </is>
       </c>
       <c r="B140" t="n">
@@ -18935,7 +18935,7 @@
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>Wanto, Cindy, Manukan, Majelis Hakim, I Gusti Ngurah Putra Atmaja, Vera</t>
+          <t>Manukan, Vera, Wanto, I Gusti Ngurah Putra Atmaja, Majelis Hakim, Cindy</t>
         </is>
       </c>
       <c r="B141" t="n">
@@ -19064,7 +19064,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>Koh Erben, Martin Lukas, Brigadir N Yosua Hutabarat, PC, Martin, Eliezer, Panggil Erben, Erben, Sambo, BAP, Yosua, Pihak Ferdy Sambo, Arman Hanis, Richard Eliezer</t>
+          <t>BAP, Koh Erben, PC, Arman Hanis, Richard Eliezer, Martin, Pihak Ferdy Sambo, Brigadir N Yosua Hutabarat, Yosua, Martin Lukas, Panggil Erben, Eliezer, Sambo, Erben</t>
         </is>
       </c>
       <c r="B142" t="n">
@@ -19187,7 +19187,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>Ketua Majelis Hakim Wahyu Iman Santoso, Brigadir N Yosua Hutabarat, Pak Kabag, Santo, Pak Ferdy, Ferdy Sambo, Chuck Putranto, Bagian Penegakan Hukum Provos Polri, Paminal, Bang, FS, Kata Susanto, Sambo, Putri Candrawathi, PN Jaksel, Susanto, Saudara, Divpropam Polri, Bang Santo</t>
+          <t>Paminal, Divpropam Polri, Santo, Brigadir N Yosua Hutabarat, Chuck Putranto, Kata Susanto, Ketua Majelis Hakim Wahyu Iman Santoso, Saudara, Bang, Ferdy Sambo, Pak Kabag, Pak Ferdy, Sambo, FS, Susanto, Putri Candrawathi, Bagian Penegakan Hukum Provos Polri, Bang Santo, PN Jaksel</t>
         </is>
       </c>
       <c r="B143" t="n">
@@ -19346,7 +19346,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>Dek Susi, HUT Bhayangkara, Richard, Kuat, Terus Dek Yosua, Putri, Bripka Ricky Rizal, Kadiv Propam Polri Ferdy Sambo, Dek Yosua, Putri Candrawathi, Hakim, Dek Daden, Yosua</t>
+          <t>Terus Dek Yosua, Dek Susi, Dek Daden, Dek Yosua, Kadiv Propam Polri Ferdy Sambo, Putri, Hakim, Yosua, Putri Candrawathi, HUT Bhayangkara, Richard, Bripka Ricky Rizal, Kuat</t>
         </is>
       </c>
       <c r="B144" t="n">
@@ -19468,7 +19468,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Richard, Brigadir Nofriansyah Yosua Hutabarat, Kuat Maruf, Khusus Sambo, Inafis Eko Wahyu, Ferdy Sambo, Inafis, Adi Setya, Ricky Riza, Brigadir J, Yosua, Kadiv Propam, Sambo, Putri Candrawathi, Ronny Talapessy, Kuat, Richard Eliezer</t>
+          <t>Ferdy Sambo, Brigadir J, Inafis Eko Wahyu, Brigadir Nofriansyah Yosua Hutabarat, Richard Eliezer, Ricky Riza, Richard, Adi Setya, Yosua, Putri Candrawathi, Sambo, Khusus Sambo, Inafis, Kadiv Propam, Kuat, Ricky Rizal, Ronny Talapessy, Kuat Maruf</t>
         </is>
       </c>
       <c r="B145" t="n">
@@ -19645,7 +19645,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>AKP Lufthi Darmawan Aditya, Oelpuah, Kabid Propam Polda NTT, Eddy Hasibuan, Kasat Reskrim Polres, Elkana Konis, Polri, Pelanggaran HAM, Kabid Propam Polda NTT Kombes Pol Dominicus Yampormase, WhatsApp, AKP Lufthi, Forensik RS Bhayangkara</t>
+          <t>Eddy Hasibuan, Kabid Propam Polda NTT, Kabid Propam Polda NTT Kombes Pol Dominicus Yampormase, Elkana Konis, AKP Lufthi, WhatsApp, Pelanggaran HAM, AKP Lufthi Darmawan Aditya, Forensik RS Bhayangkara, Polri, Oelpuah, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B146" t="n">
@@ -19791,7 +19791,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>AS, Kasat Reskrim Polresta, EK, RS, AKP Tiksnarto Andaru Rahutomo, TKP, Dilansir, Andaru, Vina</t>
+          <t>Andaru, RS, Dilansir, AKP Tiksnarto Andaru Rahutomo, Kasat Reskrim Polresta, EK, Vina, AS, TKP</t>
         </is>
       </c>
       <c r="B147" t="n">
@@ -19907,7 +19907,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>Jaksel, Saudara, Bharada E, FS, Putri, Pak FS, Eliezer, Brigadir J, Brigadir, Putri Candrawathi, Sambo, Hakim</t>
+          <t>Brigadir, Saudara, Brigadir J, FS, Putri, Bharada E, Jaksel, Putri Candrawathi, Pak FS, Hakim, Eliezer, Sambo</t>
         </is>
       </c>
       <c r="B148" t="n">
@@ -20038,7 +20038,7 @@
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>Brigadir Nofriansyah Yosua Hutabarat, Pengamanan Polri, Jl Ampera, Ferdy Sambo, Pasar, Pembinaan Profesi Divisi Propam Polri, Chuck Putranto, Bagian Penegakan Hukum Provos Polri</t>
+          <t>Jl Ampera, Ferdy Sambo, Brigadir Nofriansyah Yosua Hutabarat, Pengamanan Polri, Bagian Penegakan Hukum Provos Polri, Pasar, Chuck Putranto, Pembinaan Profesi Divisi Propam Polri</t>
         </is>
       </c>
       <c r="B149" t="n">
@@ -20149,7 +20149,7 @@
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>Bharada E, Bharada Richard Eliezer, Susi, Ferdy Sambo, Putri, Brigadir Yosua Hutabarat, Eliezer, Yosua, Yos, Putri Candrawathi, Wahyu Imam Santoso, Kuat</t>
+          <t>Ferdy Sambo, Putri, Bharada E, Yosua, Putri Candrawathi, Susi, Bharada Richard Eliezer, Kuat, Eliezer, Wahyu Imam Santoso, Yos, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B150" t="n">
@@ -20288,7 +20288,7 @@
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>Arif, Kombes Budhi Herdi Susianto, Kadiv Propam Ferdy Sambo, Yosua, AKBP Ridwan R Soplanit, Bharada Richard Eliezer, Ridwan, Kompol Baiquni Wibowo, Hakim, Bang, TV, AKBP Arif Rahman Arifin, Chuck, Baiquni, RS Polri, Kuat, CCTV, Brigadir Yosua Hutabarat, Brigadir Yosua, Budhi</t>
+          <t>Arif, Brigadir Yosua, Baiquni, Hakim, Yosua, TV, AKBP Ridwan R Soplanit, AKBP Arif Rahman Arifin, Bharada Richard Eliezer, Kuat, Kadiv Propam Ferdy Sambo, Kompol Baiquni Wibowo, Bang, Kombes Budhi Herdi Susianto, CCTV, RS Polri, Budhi, Brigadir Yosua Hutabarat, Chuck, Ridwan</t>
         </is>
       </c>
       <c r="B151" t="n">
@@ -20427,7 +20427,7 @@
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>Pagesangan, ALK, IRV, Dit Reskrimum Polda NTB, Kombes Teddy Rustiawan, Teddy</t>
+          <t>Teddy, IRV, Dit Reskrimum Polda NTB, Kombes Teddy Rustiawan, ALK, Pagesangan</t>
         </is>
       </c>
       <c r="B152" t="n">
@@ -20554,7 +20554,7 @@
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>RTK, Polisi, IJZ, TKP, Australia, POLDA, Sukadi</t>
+          <t>IJZ, Polisi, RTK, POLDA, Australia, Sukadi, TKP</t>
         </is>
       </c>
       <c r="B153" t="n">
@@ -20666,7 +20666,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>Sunter, Pelaku, Zulpan, Kabid Humas Polda, Penyidik, Kombes Endra Zulpan</t>
+          <t>Kombes Endra Zulpan, Zulpan, Kabid Humas Polda, Sunter, Penyidik, Pelaku</t>
         </is>
       </c>
       <c r="B154" t="n">
@@ -20792,7 +20792,7 @@
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>Kuasa Hukum Hasnaeni, Bryan Gautama, Wanita, Hasyim, Farhat Abbas, DKPP, KPU RI Hasyim, Farhat, Redaksi, Hasnaeni</t>
+          <t>Wanita, Farhat, Kuasa Hukum Hasnaeni, Hasnaeni, Redaksi, KPU RI Hasyim, Bryan Gautama, Farhat Abbas, Hasyim, DKPP</t>
         </is>
       </c>
       <c r="B155" t="n">
@@ -20922,7 +20922,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>WhatsAppnya, Farhat Abbas, Saya Hasnaeni, KPU RI Hasyim, KPU Hasyim Asyari, KPU RI, Hasyim Asyari, Hasnaeni</t>
+          <t>Saya Hasnaeni, KPU RI, Hasnaeni, Hasyim Asyari, WhatsAppnya, KPU RI Hasyim, Farhat Abbas, KPU Hasyim Asyari</t>
         </is>
       </c>
       <c r="B156" t="n">
@@ -21052,7 +21052,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>Brigadir Yoshua Hutabarat, Putri Candrawathi</t>
+          <t>Putri Candrawathi, Brigadir Yoshua Hutabarat</t>
         </is>
       </c>
       <c r="B157" t="n">
@@ -21074,7 +21074,7 @@
       </c>
       <c r="G157" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>12/12/2022</t>
         </is>
       </c>
       <c r="H157" t="n">
@@ -21149,7 +21149,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Bharada Richard Eliezer, Susi, Ricky, KUHP, Ferdy Sambo, Brigadir J, Bripka Ricky Rizal, Yosua, Steyr, Sambo, Putri Candrawathi, Hakim, Keanehan, Kuat</t>
+          <t>Steyr, Ricky, Ferdy Sambo, Brigadir J, Keanehan, KUHP, Susi, Hakim, Yosua, Putri Candrawathi, Bripka Ricky Rizal, Bharada Richard Eliezer, Kuat, Ricky Rizal, Sambo</t>
         </is>
       </c>
       <c r="B158" t="n">
@@ -21277,7 +21277,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>Polsek Bantar, Pelaku EL, Kabid Humas Polda, Tim, Polda, Dian Ardiansyah, Pelaku, Hengki Haryadi, Polisi, Olah TKP, Resmob, Dian, Tambun, Zulpan, Direktur Reserse Kriminal Umum Polda, TKP, A, Kombes Hengki Haryadi, RS Bhayangkara, EL, Kombes Pol Hengki Haryadi, Hengki, Kombes Endra Zulpan, MEL</t>
+          <t>Pelaku EL, Direktur Reserse Kriminal Umum Polda, Kombes Hengki Haryadi, Kombes Pol Hengki Haryadi, Polda, MEL, RS Bhayangkara, Tambun, Tim, A, Resmob, TKP, EL, Polsek Bantar, Pelaku, Hengki, Olah TKP, Dian Ardiansyah, Polisi, Kombes Endra Zulpan, Zulpan, Kabid Humas Polda, Hengki Haryadi, Dian</t>
         </is>
       </c>
       <c r="B159" t="n">
@@ -21507,7 +21507,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>Satreskrim Polres, Fadli Nurfadillah, Polisi, Neng Eci, Fadli, Kertas, Vonis</t>
+          <t>Neng Eci, Fadli, Satreskrim Polres, Polisi, Kertas, Fadli Nurfadillah, Vonis</t>
         </is>
       </c>
       <c r="B160" t="n">
@@ -21638,7 +21638,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>Kasat Reskrim Polres Pelabuhan Belawan AKP Rudi Sahputra, Polres Pelabuhan Belawan, Polisi, Rudi, Pertamina</t>
+          <t>Polisi, Rudi, Kasat Reskrim Polres Pelabuhan Belawan AKP Rudi Sahputra, Pertamina, Polres Pelabuhan Belawan</t>
         </is>
       </c>
       <c r="B161" t="n">
@@ -21753,7 +21753,7 @@
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, KUHP, Brigadir N Yosua Hutabarat, Elwi, Ferdy Sambo, Rasamala Aritonang, Brigadir Yosua Hutabarat, JC, Ricky Rizal Wibowo, Sambo, Brigadir Yosua, Elwi Danil, Putri Candrawathi, Khusus Ferdy Sambo, Unand, Kuat, Yosua</t>
+          <t>Khusus Ferdy Sambo, Ferdy Sambo, Elwi, Brigadir Yosua, KUHP, Yosua, Brigadir N Yosua Hutabarat, Unand, Putri Candrawathi, Rasamala Aritonang, JC, Ricky Rizal Wibowo, Bharada Richard Eliezer, Kuat, Sambo, Brigadir Yosua Hutabarat, Elwi Danil</t>
         </is>
       </c>
       <c r="B162" t="n">
@@ -21883,7 +21883,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>Pelaku, I, Purwokerto, Terminal Bulupitu Purwokerto, Kompol Agus Supriadi Siswanto, Roni, Nusakambangan, Miswono, Kasat Reskrim Polresta, Korban, Kepala, Tangkisan, Agus</t>
+          <t>Tangkisan, Kompol Agus Supriadi Siswanto, Kepala, I, Korban, Roni, Miswono, Terminal Bulupitu Purwokerto, Kasat Reskrim Polresta, Pelaku, Purwokerto, Agus, Nusakambangan</t>
         </is>
       </c>
       <c r="B163" t="n">
@@ -22032,7 +22032,7 @@
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>AF, MN, Kapolres, Ramadhan, Juata Laut, Taufik, Korban, AKBP Taufik, Arya, Dilansir, EG</t>
+          <t>Dilansir, Ramadhan, Korban, MN, AKBP Taufik, Taufik, AF, Kapolres, Juata Laut, EG, Arya</t>
         </is>
       </c>
       <c r="B164" t="n">
@@ -22155,7 +22155,7 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KUHP, Ferdy Sambo, Brigadir Yosua Hutabarat, Eliezer, Bripka Ricky Rizal, Romer, Sadam, Putri Candrawathi, Bharada Richard Eliezer Pudihang Lumiu, Sambo Eliezer, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua</t>
+          <t>Sadam, Ferdy Sambo, Brigadir Nopriansyah Yosua Hutabarat, KUHP, Yosua, Putri Candrawathi, Romer, Bharada Richard Eliezer Pudihang Lumiu, Bripka Ricky Rizal, Kuat, Eliezer, Sambo Eliezer, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B165" t="n">
@@ -22274,7 +22274,7 @@
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>SMA, Kasat Reskrim Polres, AKP Herly Setiawan, Gunung, AN, Gugah, Korban, P, Sumatera, Microwave, Ade Firmansyah, Herly</t>
+          <t>Herly, AKP Herly Setiawan, SMA, Sumatera, Korban, Gunung, P, AN, Microwave, Gugah, Ade Firmansyah, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B166" t="n">
@@ -22402,7 +22402,7 @@
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Santoso, Rumah Dinas Wali, Priyo Suhartono, Feti, Feti Wulandari, Toto Robandiyo, Kombes Pol Totok Suharyanto, Kepala Bakesbangpol, Wali, Priyo, Sekda, Argo, AKBP Argowiyono</t>
+          <t>AKBP Argowiyono, Kepala Bakesbangpol, Sekda, Priyo, Feti Wulandari, Santoso, Argo, Feti, Toto Robandiyo, Priyo Suhartono, Rumah Dinas Wali, Kombes Pol Totok Suharyanto, Wali</t>
         </is>
       </c>
       <c r="B167" t="n">
@@ -22543,7 +22543,7 @@
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, Ferdy Sambo, Putri, Bripka Ricky Rizal, Adi, Brigadir Yosua, Putri Candrawathi, Sambo, Kuat, Yosua</t>
+          <t>Ferdy Sambo, Brigadir Yosua, Adi, Putri, Yosua, Putri Candrawathi, Bripka Ricky Rizal, Bharada Richard Eliezer, Kuat, Sambo</t>
         </is>
       </c>
       <c r="B168" t="n">
@@ -22784,7 +22784,7 @@
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Kompol Chuck Putranto, Sidang, AKBP Arif Rahman Arifin, Hakim Wahyu Imam Santoso, Kompol Baiquni Wibowo, Brigadir, Putri Candrawathi, Brigadir Yosua, Brigjen Hendra Kurniawan, Kuat, ITE, Kombes Agus Nurpatria</t>
+          <t>Brigadir, Hakim Wahyu Imam Santoso, ITE, Kombes Agus Nurpatria, Brigadir Yosua, Putri Candrawathi, AKBP Arif Rahman Arifin, Sidang, Kompol Chuck Putranto, Kuat, Ricky Rizal, Brigjen Hendra Kurniawan, Kompol Baiquni Wibowo</t>
         </is>
       </c>
       <c r="B170" t="n">
@@ -22898,7 +22898,7 @@
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>Pelaku, AKP Aris Setianto, Ipda Rizqi, HP, Kasat Reskrim Polres, Amerta Buana, Polres, IKD, Pria, Reskrim Polres, Gunaksa</t>
+          <t>IKD, Reskrim Polres, Pria, AKP Aris Setianto, HP, Kasat Reskrim Polres, Pelaku, Ipda Rizqi, Polres, Gunaksa, Amerta Buana</t>
         </is>
       </c>
       <c r="B171" t="n">
@@ -23015,7 +23015,7 @@
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>Panglima TNI Jenderal Andika Perkasa, Andika</t>
+          <t>Andika, Panglima TNI Jenderal Andika Perkasa</t>
         </is>
       </c>
       <c r="B172" t="n">
@@ -23037,7 +23037,7 @@
       </c>
       <c r="G172" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>08/12/2022</t>
         </is>
       </c>
       <c r="H172" t="n">
@@ -23113,7 +23113,7 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>Jenderal Sudirman, IKA Unhas, Muh Zuhur Dg Ranca, PW DMI, Mursalin, Takmir Masjid Baitul, Masjid Baitul, Najamuddin Sewang, Chakim Amrullah, MURI, Otak Pembunuhan Pegawai Dishub Meninggal Dunia Mantan Kasatpol PP, Panitia IKA Unhas, Dishub, Chakim, Iqbal, Pengurus Wilayah IKA Unhas, Pembatas, Kronologi, Lomba, Panitia, Pengurus Wilayah Dewan Masjid Indonesia, Rahmansyah, Ikut, Iqbal Asnan</t>
+          <t>Otak Pembunuhan Pegawai Dishub Meninggal Dunia Mantan Kasatpol PP, Muh Zuhur Dg Ranca, IKA Unhas, Chakim Amrullah, Dishub, Iqbal Asnan, Panitia, Pembatas, Masjid Baitul, Ikut, Takmir Masjid Baitul, Mursalin, Lomba, Panitia IKA Unhas, Pengurus Wilayah Dewan Masjid Indonesia, Iqbal, Najamuddin Sewang, PW DMI, Rahmansyah, Kronologi, Pengurus Wilayah IKA Unhas, MURI, Chakim, Jenderal Sudirman</t>
         </is>
       </c>
       <c r="B173" t="n">
@@ -23312,7 +23312,7 @@
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>Andika, Polri, Bapak Panglima, Paspampres, TNI, Kisdiyanto, Dilansir, Penerangan TNI Mayjen Kisdiyanto, Kepala, Kostrad, Jenderal Andika Perkasa</t>
+          <t>Penerangan TNI Mayjen Kisdiyanto, Andika, Dilansir, Kepala, Kisdiyanto, Jenderal Andika Perkasa, TNI, Polri, Bapak Panglima, Paspampres, Kostrad</t>
         </is>
       </c>
       <c r="B174" t="n">
@@ -23433,7 +23433,7 @@
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>Koh Erben, Alfons, Ferdy Sambo, Eliezer, Romer, Sambo, Pak Erben, Yosua</t>
+          <t>Ferdy Sambo, Koh Erben, Alfons, Yosua, Pak Erben, Romer, Eliezer, Sambo</t>
         </is>
       </c>
       <c r="B175" t="n">
@@ -23568,7 +23568,7 @@
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>Sudiro, Dhio, Tadi, Gang Durian, Setyo, Pantauan, Plt Kasat Reskrim Polresta, ART, AKP Setyo Hermawan, Satria, Satria Budhi, Prajenan, Kejaksaan Negeri, Kejaksaan, Rekonstruksi, Polresta</t>
+          <t>Rekonstruksi, Kejaksaan Negeri, Plt Kasat Reskrim Polresta, Sudiro, Prajenan, ART, Polresta, Dhio, Satria, Satria Budhi, Tadi, AKP Setyo Hermawan, Setyo, Gang Durian, Pantauan, Kejaksaan</t>
         </is>
       </c>
       <c r="B176" t="n">
@@ -23706,7 +23706,7 @@
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>Pelaku, Tol Priok, CCTV, Kompol Sutikno, Sutikno, Kasat PJR Ditlantas Polda, Video</t>
+          <t>CCTV, Video, Pelaku, Tol Priok, Kompol Sutikno, Kasat PJR Ditlantas Polda, Sutikno</t>
         </is>
       </c>
       <c r="B177" t="n">
@@ -23818,7 +23818,7 @@
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>Belawan, Dinas Pengerjaan Umum, Instagramnya, Hendra Saputra Sitorus, AKP Rudy Syahputra, LPSE, Hendra, Bobby, Golap, Rudy Syahputra, Kanit Reskrim Polres Pelabuhan Belawan, APBD, Blok B, Wali, Sicanang, Bobby Nasution</t>
+          <t>APBD, Bobby Nasution, Bobby, LPSE, Hendra Saputra Sitorus, AKP Rudy Syahputra, Rudy Syahputra, Instagramnya, Sicanang, Kanit Reskrim Polres Pelabuhan Belawan, Golap, Blok B, Wali, Dinas Pengerjaan Umum, Hendra, Belawan</t>
         </is>
       </c>
       <c r="B178" t="n">
@@ -23939,7 +23939,7 @@
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>Kapolsek Lakarsantri Kompol Hakim, Randu, Elok, Beruntung, Palupi, Korban, Lakarsantri, Yogi</t>
+          <t>Lakarsantri, Kapolsek Lakarsantri Kompol Hakim, Elok, Palupi, Yogi, Beruntung, Korban, Randu</t>
         </is>
       </c>
       <c r="B179" t="n">
@@ -24071,7 +24071,7 @@
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>Pelaku, CCTV, Tim Promosi Unair, HP, ATM, Polsek Mulyosari, Panca, Twitter, Pria, Panca Budi Agnanta, Imam Solikin Dwi Laksono</t>
+          <t>CCTV, Pria, Tim Promosi Unair, Panca Budi Agnanta, HP, Imam Solikin Dwi Laksono, Pelaku, ATM, Twitter, Polsek Mulyosari, Panca</t>
         </is>
       </c>
       <c r="B180" t="n">
@@ -24204,7 +24204,7 @@
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>Terdakwa Arif Rachman Arifin, Junaedi, FS, Aan, Pak Hendra, Ferdy Sambo, Kadiv Propam Polri, Brigadir Yosua Hutabarat, Hendra Kurniawan, Junaedi Saibih, Nah, Brigadir J, Arif, Arif Rachman, Brigadir, Aan Eko Widiarto, Putri Candrawathi, Hal</t>
+          <t>Brigadir, Ferdy Sambo, Nah, FS, Brigadir J, Arif, Pak Hendra, Junaedi, Putri Candrawathi, Kadiv Propam Polri, Arif Rachman, Terdakwa Arif Rachman Arifin, Hendra Kurniawan, Aan Eko Widiarto, Junaedi Saibih, Hal, Aan, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B181" t="n">
@@ -24349,7 +24349,7 @@
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Adzan Romer, Eliezer, Bripka Ricky Rizal, Combat Wilson, Romer, Sambo, Brigadir Yosua, Chad, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua</t>
+          <t>Ferdy Sambo, Brigadir Yosua, Combat Wilson, Chad, KUHP, Yosua, Brigadir N Yosua Hutabarat, Putri Candrawathi, Romer, Bripka Ricky Rizal, Bharada Richard Eliezer, Kuat, Eliezer, Brigadir Nopriansyah Yosua Hutabarat, Sambo, Adzan Romer</t>
         </is>
       </c>
       <c r="B182" t="n">
@@ -24481,7 +24481,7 @@
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>Tanjungrejo, Gadingkasri, AKP Agnis Juwita Manurung, Tragedi Kanjuruhan, Kasat Lantas Polres, Bandulan, PJR Polda, Aremania, Tol, Mbebekan</t>
+          <t>Gadingkasri, Mbebekan, AKP Agnis Juwita Manurung, Tanjungrejo, Kasat Lantas Polres, Tol, Aremania, PJR Polda, Bandulan, Tragedi Kanjuruhan</t>
         </is>
       </c>
       <c r="B183" t="n">
@@ -24603,7 +24603,7 @@
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>Simak, Haryadi Suyuti, KPK Ferdian Adi Nugroho, Zaenur, Wali, Zaenur Rohman</t>
+          <t>Simak, Zaenur, KPK Ferdian Adi Nugroho, Haryadi Suyuti, Zaenur Rohman, Wali</t>
         </is>
       </c>
       <c r="B184" t="n">
@@ -24716,7 +24716,7 @@
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>AKP Kasiwon, Gunungkidul, T, Panit Reskrim Polsek, DI, Mahmed, Mapolsek, Kalurahan Candirejo, P, Iptu Mahmed Ali Bahonar, Kapolsek, Kapanewon</t>
+          <t>Kapanewon, Kapolsek, T, DI, AKP Kasiwon, P, Gunungkidul, Mahmed, Kalurahan Candirejo, Iptu Mahmed Ali Bahonar, Mapolsek, Panit Reskrim Polsek</t>
         </is>
       </c>
       <c r="B185" t="n">
@@ -24831,7 +24831,7 @@
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>Allah SWT, Rukun Wasiat</t>
+          <t>Rukun Wasiat, Allah SWT</t>
         </is>
       </c>
       <c r="B186" t="n">
@@ -24853,7 +24853,7 @@
       </c>
       <c r="G186" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>02/12/2022</t>
         </is>
       </c>
       <c r="H186" t="n">
@@ -24983,7 +24983,7 @@
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, KUHP, Brigadir N Yosua Hutabarat, Putri, Ferdy Sambo, Eliezer, Bripka Ricky Rizal, Sambo, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua, PN Jaksel</t>
+          <t>Ferdy Sambo, KUHP, Putri, Yosua, Putri Candrawathi, Brigadir N Yosua Hutabarat, Bripka Ricky Rizal, Bharada Richard Eliezer, Kuat, Eliezer, Brigadir Nopriansyah Yosua Hutabarat, Sambo, PN Jaksel</t>
         </is>
       </c>
       <c r="B187" t="n">
@@ -25032,12 +25032,12 @@
       </c>
       <c r="N187" t="inlineStr">
         <is>
-          <t>magelang</t>
+          <t>jakarta selatan</t>
         </is>
       </c>
       <c r="O187" t="inlineStr">
         <is>
-          <t>jawa tengah</t>
+          <t>dki jakarta</t>
         </is>
       </c>
       <c r="P187" t="n">
@@ -25111,7 +25111,7 @@
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>Ricky, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Ricky Rizal Wibowo, Sambo, Brigadir Yosua, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Yosua, Mantan Kadiv Propam Polri Ferdy Sambo</t>
+          <t>Ricky, Ferdy Sambo, Brigadir Yosua, KUHP, Yosua, Brigadir N Yosua Hutabarat, Putri Candrawathi, Ricky Rizal Wibowo, Mantan Kadiv Propam Polri Ferdy Sambo, Kuat, Brigadir Nopriansyah Yosua Hutabarat, Sambo</t>
         </is>
       </c>
       <c r="B188" t="n">
@@ -25241,7 +25241,7 @@
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>Pelaku, Kapolres, Petugas, Kombes Kusumo Wahyu Bintoro, Pemerkosaan, Dilansir, Kusumo</t>
+          <t>Petugas, Dilansir, Pemerkosaan, Kombes Kusumo Wahyu Bintoro, Kusumo, Pelaku, Kapolres</t>
         </is>
       </c>
       <c r="B189" t="n">
@@ -25355,7 +25355,7 @@
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>Junjung, Kasat Reskrim Polres, Polisi, Krajan, Agung, AK, AKP Agung Kurnia Putra</t>
+          <t>Krajan, Polisi, AKP Agung Kurnia Putra, Junjung, Agung, AK, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B190" t="n">
@@ -25484,7 +25484,7 @@
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>CCTV, Gustina, Apotek, AKP Sumardi, TKP, Kapolsek, Sumardi, Gustina Maya</t>
+          <t>Kapolsek, Sumardi, Gustina Maya, CCTV, Gustina, Apotek, AKP Sumardi, TKP</t>
         </is>
       </c>
       <c r="B191" t="n">
@@ -25602,7 +25602,7 @@
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>Direktur Reskrimum Polda, Budyanto Gunawan, Kisnu Widagso, Kombes Hengki Haryadi, Kisnu</t>
+          <t>Direktur Reskrimum Polda, Kombes Hengki Haryadi, Kisnu Widagso, Kisnu, Budyanto Gunawan</t>
         </is>
       </c>
       <c r="B192" t="n">
@@ -25764,7 +25764,7 @@
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>Panglima TNI Jenderal Andika Perkasa, Mayor Paspampres, TNI, Andika, Kostrad</t>
+          <t>Andika, TNI, Panglima TNI Jenderal Andika Perkasa, Mayor Paspampres, Kostrad</t>
         </is>
       </c>
       <c r="B193" t="n">
@@ -25877,7 +25877,7 @@
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>Richard, Koh Erben, Alfons, Ferdy Sambo, Brigadir Yosua Hutabarat, Eliezer, Brigadir J, Pak Erben, Romer, Sambo, Pihak Richard Eliezer, Brigadir Yosua, Putri Candrawathi, Sadam, Ronny Talapessy, Ronny, Yosua, Richard Eliezer</t>
+          <t>Sadam, Ferdy Sambo, Ronny Talapessy, Brigadir J, Brigadir Yosua, Koh Erben, Richard Eliezer, Alfons, Richard, Yosua, Pihak Richard Eliezer, Putri Candrawathi, Romer, Pak Erben, Eliezer, Sambo, Ronny, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B194" t="n">
@@ -26038,7 +26038,7 @@
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>Kasi Humas Polres, Rosita, Korban, Tim, Iptu Rianus Zebua, Zebua, Poltak Sinaga</t>
+          <t>Tim, Korban, Iptu Rianus Zebua, Kasi Humas Polres, Zebua, Rosita, Poltak Sinaga</t>
         </is>
       </c>
       <c r="B195" t="n">
@@ -26157,7 +26157,7 @@
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>AKBP M Irwan Susanto, Kapolres, RM, Korban, Irwan, Pak</t>
+          <t>Pak, AKBP M Irwan Susanto, RM, Korban, Kapolres, Irwan</t>
         </is>
       </c>
       <c r="B196" t="n">
@@ -26285,7 +26285,7 @@
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>HM, Master, Kasat Reskrim Polres Humbahas Iptu Master, Polisi, RS Jiwa, Dilansir, NS</t>
+          <t>Dilansir, NS, Polisi, Master, RS Jiwa, HM, Kasat Reskrim Polres Humbahas Iptu Master</t>
         </is>
       </c>
       <c r="B197" t="n">
@@ -26401,7 +26401,7 @@
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>Pengelola Apartemen Kalibata City, Polisi, Kalibata, SS, Kombes Ade Ary Syam, Kapolres, RS, TKP, Pria, General Manager Apartemen Kalibata, CCTV, Ade Ary, Martiza Melati, Apartemen Kalibata City, YA, Y, Kapolsek, Martiza, Rumah Sakit Tria</t>
+          <t>Martiza, RS, Kombes Ade Ary Syam, Kalibata, SS, Rumah Sakit Tria, Kapolres, Ade Ary, Y, Martiza Melati, TKP, YA, CCTV, Pria, Pengelola Apartemen Kalibata City, Kapolsek, Polisi, General Manager Apartemen Kalibata, Apartemen Kalibata City</t>
         </is>
       </c>
       <c r="B198" t="n">
@@ -26525,7 +26525,7 @@
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>Sapto Dumadi Ragil Raharjo, Keraton Solo GRAy Devi Lelyana, Keputren, Polisi, Kasat Reskrim Polresta Solo Kompol Djohan Andika, Djohan, Sri Atun, TKP, Olah TKP, Gusti Devi, Keraton Solo</t>
+          <t>Olah TKP, Polisi, Kasat Reskrim Polresta Solo Kompol Djohan Andika, Keputren, Keraton Solo GRAy Devi Lelyana, Gusti Devi, Keraton Solo, Djohan, Sapto Dumadi Ragil Raharjo, Sri Atun, TKP</t>
         </is>
       </c>
       <c r="B199" t="n">
@@ -26648,7 +26648,7 @@
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>Bharada E, Kuat Maruf, B, Ferdy Sambo, Muhammad Arif Setiawan, C, Jaksa, Bripka Ricky Rizal, Bripka RR, Arif, Pengadilan Negeri, Putri Candrawathi, Brigadir Yosua, A, Saksi, Kuat</t>
+          <t>Ferdy Sambo, Arif, Brigadir Yosua, Saksi, Jaksa, Bharada E, C, Putri Candrawathi, A, Bripka Ricky Rizal, Muhammad Arif Setiawan, B, Kuat, Kuat Maruf, Bripka RR, Pengadilan Negeri</t>
         </is>
       </c>
       <c r="B200" t="n">
@@ -26803,7 +26803,7 @@
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>Tanah Air, Bhabinkamtibmas, Julian, Komisioner Kompolnas Poengky Indarti, Indonesia, Kepolisian, Kamaruddin, Gerah, Polres, Poengky, Kompolnas, Uya Kuya, Kamaruddin Simanjuntak, YouTube Uya Kuya TV, Polri</t>
+          <t>Gerah, Kompolnas, Indonesia, Julian, Komisioner Kompolnas Poengky Indarti, Kamaruddin Simanjuntak, Kamaruddin, Kepolisian, Poengky, Polres, Uya Kuya, YouTube Uya Kuya TV, Bhabinkamtibmas, Tanah Air, Polri</t>
         </is>
       </c>
       <c r="B201" t="n">
@@ -26946,7 +26946,7 @@
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>Ricky, Ferdy Sambo, Divpropam Polri, Divisi Propam Polri, Sambo, Putri Candrawathi, Dilansir</t>
+          <t>Ricky, Ferdy Sambo, Dilansir, Divpropam Polri, Sambo, Putri Candrawathi, Divisi Propam Polri</t>
         </is>
       </c>
       <c r="B202" t="n">
@@ -27075,7 +27075,7 @@
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>Anton, MRS, TKP, Polres</t>
+          <t>MRS, Polres, Anton, TKP</t>
         </is>
       </c>
       <c r="B203" t="n">
@@ -27199,7 +27199,7 @@
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>Keraton Kasunanan Solo, TRKD, Solo, Agung, Wirabhumi, Rumah Sakit Kasih, Agung Susilo, Jolotundo, KPH Eddy Wirabhumi, Mapolresta Solo, Korban Visum, RS Agung</t>
+          <t>Agung Susilo, RS Agung, KPH Eddy Wirabhumi, TRKD, Rumah Sakit Kasih, Wirabhumi, Jolotundo, Keraton Kasunanan Solo, Agung, Korban Visum, Mapolresta Solo, Solo</t>
         </is>
       </c>
       <c r="B204" t="n">
@@ -27333,7 +27333,7 @@
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>Pelaku, Exit Tol, Pudakpayung, Donny, Sweetha, Dony, Seweetha, Tol, MF, Sweetha Kusuma Gatra</t>
+          <t>Sweetha, Seweetha, Exit Tol, MF, Pudakpayung, Sweetha Kusuma Gatra, Dony, Donny, Pelaku, Tol</t>
         </is>
       </c>
       <c r="B205" t="n">
@@ -27465,7 +27465,7 @@
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>AD, Bagian Humas Polres, Yongky Nata, AKP H, ITE, H, Yongky, Polres, Aipda AD, Wanita MH, Polda, MH, Iptu MHD, Yolies Yongky Nata</t>
+          <t>Yongky Nata, Aipda AD, Wanita MH, ITE, Yongky, AKP H, MH, H, Iptu MHD, Polda, Bagian Humas Polres, Polres, Yolies Yongky Nata, AD</t>
         </is>
       </c>
       <c r="B206" t="n">
@@ -27590,7 +27590,7 @@
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>Saudara, Ferdy Sambo Minta Maaf, KUHP, Brigadir N Yosua Hutabarat, Ferdy Sambo, Brigadir Yosua Hutabarat, Yosua, Ricky Rizal Wibowo, Sambo, Putri Candrawathi, Bang Santo, Kuat, Kombes Suasanto Haris, Susanto</t>
+          <t>Saudara, Ferdy Sambo, Kombes Suasanto Haris, KUHP, Susanto, Yosua, Brigadir N Yosua Hutabarat, Putri Candrawathi, Ricky Rizal Wibowo, Ferdy Sambo Minta Maaf, Bang Santo, Kuat, Sambo, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B207" t="n">
@@ -27725,7 +27725,7 @@
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Brigadir Nofriansyah Yosua Hutabarat, Irwan Irawan, Pembunuhan Berencana Yosua Eliezer, Bersaksi Bharada Richard Eliezer Pudihang Lumiu, Ferdy Sambo, Brigadir Yosua Hutabarat, KM, Bripka Ricky Rizal, Yosua, Eliezer, Sambo, Putri Candrawathi, Bripka Ricky Rizal Didakwa, Ronny Talapessy, Ronny, Kuat</t>
+          <t>Ferdy Sambo, Pembunuhan Berencana Yosua Eliezer, Brigadir Nofriansyah Yosua Hutabarat, Sambo, Yosua, KM, Putri Candrawathi, Bersaksi Bharada Richard Eliezer Pudihang Lumiu, Bripka Ricky Rizal, Bripka Ricky Rizal Didakwa, Kuat, Eliezer, Ricky Rizal, Ronny Talapessy, Irwan Irawan, Ronny, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B208" t="n">
@@ -27853,7 +27853,7 @@
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>AKP S Ahmad, ABG, Tana Toraja, UU ITE, Pasar, Kasat Reskrim Polres Tana Toraja, Kapolres Tana Toraja AKBP Juara Silalahi, Ahmad, Motifnya</t>
+          <t>Kasat Reskrim Polres Tana Toraja, Ahmad, Motifnya, UU ITE, Pasar, ABG, Kapolres Tana Toraja AKBP Juara Silalahi, Tana Toraja, AKP S Ahmad</t>
         </is>
       </c>
       <c r="B209" t="n">
@@ -27979,7 +27979,7 @@
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>Pelaku, Rejeki, Mojoruntut, MiChat, EK, Kusumo</t>
+          <t>Rejeki, Kusumo, Mojoruntut, MiChat, Pelaku, EK</t>
         </is>
       </c>
       <c r="B210" t="n">
@@ -28095,7 +28095,7 @@
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>Buntu Malangka, Kasat Reskrim Polres, Sukmawiria, Polres, Iptu Hamring</t>
+          <t>Polres, Buntu Malangka, Sukmawiria, Iptu Hamring, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B211" t="n">
@@ -28219,7 +28219,7 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>RSUD SMC, Kasat Reskrim Polres, AKP Ari Rinaldo, Ari, SMP, PA</t>
+          <t>PA, Ari, RSUD SMC, SMP, AKP Ari Rinaldo, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B212" t="n">
@@ -28335,7 +28335,7 @@
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>Pelaku, Andry, Kanit Reskrim Polsek Madonga Ipda Andry Irwanto, Suami NN, Ipda Andry, Morosi, Baru, Korban, Pria, SS</t>
+          <t>Baru, Pria, Korban, SS, Ipda Andry, Andry, Kanit Reskrim Polsek Madonga Ipda Andry Irwanto, Pelaku, Suami NN, Morosi</t>
         </is>
       </c>
       <c r="B213" t="n">
@@ -28465,7 +28465,7 @@
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>HP, Kasat Reskrim Polres, KA, Onekore, Perlindungan Anak, UU Jo, Iptu Yance, NTT, Iptu Yance Kadiaman, Udayana</t>
+          <t>Perlindungan Anak, NTT, UU Jo, HP, KA, Iptu Yance Kadiaman, Onekore, Udayana, Iptu Yance, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B214" t="n">
@@ -28593,7 +28593,7 @@
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>Polsek, Saksi H, Kasi Humas Polres, Tuahta, Saksi S, HP, Joko, Reno, Sumatera, P, Tim, S, AKP Joko Sumpeno</t>
+          <t>Joko, Reno, AKP Joko Sumpeno, Sumatera, Polsek, Tim, S, HP, P, Kasi Humas Polres, Saksi S, Tuahta, Saksi H</t>
         </is>
       </c>
       <c r="B215" t="n">
@@ -28727,7 +28727,7 @@
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>Pelaku, Iptu Kadek Agus Sutris Juniantara, Kapolres, Kepolisian, I Ketut Budiawan, Gang Flamboyan Nomor IA, AKBP I Made Bayu Sutha Sartana, TKP, Penida, Bayu Sutha, Lingkungan Sengguan Kangin</t>
+          <t>Iptu Kadek Agus Sutris Juniantara, Lingkungan Sengguan Kangin, Gang Flamboyan Nomor IA, Kepolisian, Bayu Sutha, Penida, Kapolres, Pelaku, I Ketut Budiawan, AKBP I Made Bayu Sutha Sartana, TKP</t>
         </is>
       </c>
       <c r="B216" t="n">
@@ -28877,7 +28877,7 @@
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>Irfan Widyanto, Saudara, Hendra, Paminal Propam Polri Hendra Kurniawan, Jaksa, Irfan, Afrizal, Hakim</t>
+          <t>Saudara, Irfan, Paminal Propam Polri Hendra Kurniawan, Irfan Widyanto, Afrizal, Jaksa, Hakim, Hendra</t>
         </is>
       </c>
       <c r="B217" t="n">
@@ -29025,7 +29025,7 @@
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Ferdy Sambo, TV, Majelis Hakim, Eks Kabag Gakkum Provos Divpropam Polri Kombes Susanto Haris, Brigadir J, Kadiv Propam Polri Ferdy Sambo, Brigadir, Putri Candrawathi, Awalnya, Polda, Sambo, Khusus Ferdy Sambo, Kadiv Propam, Kuat, Susanto, Richard Eliezer</t>
+          <t>Brigadir, Khusus Ferdy Sambo, Ferdy Sambo, Brigadir J, Kadiv Propam Polri Ferdy Sambo, Richard Eliezer, Majelis Hakim, Susanto, Sambo, Putri Candrawathi, TV, Awalnya, Polda, Eks Kabag Gakkum Provos Divpropam Polri Kombes Susanto Haris, Ricky Rizal, Kuat, Kadiv Propam</t>
         </is>
       </c>
       <c r="B218" t="n">
@@ -29162,7 +29162,7 @@
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>Bharada Richard Eliezer, Ricky, Ferdy Sambo, Putri, Bripka Ricky, Eliezer, Bripka Ricky Rizal, Adi, Putri Candrawathi, Terindikasi, Bharada Eliezer, Adi Febrianto, Kuat</t>
+          <t>Ricky, Ferdy Sambo, Adi Febrianto, Terindikasi, Adi, Bharada Eliezer, Putri, Putri Candrawathi, Bripka Ricky Rizal, Bharada Richard Eliezer, Bripka Ricky, Kuat, Eliezer</t>
         </is>
       </c>
       <c r="B219" t="n">
@@ -29289,7 +29289,7 @@
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>Tim Kalong Satreskrim Polres, Pelaku, Suryanto, Polisi, Toko Emas Murni, Kasat Reskrim Polres, AKP Dika Hardiyan Wiratama, Kepatihan, Dika</t>
+          <t>Polisi, Toko Emas Murni, Tim Kalong Satreskrim Polres, Suryanto, Dika, Kepatihan, Pelaku, AKP Dika Hardiyan Wiratama, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B220" t="n">
@@ -29403,7 +29403,7 @@
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>Kompol Ardhie Demastyo, Polsek, Duri, West One City, Kapolsek, RS Polri, Ardhie</t>
+          <t>Kapolsek, Polsek, RS Polri, Kompol Ardhie Demastyo, Duri, West One City, Ardhie</t>
         </is>
       </c>
       <c r="B221" t="n">
@@ -29525,7 +29525,7 @@
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>Santoso, K, Gunungkidul Ojok Dibandengke, Hanif, Joko, Farel, Mulawarman, Wali, Pratu K, Kopda, Pelaku, Gunungkidul, Rumah Sakit Kanujoso Djatiwibowo, Presiden Joko Widodo, Feti Wulandari, Kapanewon, Erina Gudono, DI, Kaesang Pangarep, Farel Prayoga, Kopda A, TNI, KUHPM</t>
+          <t>Hanif, DI, Rumah Sakit Kanujoso Djatiwibowo, Erina Gudono, KUHPM, Mulawarman, Kaesang Pangarep, Pratu K, Joko, Presiden Joko Widodo, TNI, Kapanewon, Santoso, Pelaku, K, Kopda, Farel Prayoga, Gunungkidul Ojok Dibandengke, Feti Wulandari, Gunungkidul, Kopda A, Farel, Wali</t>
         </is>
       </c>
       <c r="B222" t="n">
@@ -29709,7 +29709,7 @@
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Saudara, Provos, Ferdy Sambo, Brigadir Yosua Hutabarat, Propam Polri, Propam, Sambo, Brigadir Yosua, Hakim, Coba Saudara, Kuat, Yosua, Richard Eliezer</t>
+          <t>Propam Polri, Saudara, Ferdy Sambo, Coba Saudara, Brigadir Yosua, Richard Eliezer, Hakim, Yosua, Propam, Provos, Kuat, Ricky Rizal, Sambo, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B223" t="n">
@@ -29849,7 +29849,7 @@
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>Pelaku, Perampokan, Polisi, Toko Emas Murni, Kasat Reskrim Polres, AKP Dika Hardiyan Wiratama, Kepatihan, Dika</t>
+          <t>Perampokan, Polisi, Toko Emas Murni, Dika, Kepatihan, AKP Dika Hardiyan Wiratama, Pelaku, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B224" t="n">
@@ -29976,7 +29976,7 @@
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>Edward Tannur, Rusdi Masse, Alien Mus, Rusdi, Bulog, Suhardi Duka, Irfan, Andi Akmal Pasluddin, Muh Dhevy Bijak</t>
+          <t>Irfan, Bulog, Rusdi Masse, Alien Mus, Rusdi, Edward Tannur, Suhardi Duka, Andi Akmal Pasluddin, Muh Dhevy Bijak</t>
         </is>
       </c>
       <c r="B225" t="n">
@@ -30100,7 +30100,7 @@
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>Sudirman, Suka, Parhan, Ditangkapnya AK, Perlindungan Anak, AK, Kaget, Tangannya, Pengen</t>
+          <t>Ditangkapnya AK, Perlindungan Anak, Suka, Pengen, Parhan, Kaget, Tangannya, AK, Sudirman</t>
         </is>
       </c>
       <c r="B226" t="n">
@@ -30232,7 +30232,7 @@
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>Pelaku, Parkir Terminal, Kasat Reskrim Polres, STNK, AKP Supriyono, Beat, Resmob Polres, Supriyono</t>
+          <t>Beat, STNK, Supriyono, Resmob Polres, Parkir Terminal, AKP Supriyono, Pelaku, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B227" t="n">
@@ -30349,7 +30349,7 @@
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>AKBP Arif, CCTV, Saudara, Eks Kadiv Propam Polri Ferdy Sambo, Wakaden B Biro Paminal Propam Polri AKBP Arif Rahman Arifin, Brigadir Yosua Hutabarat, Baiquni, Sambo, Tadi Saudara, Baiquni Wibowo</t>
+          <t>Wakaden B Biro Paminal Propam Polri AKBP Arif Rahman Arifin, Saudara, Baiquni, CCTV, Eks Kadiv Propam Polri Ferdy Sambo, Baiquni Wibowo, Tadi Saudara, Sambo, AKBP Arif, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B228" t="n">
@@ -30486,7 +30486,7 @@
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>Soembodo, BS, Nur Laila, Perlindungan Anak, SK</t>
+          <t>Perlindungan Anak, SK, Nur Laila, Soembodo, BS</t>
         </is>
       </c>
       <c r="B229" t="n">
@@ -30613,7 +30613,7 @@
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>AKBP Imron Ermawan, Kapolres, Tersangka, Imron, Mayat Nani, Leuwigajah, Nani, Rifki, Rifky</t>
+          <t>Rifki, Leuwigajah, Rifky, Nani, Imron, Tersangka, Mayat Nani, Kapolres, AKBP Imron Ermawan</t>
         </is>
       </c>
       <c r="B230" t="n">
@@ -30746,7 +30746,7 @@
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>POM TNI, Wahyu, Mako Paspampres, Panglima TNI Jenderal Andika Perkasa, Wahyu Hidayat Sudjatmiko, Paspampres, Mabes TNI, Andika, Polri, Kostrad</t>
+          <t>Andika, Wahyu Hidayat Sudjatmiko, Panglima TNI Jenderal Andika Perkasa, Polri, Mako Paspampres, Wahyu, Paspampres, Mabes TNI, Kostrad, POM TNI</t>
         </is>
       </c>
       <c r="B231" t="n">
@@ -30866,7 +30866,7 @@
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>Putri Keraton Solo GRAy Devi Lelyana Dewi, Keputren, Djohan Andika, Gusti Devi, Keputren Keraton Kasunanan Solo, Kasatreskrim Polresta Solo Kompol Djohan Andika</t>
+          <t>Djohan Andika, Keputren Keraton Kasunanan Solo, Kasatreskrim Polresta Solo Kompol Djohan Andika, Putri Keraton Solo GRAy Devi Lelyana Dewi, Gusti Devi, Keputren</t>
         </is>
       </c>
       <c r="B232" t="n">
@@ -30992,7 +30992,7 @@
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>AR, Korban, Pelaku</t>
+          <t>Pelaku, Korban, AR</t>
         </is>
       </c>
       <c r="B233" t="n">
@@ -31103,7 +31103,7 @@
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>Chad, Clearwater, Amerika Serikat, Northwood Presbyterian Church</t>
+          <t>Chad, Amerika Serikat, Northwood Presbyterian Church, Clearwater</t>
         </is>
       </c>
       <c r="B234" t="n">
@@ -31222,7 +31222,7 @@
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>CCTV, Argo, Bareskrim Mabes Polri, Polres</t>
+          <t>CCTV, Polres, Argo, Bareskrim Mabes Polri</t>
         </is>
       </c>
       <c r="B235" t="n">
@@ -31340,7 +31340,7 @@
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>Tado, Ismail, Casim, Eretan Kulon</t>
+          <t>Casim, Tado, Ismail, Eretan Kulon</t>
         </is>
       </c>
       <c r="B236" t="n">
@@ -31458,7 +31458,7 @@
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>Jl HR Rasuna Said, Kemenkop UKM, Teten Masduki, Teten, Kemenkop, SOP</t>
+          <t>Kemenkop, Teten, SOP, Kemenkop UKM, Teten Masduki, Jl HR Rasuna Said</t>
         </is>
       </c>
       <c r="B237" t="n">
@@ -31588,7 +31588,7 @@
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>DD, Kombes Iqbal Alqudusy, Polisi, Kabid Humas Polda, Iqbal, Abas Azhar, Mapolresta</t>
+          <t>Mapolresta, Kombes Iqbal Alqudusy, Polisi, Kabid Humas Polda, DD, Abas Azhar, Iqbal</t>
         </is>
       </c>
       <c r="B238" t="n">
@@ -31703,7 +31703,7 @@
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>Paya Perupuk, Polsek, Polisi, Kasat Reskrim Polres, Z, Petugas, Luis, Pura, Saiyah, Iptu Luis Beltran</t>
+          <t>Petugas, Paya Perupuk, Iptu Luis Beltran, Polisi, Pura, Saiyah, Polsek, Luis, Z, Kasat Reskrim Polres</t>
         </is>
       </c>
       <c r="B239" t="n">
@@ -31832,7 +31832,7 @@
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>Ahli Psikologi, Ricky Rizal, Kuat Maruf, Sidang, KUHP, Ferdy Sambo, Richard Eliezer Pudihang Lumiu, Brigadir J, Ricky Rizal Wibowo, Brigadir, Putri Candrawathi, Brigadir Yosua, Kuat, Richard Eliezer</t>
+          <t>Brigadir, Ferdy Sambo, Brigadir J, Richard Eliezer Pudihang Lumiu, Brigadir Yosua, Richard Eliezer, KUHP, Ricky Rizal, Putri Candrawathi, Ricky Rizal Wibowo, Sidang, Ahli Psikologi, Kuat, Kuat Maruf</t>
         </is>
       </c>
       <c r="B240" t="n">
@@ -31942,7 +31942,7 @@
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>Ampar, Tiban Koperasi, Pelaku, Kompol Salahudin, Sei Beduk, Piayu, Motif, RS, Fachri, Kapolsek, Korban RS, Agya, Usai</t>
+          <t>RS, Kapolsek, Motif, Fachri, Sei Beduk, Kompol Salahudin, Agya, Tiban Koperasi, Pelaku, Ampar, Piayu, Korban RS, Usai</t>
         </is>
       </c>
       <c r="B241" t="n">
@@ -32062,7 +32062,7 @@
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>Ricky Rizal, Saudara, Ricky, KUHP, Brigadir Yosua Hutabarat, Eliezer, Yosua, Sambo, Brigadir Yosua, Hakim, Saudara Yosua, Putri Candrawathi, Brigadir Nopriansyah Yosua Hutabarat, Kuat, Richard Eliezer</t>
+          <t>Saudara, Ricky, Brigadir Nopriansyah Yosua Hutabarat, Brigadir Yosua, Richard Eliezer, KUHP, Hakim, Yosua, Saudara Yosua, Putri Candrawathi, Kuat, Eliezer, Ricky Rizal, Sambo, Brigadir Yosua Hutabarat</t>
         </is>
       </c>
       <c r="B242" t="n">
@@ -32189,7 +32189,7 @@
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>AKBP Arif Rachman Arifin, Kaden A Biro Paminal Agus Nurpatria, CCTV, Brigadir N Yosua Hutabarat, Ferdy Sambo, Arif, Jaksa, Sambo, Brigadir Yosua, Putri Candrawathi, Kadiv Propam Ferdy Sambo, Yosua</t>
+          <t>Ferdy Sambo, Arif, AKBP Arif Rachman Arifin, Brigadir Yosua, CCTV, Jaksa, Yosua, Brigadir N Yosua Hutabarat, Putri Candrawathi, Kaden A Biro Paminal Agus Nurpatria, Kadiv Propam Ferdy Sambo, Sambo</t>
         </is>
       </c>
       <c r="B243" t="n">
@@ -32316,7 +32316,7 @@
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>K, T, AD, Bolak, Imam, Kapolres Tapanuli, RSUD Gunungtua, IH, SP, Pemberian Hasibuan</t>
+          <t>Kapolres Tapanuli, IH, Imam, Pemberian Hasibuan, SP, T, K, AD, RSUD Gunungtua, Bolak</t>
         </is>
       </c>
       <c r="B244" t="n">
@@ -32446,7 +32446,7 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>Tol Becakayu, Tersangka, Rudolf Tobing, Inspeksi Kalimalang, Inafis, Ade Yunia Rizabani, Xenia, Becakayu, Icha, Rekonstruksi, Ditreskrimum Polda, Rudolf</t>
+          <t>Rekonstruksi, Rudolf, Tol Becakayu, Rudolf Tobing, Icha, Xenia, Inafis, Tersangka, Becakayu, Ditreskrimum Polda, Inspeksi Kalimalang, Ade Yunia Rizabani</t>
         </is>
       </c>
       <c r="B245" t="n">
@@ -32584,7 +32584,7 @@
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>Kasus Pembunuhan Yosua Kompol Chuck Putranto, Eliezer, Yosua, Bharada Richard Eliezer, Kapolri, Kompol Chuck Didakwa, Kompol Baiquni Wibowo, Baiquni Wibowo, Kasubbagaudit Baggaketika Rowabprof Divisi Propam Polri, Chuck, Sambo, AKBP Arif Rachman Arifin, Brigjen Hendra Kurnia, Saudara, CCTV, Mako Brimob, Eks Kadiv Propam Polri Ferdy Sambo, Richard, Kombes Agus Nurpatria Adi Purnama, Brigadir Yosua Hutabarat, Yosua Hutabarat</t>
+          <t>Kapolri, Yosua, Baiquni Wibowo, Mako Brimob, Yosua Hutabarat, Bharada Richard Eliezer, Eliezer, Kompol Baiquni Wibowo, Brigjen Hendra Kurnia, Saudara, AKBP Arif Rachman Arifin, CCTV, Richard, Kasubbagaudit Baggaketika Rowabprof Divisi Propam Polri, Kombes Agus Nurpatria Adi Purnama, Sambo, Kompol Chuck Didakwa, Eks Kadiv Propam Polri Ferdy Sambo, Brigadir Yosua Hutabarat, Chuck, Kasus Pembunuhan Yosua Kompol Chuck Putranto</t>
         </is>
       </c>
       <c r="B246" t="n">
@@ -32737,7 +32737,7 @@
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>Saudara, Bapak, FS, Ferdy Sambo, Putri, Eliezer, Arman, Sambo, Putri Candrawathi, Hakim, Saudara Penasihat Hukum, Arman Hanis</t>
+          <t>Saudara, Ferdy Sambo, Arman, FS, Arman Hanis, Putri, Hakim, Putri Candrawathi, Saudara Penasihat Hukum, Eliezer, Sambo, Bapak</t>
         </is>
       </c>
       <c r="B247" t="n">
@@ -32871,7 +32871,7 @@
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>Ricky Rizal, BKO Divpropam Polri, Saudara, Ricky, FS, Komisioner Kompolnas Poengky Indarti, Ferdy Sambo, Brigadir Yosua Hutabarat, Bripka Ricky Rizal, Kadiv Propam, Kompolnas, Putri Candrawathi, Sambo, Hakim, Divisi Propam, Polri</t>
+          <t>Saudara, Ricky, Ferdy Sambo, FS, Kompolnas, Divisi Propam, Hakim, Putri Candrawathi, BKO Divpropam Polri, Bripka Ricky Rizal, Ricky Rizal, Sambo, Brigadir Yosua Hutabarat, Komisioner Kompolnas Poengky Indarti, Polri, Kadiv Propam</t>
         </is>
       </c>
       <c r="B248" t="n">
@@ -33023,7 +33023,7 @@
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>Gudang, Polisi, Kompol Evarmon Lubis, Evarmon, Kasi Humas Polres Tangsel Ipda Galih, Kapolsek, R</t>
+          <t>Kapolsek, Gudang, Polisi, Evarmon, R, Kompol Evarmon Lubis, Kasi Humas Polres Tangsel Ipda Galih</t>
         </is>
       </c>
       <c r="B249" t="n">
